--- a/BackTest/2020-01-13 BackTest HYC.xlsx
+++ b/BackTest/2020-01-13 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M196"/>
+  <dimension ref="A1:M197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="C2" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="D2" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="E2" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="F2" t="n">
-        <v>20360.447</v>
+        <v>6118.8621</v>
       </c>
       <c r="G2" t="n">
-        <v>1.91786666666667</v>
+        <v>1.917950000000004</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>1.919</v>
       </c>
       <c r="F3" t="n">
-        <v>8661.0327</v>
+        <v>20360.447</v>
       </c>
       <c r="G3" t="n">
-        <v>1.917750000000003</v>
+        <v>1.91786666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>1.919</v>
       </c>
       <c r="F4" t="n">
-        <v>20978.5203</v>
+        <v>8661.0327</v>
       </c>
       <c r="G4" t="n">
-        <v>1.917650000000003</v>
+        <v>1.917750000000003</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.915</v>
+        <v>1.919</v>
       </c>
       <c r="C5" t="n">
-        <v>1.915</v>
+        <v>1.919</v>
       </c>
       <c r="D5" t="n">
-        <v>1.915</v>
+        <v>1.919</v>
       </c>
       <c r="E5" t="n">
-        <v>1.915</v>
+        <v>1.919</v>
       </c>
       <c r="F5" t="n">
-        <v>20360</v>
+        <v>20978.5203</v>
       </c>
       <c r="G5" t="n">
-        <v>1.917400000000003</v>
+        <v>1.917650000000003</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.919</v>
+        <v>1.915</v>
       </c>
       <c r="C6" t="n">
-        <v>1.919</v>
+        <v>1.915</v>
       </c>
       <c r="D6" t="n">
-        <v>1.919</v>
+        <v>1.915</v>
       </c>
       <c r="E6" t="n">
-        <v>1.919</v>
+        <v>1.915</v>
       </c>
       <c r="F6" t="n">
-        <v>62253.3094</v>
+        <v>20360</v>
       </c>
       <c r="G6" t="n">
-        <v>1.91751666666667</v>
+        <v>1.917400000000003</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.915</v>
+        <v>1.919</v>
       </c>
       <c r="C7" t="n">
-        <v>1.915</v>
+        <v>1.919</v>
       </c>
       <c r="D7" t="n">
-        <v>1.915</v>
+        <v>1.919</v>
       </c>
       <c r="E7" t="n">
-        <v>1.915</v>
+        <v>1.919</v>
       </c>
       <c r="F7" t="n">
-        <v>29290</v>
+        <v>62253.3094</v>
       </c>
       <c r="G7" t="n">
-        <v>1.917600000000003</v>
+        <v>1.91751666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.916</v>
+        <v>1.915</v>
       </c>
       <c r="C8" t="n">
-        <v>1.916</v>
+        <v>1.915</v>
       </c>
       <c r="D8" t="n">
-        <v>1.916</v>
+        <v>1.915</v>
       </c>
       <c r="E8" t="n">
-        <v>1.916</v>
+        <v>1.915</v>
       </c>
       <c r="F8" t="n">
-        <v>78633.02469999999</v>
+        <v>29290</v>
       </c>
       <c r="G8" t="n">
-        <v>1.917533333333336</v>
+        <v>1.917600000000003</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.907</v>
+        <v>1.916</v>
       </c>
       <c r="C9" t="n">
-        <v>1.905</v>
+        <v>1.916</v>
       </c>
       <c r="D9" t="n">
-        <v>1.907</v>
+        <v>1.916</v>
       </c>
       <c r="E9" t="n">
-        <v>1.905</v>
+        <v>1.916</v>
       </c>
       <c r="F9" t="n">
-        <v>632922.1084</v>
+        <v>78633.02469999999</v>
       </c>
       <c r="G9" t="n">
-        <v>1.917400000000003</v>
+        <v>1.917533333333336</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.919</v>
+        <v>1.907</v>
       </c>
       <c r="C10" t="n">
-        <v>1.919</v>
+        <v>1.905</v>
       </c>
       <c r="D10" t="n">
-        <v>1.919</v>
+        <v>1.907</v>
       </c>
       <c r="E10" t="n">
-        <v>1.919</v>
+        <v>1.905</v>
       </c>
       <c r="F10" t="n">
-        <v>6091.5143</v>
+        <v>632922.1084</v>
       </c>
       <c r="G10" t="n">
-        <v>1.917383333333337</v>
+        <v>1.917400000000003</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.905</v>
+        <v>1.919</v>
       </c>
       <c r="C11" t="n">
-        <v>1.905</v>
+        <v>1.919</v>
       </c>
       <c r="D11" t="n">
-        <v>1.905</v>
+        <v>1.919</v>
       </c>
       <c r="E11" t="n">
-        <v>1.905</v>
+        <v>1.919</v>
       </c>
       <c r="F11" t="n">
-        <v>483087.6954</v>
+        <v>6091.5143</v>
       </c>
       <c r="G11" t="n">
-        <v>1.91721666666667</v>
+        <v>1.917383333333337</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>1.905</v>
       </c>
       <c r="F12" t="n">
-        <v>20847.648</v>
+        <v>483087.6954</v>
       </c>
       <c r="G12" t="n">
-        <v>1.917050000000003</v>
+        <v>1.91721666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>1.905</v>
       </c>
       <c r="F13" t="n">
-        <v>56000</v>
+        <v>20847.648</v>
       </c>
       <c r="G13" t="n">
-        <v>1.916883333333336</v>
+        <v>1.917050000000003</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>1.905</v>
       </c>
       <c r="F14" t="n">
-        <v>58000</v>
+        <v>56000</v>
       </c>
       <c r="G14" t="n">
-        <v>1.916633333333336</v>
+        <v>1.916883333333336</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>1.905</v>
       </c>
       <c r="F15" t="n">
-        <v>6000</v>
+        <v>58000</v>
       </c>
       <c r="G15" t="n">
-        <v>1.916383333333336</v>
+        <v>1.916633333333336</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.901</v>
+        <v>1.905</v>
       </c>
       <c r="C16" t="n">
-        <v>1.901</v>
+        <v>1.905</v>
       </c>
       <c r="D16" t="n">
-        <v>1.901</v>
+        <v>1.905</v>
       </c>
       <c r="E16" t="n">
-        <v>1.901</v>
+        <v>1.905</v>
       </c>
       <c r="F16" t="n">
-        <v>22075</v>
+        <v>6000</v>
       </c>
       <c r="G16" t="n">
-        <v>1.916066666666669</v>
+        <v>1.916383333333336</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>1.901</v>
       </c>
       <c r="F17" t="n">
-        <v>454025</v>
+        <v>22075</v>
       </c>
       <c r="G17" t="n">
-        <v>1.915750000000003</v>
+        <v>1.916066666666669</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>1.901</v>
       </c>
       <c r="F18" t="n">
-        <v>3578.4124</v>
+        <v>454025</v>
       </c>
       <c r="G18" t="n">
-        <v>1.915433333333336</v>
+        <v>1.915750000000003</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>1.901</v>
       </c>
       <c r="F19" t="n">
-        <v>47000.8</v>
+        <v>3578.4124</v>
       </c>
       <c r="G19" t="n">
-        <v>1.915100000000002</v>
+        <v>1.915433333333336</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>1.901</v>
       </c>
       <c r="C20" t="n">
-        <v>1.891</v>
+        <v>1.901</v>
       </c>
       <c r="D20" t="n">
         <v>1.901</v>
       </c>
       <c r="E20" t="n">
-        <v>1.885</v>
+        <v>1.901</v>
       </c>
       <c r="F20" t="n">
-        <v>381921.2342</v>
+        <v>47000.8</v>
       </c>
       <c r="G20" t="n">
-        <v>1.914600000000003</v>
+        <v>1.915100000000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.885</v>
+        <v>1.901</v>
       </c>
       <c r="C21" t="n">
-        <v>1.885</v>
+        <v>1.891</v>
       </c>
       <c r="D21" t="n">
-        <v>1.885</v>
+        <v>1.901</v>
       </c>
       <c r="E21" t="n">
         <v>1.885</v>
       </c>
       <c r="F21" t="n">
-        <v>90317.61870000001</v>
+        <v>381921.2342</v>
       </c>
       <c r="G21" t="n">
-        <v>1.914000000000002</v>
+        <v>1.914600000000003</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>1.885</v>
       </c>
       <c r="F22" t="n">
-        <v>163000.6704</v>
+        <v>90317.61870000001</v>
       </c>
       <c r="G22" t="n">
-        <v>1.913400000000002</v>
+        <v>1.914000000000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>1.885</v>
       </c>
       <c r="F23" t="n">
-        <v>361677.742</v>
+        <v>163000.6704</v>
       </c>
       <c r="G23" t="n">
-        <v>1.912700000000002</v>
+        <v>1.913400000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.9</v>
+        <v>1.885</v>
       </c>
       <c r="C24" t="n">
-        <v>1.9</v>
+        <v>1.885</v>
       </c>
       <c r="D24" t="n">
-        <v>1.9</v>
+        <v>1.885</v>
       </c>
       <c r="E24" t="n">
-        <v>1.9</v>
+        <v>1.885</v>
       </c>
       <c r="F24" t="n">
-        <v>26105.0357</v>
+        <v>361677.742</v>
       </c>
       <c r="G24" t="n">
-        <v>1.912350000000002</v>
+        <v>1.912700000000002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>1.9</v>
       </c>
       <c r="C25" t="n">
-        <v>1.886</v>
+        <v>1.9</v>
       </c>
       <c r="D25" t="n">
         <v>1.9</v>
       </c>
       <c r="E25" t="n">
-        <v>1.886</v>
+        <v>1.9</v>
       </c>
       <c r="F25" t="n">
-        <v>290306.6406</v>
+        <v>26105.0357</v>
       </c>
       <c r="G25" t="n">
-        <v>1.911766666666669</v>
+        <v>1.912350000000002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.885</v>
+        <v>1.9</v>
       </c>
       <c r="C26" t="n">
-        <v>1.885</v>
+        <v>1.886</v>
       </c>
       <c r="D26" t="n">
-        <v>1.885</v>
+        <v>1.9</v>
       </c>
       <c r="E26" t="n">
-        <v>1.885</v>
+        <v>1.886</v>
       </c>
       <c r="F26" t="n">
-        <v>53854.35</v>
+        <v>290306.6406</v>
       </c>
       <c r="G26" t="n">
-        <v>1.911166666666669</v>
+        <v>1.911766666666669</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.886</v>
+        <v>1.885</v>
       </c>
       <c r="C27" t="n">
-        <v>1.886</v>
+        <v>1.885</v>
       </c>
       <c r="D27" t="n">
-        <v>1.886</v>
+        <v>1.885</v>
       </c>
       <c r="E27" t="n">
-        <v>1.886</v>
+        <v>1.885</v>
       </c>
       <c r="F27" t="n">
-        <v>37345.1948</v>
+        <v>53854.35</v>
       </c>
       <c r="G27" t="n">
-        <v>1.910600000000002</v>
+        <v>1.911166666666669</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.906</v>
+        <v>1.886</v>
       </c>
       <c r="C28" t="n">
-        <v>1.906</v>
+        <v>1.886</v>
       </c>
       <c r="D28" t="n">
-        <v>1.906</v>
+        <v>1.886</v>
       </c>
       <c r="E28" t="n">
-        <v>1.906</v>
+        <v>1.886</v>
       </c>
       <c r="F28" t="n">
-        <v>261</v>
+        <v>37345.1948</v>
       </c>
       <c r="G28" t="n">
-        <v>1.910366666666669</v>
+        <v>1.910600000000002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.885</v>
+        <v>1.906</v>
       </c>
       <c r="C29" t="n">
-        <v>1.886</v>
+        <v>1.906</v>
       </c>
       <c r="D29" t="n">
-        <v>1.886</v>
+        <v>1.906</v>
       </c>
       <c r="E29" t="n">
-        <v>1.885</v>
+        <v>1.906</v>
       </c>
       <c r="F29" t="n">
-        <v>331764.363</v>
+        <v>261</v>
       </c>
       <c r="G29" t="n">
-        <v>1.909800000000002</v>
+        <v>1.910366666666669</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>1.885</v>
       </c>
       <c r="C30" t="n">
-        <v>1.885</v>
+        <v>1.886</v>
       </c>
       <c r="D30" t="n">
-        <v>1.885</v>
+        <v>1.886</v>
       </c>
       <c r="E30" t="n">
         <v>1.885</v>
       </c>
       <c r="F30" t="n">
-        <v>75803.64999999999</v>
+        <v>331764.363</v>
       </c>
       <c r="G30" t="n">
-        <v>1.909300000000002</v>
+        <v>1.909800000000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.905</v>
+        <v>1.885</v>
       </c>
       <c r="C31" t="n">
-        <v>1.905</v>
+        <v>1.885</v>
       </c>
       <c r="D31" t="n">
-        <v>1.905</v>
+        <v>1.885</v>
       </c>
       <c r="E31" t="n">
-        <v>1.905</v>
+        <v>1.885</v>
       </c>
       <c r="F31" t="n">
-        <v>3898.3753</v>
+        <v>75803.64999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>1.909133333333335</v>
+        <v>1.909300000000002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.908</v>
+        <v>1.905</v>
       </c>
       <c r="C32" t="n">
-        <v>1.908</v>
+        <v>1.905</v>
       </c>
       <c r="D32" t="n">
-        <v>1.908</v>
+        <v>1.905</v>
       </c>
       <c r="E32" t="n">
-        <v>1.908</v>
+        <v>1.905</v>
       </c>
       <c r="F32" t="n">
-        <v>1191.299790356</v>
+        <v>3898.3753</v>
       </c>
       <c r="G32" t="n">
-        <v>1.909016666666669</v>
+        <v>1.909133333333335</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.901</v>
+        <v>1.908</v>
       </c>
       <c r="C33" t="n">
-        <v>1.886</v>
+        <v>1.908</v>
       </c>
       <c r="D33" t="n">
-        <v>1.901</v>
+        <v>1.908</v>
       </c>
       <c r="E33" t="n">
-        <v>1.886</v>
+        <v>1.908</v>
       </c>
       <c r="F33" t="n">
-        <v>560</v>
+        <v>1191.299790356</v>
       </c>
       <c r="G33" t="n">
-        <v>1.908533333333335</v>
+        <v>1.909016666666669</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.887</v>
+        <v>1.901</v>
       </c>
       <c r="C34" t="n">
-        <v>1.887</v>
+        <v>1.886</v>
       </c>
       <c r="D34" t="n">
-        <v>1.904</v>
+        <v>1.901</v>
       </c>
       <c r="E34" t="n">
-        <v>1.887</v>
+        <v>1.886</v>
       </c>
       <c r="F34" t="n">
-        <v>61563.2561</v>
+        <v>560</v>
       </c>
       <c r="G34" t="n">
-        <v>1.908100000000002</v>
+        <v>1.908533333333335</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.909</v>
+        <v>1.887</v>
       </c>
       <c r="C35" t="n">
-        <v>1.909</v>
+        <v>1.887</v>
       </c>
       <c r="D35" t="n">
-        <v>1.909</v>
+        <v>1.904</v>
       </c>
       <c r="E35" t="n">
-        <v>1.909</v>
+        <v>1.887</v>
       </c>
       <c r="F35" t="n">
-        <v>717.6004</v>
+        <v>61563.2561</v>
       </c>
       <c r="G35" t="n">
-        <v>1.907916666666668</v>
+        <v>1.908100000000002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>1.909</v>
       </c>
       <c r="C36" t="n">
-        <v>1.933</v>
+        <v>1.909</v>
       </c>
       <c r="D36" t="n">
-        <v>1.933</v>
+        <v>1.909</v>
       </c>
       <c r="E36" t="n">
         <v>1.909</v>
       </c>
       <c r="F36" t="n">
-        <v>758246.166968546</v>
+        <v>717.6004</v>
       </c>
       <c r="G36" t="n">
-        <v>1.908133333333335</v>
+        <v>1.907916666666668</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="C37" t="n">
-        <v>1.91</v>
+        <v>1.933</v>
       </c>
       <c r="D37" t="n">
-        <v>1.91</v>
+        <v>1.933</v>
       </c>
       <c r="E37" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="F37" t="n">
-        <v>34501.3847</v>
+        <v>758246.166968546</v>
       </c>
       <c r="G37" t="n">
-        <v>1.907966666666668</v>
+        <v>1.908133333333335</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="C38" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="D38" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="E38" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="F38" t="n">
-        <v>59140.6439</v>
+        <v>34501.3847</v>
       </c>
       <c r="G38" t="n">
-        <v>1.907950000000002</v>
+        <v>1.907966666666668</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.9</v>
+        <v>1.919</v>
       </c>
       <c r="C39" t="n">
-        <v>1.887</v>
+        <v>1.919</v>
       </c>
       <c r="D39" t="n">
-        <v>1.9</v>
+        <v>1.919</v>
       </c>
       <c r="E39" t="n">
-        <v>1.887</v>
+        <v>1.919</v>
       </c>
       <c r="F39" t="n">
-        <v>758246.1669</v>
+        <v>59140.6439</v>
       </c>
       <c r="G39" t="n">
-        <v>1.907400000000002</v>
+        <v>1.907950000000002</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>1.9</v>
       </c>
       <c r="C40" t="n">
-        <v>1.9</v>
+        <v>1.887</v>
       </c>
       <c r="D40" t="n">
         <v>1.9</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9</v>
+        <v>1.887</v>
       </c>
       <c r="F40" t="n">
-        <v>8256.154699999999</v>
+        <v>758246.1669</v>
       </c>
       <c r="G40" t="n">
-        <v>1.907066666666668</v>
+        <v>1.907400000000002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="C41" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="D41" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="E41" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="F41" t="n">
-        <v>259</v>
+        <v>8256.154699999999</v>
       </c>
       <c r="G41" t="n">
-        <v>1.906900000000002</v>
+        <v>1.907066666666668</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>1.91</v>
       </c>
       <c r="F42" t="n">
-        <v>13078.4104</v>
+        <v>259</v>
       </c>
       <c r="G42" t="n">
-        <v>1.906733333333335</v>
+        <v>1.906900000000002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1877,13 +1877,13 @@
         <v>1.91</v>
       </c>
       <c r="E43" t="n">
-        <v>1.888</v>
+        <v>1.91</v>
       </c>
       <c r="F43" t="n">
-        <v>839186.8663</v>
+        <v>13078.4104</v>
       </c>
       <c r="G43" t="n">
-        <v>1.906566666666668</v>
+        <v>1.906733333333335</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,19 +1906,19 @@
         <v>1.91</v>
       </c>
       <c r="C44" t="n">
-        <v>1.915</v>
+        <v>1.91</v>
       </c>
       <c r="D44" t="n">
-        <v>1.915</v>
+        <v>1.91</v>
       </c>
       <c r="E44" t="n">
-        <v>1.91</v>
+        <v>1.888</v>
       </c>
       <c r="F44" t="n">
-        <v>22440.7266</v>
+        <v>839186.8663</v>
       </c>
       <c r="G44" t="n">
-        <v>1.906483333333335</v>
+        <v>1.906566666666668</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C45" t="n">
         <v>1.915</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1.903</v>
       </c>
       <c r="D45" t="n">
         <v>1.915</v>
       </c>
       <c r="E45" t="n">
-        <v>1.903</v>
+        <v>1.91</v>
       </c>
       <c r="F45" t="n">
-        <v>45983.3921</v>
+        <v>22440.7266</v>
       </c>
       <c r="G45" t="n">
-        <v>1.906200000000002</v>
+        <v>1.906483333333335</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.906</v>
+        <v>1.915</v>
       </c>
       <c r="C46" t="n">
-        <v>1.906</v>
+        <v>1.903</v>
       </c>
       <c r="D46" t="n">
-        <v>1.906</v>
+        <v>1.915</v>
       </c>
       <c r="E46" t="n">
-        <v>1.906</v>
+        <v>1.903</v>
       </c>
       <c r="F46" t="n">
-        <v>263.015</v>
+        <v>45983.3921</v>
       </c>
       <c r="G46" t="n">
-        <v>1.906050000000002</v>
+        <v>1.906200000000002</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.91</v>
+        <v>1.906</v>
       </c>
       <c r="C47" t="n">
-        <v>1.91</v>
+        <v>1.906</v>
       </c>
       <c r="D47" t="n">
-        <v>1.91</v>
+        <v>1.906</v>
       </c>
       <c r="E47" t="n">
-        <v>1.91</v>
+        <v>1.906</v>
       </c>
       <c r="F47" t="n">
-        <v>262.7712</v>
+        <v>263.015</v>
       </c>
       <c r="G47" t="n">
-        <v>1.906116666666668</v>
+        <v>1.906050000000002</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.903</v>
+        <v>1.91</v>
       </c>
       <c r="C48" t="n">
-        <v>1.903</v>
+        <v>1.91</v>
       </c>
       <c r="D48" t="n">
-        <v>1.903</v>
+        <v>1.91</v>
       </c>
       <c r="E48" t="n">
-        <v>1.903</v>
+        <v>1.91</v>
       </c>
       <c r="F48" t="n">
-        <v>22691.8075</v>
+        <v>262.7712</v>
       </c>
       <c r="G48" t="n">
-        <v>1.905916666666668</v>
+        <v>1.906116666666668</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.899</v>
+        <v>1.903</v>
       </c>
       <c r="C49" t="n">
-        <v>1.899</v>
+        <v>1.903</v>
       </c>
       <c r="D49" t="n">
-        <v>1.899</v>
+        <v>1.903</v>
       </c>
       <c r="E49" t="n">
-        <v>1.899</v>
+        <v>1.903</v>
       </c>
       <c r="F49" t="n">
-        <v>18839.6518</v>
+        <v>22691.8075</v>
       </c>
       <c r="G49" t="n">
-        <v>1.905650000000001</v>
+        <v>1.905916666666668</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>1.899</v>
       </c>
       <c r="F50" t="n">
-        <v>22435.7307</v>
+        <v>18839.6518</v>
       </c>
       <c r="G50" t="n">
-        <v>1.905300000000001</v>
+        <v>1.905650000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.897</v>
+        <v>1.899</v>
       </c>
       <c r="C51" t="n">
-        <v>1.897</v>
+        <v>1.899</v>
       </c>
       <c r="D51" t="n">
-        <v>1.897</v>
+        <v>1.899</v>
       </c>
       <c r="E51" t="n">
-        <v>1.897</v>
+        <v>1.899</v>
       </c>
       <c r="F51" t="n">
-        <v>911.7043</v>
+        <v>22435.7307</v>
       </c>
       <c r="G51" t="n">
-        <v>1.905000000000001</v>
+        <v>1.905300000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,19 +2186,19 @@
         <v>1.897</v>
       </c>
       <c r="C52" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="D52" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="E52" t="n">
         <v>1.897</v>
       </c>
       <c r="F52" t="n">
-        <v>60391.7025</v>
+        <v>911.7043</v>
       </c>
       <c r="G52" t="n">
-        <v>1.904666666666668</v>
+        <v>1.905000000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,19 +2221,19 @@
         <v>1.897</v>
       </c>
       <c r="C53" t="n">
-        <v>1.897</v>
+        <v>1.9</v>
       </c>
       <c r="D53" t="n">
-        <v>1.897</v>
+        <v>1.9</v>
       </c>
       <c r="E53" t="n">
         <v>1.897</v>
       </c>
       <c r="F53" t="n">
-        <v>64874.2691</v>
+        <v>60391.7025</v>
       </c>
       <c r="G53" t="n">
-        <v>1.904333333333335</v>
+        <v>1.904666666666668</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="C54" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="D54" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="E54" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="F54" t="n">
-        <v>26990.097</v>
+        <v>64874.2691</v>
       </c>
       <c r="G54" t="n">
-        <v>1.904050000000002</v>
+        <v>1.904333333333335</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>1.9</v>
       </c>
       <c r="C55" t="n">
-        <v>1.897</v>
+        <v>1.9</v>
       </c>
       <c r="D55" t="n">
         <v>1.9</v>
       </c>
       <c r="E55" t="n">
-        <v>1.897</v>
+        <v>1.9</v>
       </c>
       <c r="F55" t="n">
-        <v>44564.281</v>
+        <v>26990.097</v>
       </c>
       <c r="G55" t="n">
-        <v>1.903883333333335</v>
+        <v>1.904050000000002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C56" t="n">
         <v>1.897</v>
       </c>
-      <c r="C56" t="n">
-        <v>1.905</v>
-      </c>
       <c r="D56" t="n">
-        <v>1.905</v>
+        <v>1.9</v>
       </c>
       <c r="E56" t="n">
         <v>1.897</v>
       </c>
       <c r="F56" t="n">
-        <v>112397.284</v>
+        <v>44564.281</v>
       </c>
       <c r="G56" t="n">
-        <v>1.903866666666668</v>
+        <v>1.903883333333335</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>1.897</v>
       </c>
       <c r="C57" t="n">
-        <v>1.897</v>
+        <v>1.905</v>
       </c>
       <c r="D57" t="n">
-        <v>1.897</v>
+        <v>1.905</v>
       </c>
       <c r="E57" t="n">
         <v>1.897</v>
       </c>
       <c r="F57" t="n">
-        <v>10391.1567</v>
+        <v>112397.284</v>
       </c>
       <c r="G57" t="n">
-        <v>1.903716666666668</v>
+        <v>1.903866666666668</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.898</v>
+        <v>1.897</v>
       </c>
       <c r="C58" t="n">
-        <v>1.898</v>
+        <v>1.897</v>
       </c>
       <c r="D58" t="n">
-        <v>1.898</v>
+        <v>1.897</v>
       </c>
       <c r="E58" t="n">
-        <v>1.898</v>
+        <v>1.897</v>
       </c>
       <c r="F58" t="n">
-        <v>13798.1129</v>
+        <v>10391.1567</v>
       </c>
       <c r="G58" t="n">
-        <v>1.903583333333335</v>
+        <v>1.903716666666668</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>1.898</v>
       </c>
       <c r="F59" t="n">
-        <v>15630</v>
+        <v>13798.1129</v>
       </c>
       <c r="G59" t="n">
-        <v>1.903216666666668</v>
+        <v>1.903583333333335</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>1.898</v>
       </c>
       <c r="C60" t="n">
-        <v>1.897</v>
+        <v>1.898</v>
       </c>
       <c r="D60" t="n">
         <v>1.898</v>
       </c>
       <c r="E60" t="n">
-        <v>1.897</v>
+        <v>1.898</v>
       </c>
       <c r="F60" t="n">
-        <v>35499.4488</v>
+        <v>15630</v>
       </c>
       <c r="G60" t="n">
-        <v>1.902833333333335</v>
+        <v>1.903216666666668</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.889</v>
+        <v>1.898</v>
       </c>
       <c r="C61" t="n">
-        <v>1.889</v>
+        <v>1.897</v>
       </c>
       <c r="D61" t="n">
-        <v>1.889</v>
+        <v>1.898</v>
       </c>
       <c r="E61" t="n">
-        <v>1.889</v>
+        <v>1.897</v>
       </c>
       <c r="F61" t="n">
-        <v>147463.6631</v>
+        <v>35499.4488</v>
       </c>
       <c r="G61" t="n">
-        <v>1.902316666666668</v>
+        <v>1.902833333333335</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.888</v>
+        <v>1.889</v>
       </c>
       <c r="C62" t="n">
-        <v>1.888</v>
+        <v>1.889</v>
       </c>
       <c r="D62" t="n">
-        <v>1.888</v>
+        <v>1.889</v>
       </c>
       <c r="E62" t="n">
-        <v>1.888</v>
+        <v>1.889</v>
       </c>
       <c r="F62" t="n">
-        <v>50000</v>
+        <v>147463.6631</v>
       </c>
       <c r="G62" t="n">
-        <v>1.901800000000001</v>
+        <v>1.902316666666668</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.905</v>
+        <v>1.888</v>
       </c>
       <c r="C63" t="n">
-        <v>1.905</v>
+        <v>1.888</v>
       </c>
       <c r="D63" t="n">
-        <v>1.905</v>
+        <v>1.888</v>
       </c>
       <c r="E63" t="n">
-        <v>1.905</v>
+        <v>1.888</v>
       </c>
       <c r="F63" t="n">
-        <v>262.6124</v>
+        <v>50000</v>
       </c>
       <c r="G63" t="n">
-        <v>1.901566666666668</v>
+        <v>1.901800000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.89</v>
+        <v>1.905</v>
       </c>
       <c r="C64" t="n">
-        <v>1.889</v>
+        <v>1.905</v>
       </c>
       <c r="D64" t="n">
-        <v>1.89</v>
+        <v>1.905</v>
       </c>
       <c r="E64" t="n">
-        <v>1.889</v>
+        <v>1.905</v>
       </c>
       <c r="F64" t="n">
-        <v>816377.9518</v>
+        <v>262.6124</v>
       </c>
       <c r="G64" t="n">
-        <v>1.901066666666668</v>
+        <v>1.901566666666668</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.887</v>
+        <v>1.89</v>
       </c>
       <c r="C65" t="n">
-        <v>1.887</v>
+        <v>1.889</v>
       </c>
       <c r="D65" t="n">
-        <v>1.887</v>
+        <v>1.89</v>
       </c>
       <c r="E65" t="n">
-        <v>1.887</v>
+        <v>1.889</v>
       </c>
       <c r="F65" t="n">
-        <v>178592.7937</v>
+        <v>816377.9518</v>
       </c>
       <c r="G65" t="n">
-        <v>1.900600000000001</v>
+        <v>1.901066666666668</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>1.887</v>
       </c>
       <c r="F66" t="n">
-        <v>5060.1847</v>
+        <v>178592.7937</v>
       </c>
       <c r="G66" t="n">
-        <v>1.900066666666668</v>
+        <v>1.900600000000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.886</v>
+        <v>1.887</v>
       </c>
       <c r="C67" t="n">
-        <v>1.886</v>
+        <v>1.887</v>
       </c>
       <c r="D67" t="n">
-        <v>1.886</v>
+        <v>1.887</v>
       </c>
       <c r="E67" t="n">
-        <v>1.886</v>
+        <v>1.887</v>
       </c>
       <c r="F67" t="n">
-        <v>17480.8251</v>
+        <v>5060.1847</v>
       </c>
       <c r="G67" t="n">
-        <v>1.899583333333335</v>
+        <v>1.900066666666668</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.887</v>
+        <v>1.886</v>
       </c>
       <c r="C68" t="n">
-        <v>1.887</v>
+        <v>1.886</v>
       </c>
       <c r="D68" t="n">
-        <v>1.887</v>
+        <v>1.886</v>
       </c>
       <c r="E68" t="n">
-        <v>1.887</v>
+        <v>1.886</v>
       </c>
       <c r="F68" t="n">
-        <v>48725.2327</v>
+        <v>17480.8251</v>
       </c>
       <c r="G68" t="n">
-        <v>1.899100000000001</v>
+        <v>1.899583333333335</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>1.887</v>
       </c>
       <c r="F69" t="n">
-        <v>123317.1003</v>
+        <v>48725.2327</v>
       </c>
       <c r="G69" t="n">
-        <v>1.898800000000001</v>
+        <v>1.899100000000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>1.887</v>
       </c>
       <c r="F70" t="n">
-        <v>17168.0417</v>
+        <v>123317.1003</v>
       </c>
       <c r="G70" t="n">
-        <v>1.898266666666668</v>
+        <v>1.898800000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.886</v>
+        <v>1.887</v>
       </c>
       <c r="C71" t="n">
-        <v>1.886</v>
+        <v>1.887</v>
       </c>
       <c r="D71" t="n">
-        <v>1.886</v>
+        <v>1.887</v>
       </c>
       <c r="E71" t="n">
-        <v>1.886</v>
+        <v>1.887</v>
       </c>
       <c r="F71" t="n">
-        <v>283372.0165</v>
+        <v>17168.0417</v>
       </c>
       <c r="G71" t="n">
-        <v>1.897950000000001</v>
+        <v>1.898266666666668</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>1.886</v>
       </c>
       <c r="F72" t="n">
-        <v>2368.4806</v>
+        <v>283372.0165</v>
       </c>
       <c r="G72" t="n">
-        <v>1.897633333333335</v>
+        <v>1.897950000000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.901</v>
+        <v>1.886</v>
       </c>
       <c r="C73" t="n">
-        <v>1.901</v>
+        <v>1.886</v>
       </c>
       <c r="D73" t="n">
-        <v>1.901</v>
+        <v>1.886</v>
       </c>
       <c r="E73" t="n">
-        <v>1.901</v>
+        <v>1.886</v>
       </c>
       <c r="F73" t="n">
-        <v>263</v>
+        <v>2368.4806</v>
       </c>
       <c r="G73" t="n">
-        <v>1.897566666666668</v>
+        <v>1.897633333333335</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.886</v>
+        <v>1.901</v>
       </c>
       <c r="C74" t="n">
-        <v>1.886</v>
+        <v>1.901</v>
       </c>
       <c r="D74" t="n">
-        <v>1.886</v>
+        <v>1.901</v>
       </c>
       <c r="E74" t="n">
-        <v>1.886</v>
+        <v>1.901</v>
       </c>
       <c r="F74" t="n">
-        <v>77804.11440000001</v>
+        <v>263</v>
       </c>
       <c r="G74" t="n">
-        <v>1.897250000000001</v>
+        <v>1.897566666666668</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.901</v>
+        <v>1.886</v>
       </c>
       <c r="C75" t="n">
-        <v>1.901</v>
+        <v>1.886</v>
       </c>
       <c r="D75" t="n">
-        <v>1.901</v>
+        <v>1.886</v>
       </c>
       <c r="E75" t="n">
-        <v>1.901</v>
+        <v>1.886</v>
       </c>
       <c r="F75" t="n">
-        <v>262</v>
+        <v>77804.11440000001</v>
       </c>
       <c r="G75" t="n">
-        <v>1.897183333333334</v>
+        <v>1.897250000000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.886</v>
+        <v>1.901</v>
       </c>
       <c r="C76" t="n">
-        <v>1.885</v>
+        <v>1.901</v>
       </c>
       <c r="D76" t="n">
-        <v>1.886</v>
+        <v>1.901</v>
       </c>
       <c r="E76" t="n">
-        <v>1.885</v>
+        <v>1.901</v>
       </c>
       <c r="F76" t="n">
-        <v>171022.8605</v>
+        <v>262</v>
       </c>
       <c r="G76" t="n">
-        <v>1.896916666666668</v>
+        <v>1.897183333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.9</v>
+        <v>1.886</v>
       </c>
       <c r="C77" t="n">
-        <v>1.9</v>
+        <v>1.885</v>
       </c>
       <c r="D77" t="n">
-        <v>1.903</v>
+        <v>1.886</v>
       </c>
       <c r="E77" t="n">
-        <v>1.9</v>
+        <v>1.885</v>
       </c>
       <c r="F77" t="n">
-        <v>529917.0606</v>
+        <v>171022.8605</v>
       </c>
       <c r="G77" t="n">
-        <v>1.896900000000001</v>
+        <v>1.896916666666668</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3096,19 +3096,19 @@
         <v>1.9</v>
       </c>
       <c r="C78" t="n">
-        <v>1.916</v>
+        <v>1.9</v>
       </c>
       <c r="D78" t="n">
-        <v>1.919</v>
+        <v>1.903</v>
       </c>
       <c r="E78" t="n">
         <v>1.9</v>
       </c>
       <c r="F78" t="n">
-        <v>1280782.6143</v>
+        <v>529917.0606</v>
       </c>
       <c r="G78" t="n">
-        <v>1.897150000000001</v>
+        <v>1.896900000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.895</v>
+        <v>1.9</v>
       </c>
       <c r="C79" t="n">
-        <v>1.895</v>
+        <v>1.916</v>
       </c>
       <c r="D79" t="n">
-        <v>1.895</v>
+        <v>1.919</v>
       </c>
       <c r="E79" t="n">
-        <v>1.895</v>
+        <v>1.9</v>
       </c>
       <c r="F79" t="n">
-        <v>51652.2207</v>
+        <v>1280782.6143</v>
       </c>
       <c r="G79" t="n">
-        <v>1.897050000000001</v>
+        <v>1.897150000000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.907</v>
+        <v>1.895</v>
       </c>
       <c r="C80" t="n">
-        <v>1.907</v>
+        <v>1.895</v>
       </c>
       <c r="D80" t="n">
-        <v>1.907</v>
+        <v>1.895</v>
       </c>
       <c r="E80" t="n">
-        <v>1.907</v>
+        <v>1.895</v>
       </c>
       <c r="F80" t="n">
-        <v>25820</v>
+        <v>51652.2207</v>
       </c>
       <c r="G80" t="n">
-        <v>1.897316666666668</v>
+        <v>1.897050000000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.915</v>
+        <v>1.907</v>
       </c>
       <c r="C81" t="n">
-        <v>1.915</v>
+        <v>1.907</v>
       </c>
       <c r="D81" t="n">
-        <v>1.915</v>
+        <v>1.907</v>
       </c>
       <c r="E81" t="n">
-        <v>1.915</v>
+        <v>1.907</v>
       </c>
       <c r="F81" t="n">
-        <v>262.12</v>
+        <v>25820</v>
       </c>
       <c r="G81" t="n">
-        <v>1.897816666666668</v>
+        <v>1.897316666666668</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>1.915</v>
       </c>
       <c r="F82" t="n">
-        <v>26505.195</v>
+        <v>262.12</v>
       </c>
       <c r="G82" t="n">
-        <v>1.898316666666668</v>
+        <v>1.897816666666668</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.907</v>
+        <v>1.915</v>
       </c>
       <c r="C83" t="n">
-        <v>1.907</v>
+        <v>1.915</v>
       </c>
       <c r="D83" t="n">
-        <v>1.907</v>
+        <v>1.915</v>
       </c>
       <c r="E83" t="n">
-        <v>1.907</v>
+        <v>1.915</v>
       </c>
       <c r="F83" t="n">
-        <v>65170</v>
+        <v>26505.195</v>
       </c>
       <c r="G83" t="n">
-        <v>1.898683333333334</v>
+        <v>1.898316666666668</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>1.907</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5276999999999999</v>
+        <v>65170</v>
       </c>
       <c r="G84" t="n">
-        <v>1.898800000000001</v>
+        <v>1.898683333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.895</v>
+        <v>1.907</v>
       </c>
       <c r="C85" t="n">
-        <v>1.895</v>
+        <v>1.907</v>
       </c>
       <c r="D85" t="n">
-        <v>1.895</v>
+        <v>1.907</v>
       </c>
       <c r="E85" t="n">
-        <v>1.895</v>
+        <v>1.907</v>
       </c>
       <c r="F85" t="n">
-        <v>14743.5161</v>
+        <v>0.5276999999999999</v>
       </c>
       <c r="G85" t="n">
-        <v>1.898950000000001</v>
+        <v>1.898800000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3385,10 @@
         <v>1.895</v>
       </c>
       <c r="F86" t="n">
-        <v>89899.7892</v>
+        <v>14743.5161</v>
       </c>
       <c r="G86" t="n">
-        <v>1.899116666666667</v>
+        <v>1.898950000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3417,13 +3417,13 @@
         <v>1.895</v>
       </c>
       <c r="E87" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="F87" t="n">
-        <v>62139.9365</v>
+        <v>89899.7892</v>
       </c>
       <c r="G87" t="n">
-        <v>1.899266666666667</v>
+        <v>1.899116666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3452,13 +3452,13 @@
         <v>1.895</v>
       </c>
       <c r="E88" t="n">
-        <v>1.895</v>
+        <v>1.89</v>
       </c>
       <c r="F88" t="n">
-        <v>50259.1654</v>
+        <v>62139.9365</v>
       </c>
       <c r="G88" t="n">
-        <v>1.899083333333334</v>
+        <v>1.899266666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>1.895</v>
       </c>
       <c r="F89" t="n">
-        <v>28091.4153</v>
+        <v>50259.1654</v>
       </c>
       <c r="G89" t="n">
-        <v>1.899233333333334</v>
+        <v>1.899083333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>1.895</v>
       </c>
       <c r="F90" t="n">
-        <v>50000</v>
+        <v>28091.4153</v>
       </c>
       <c r="G90" t="n">
-        <v>1.8994</v>
+        <v>1.899233333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>1.895</v>
       </c>
       <c r="F91" t="n">
-        <v>26150.3738</v>
+        <v>50000</v>
       </c>
       <c r="G91" t="n">
-        <v>1.899233333333334</v>
+        <v>1.8994</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>1.895</v>
       </c>
       <c r="F92" t="n">
-        <v>44291.9621</v>
+        <v>26150.3738</v>
       </c>
       <c r="G92" t="n">
-        <v>1.899016666666667</v>
+        <v>1.899233333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.894</v>
+        <v>1.895</v>
       </c>
       <c r="C93" t="n">
-        <v>1.894</v>
+        <v>1.895</v>
       </c>
       <c r="D93" t="n">
-        <v>1.894</v>
+        <v>1.895</v>
       </c>
       <c r="E93" t="n">
-        <v>1.894</v>
+        <v>1.895</v>
       </c>
       <c r="F93" t="n">
-        <v>10207.8989</v>
+        <v>44291.9621</v>
       </c>
       <c r="G93" t="n">
-        <v>1.89915</v>
+        <v>1.899016666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.903</v>
+        <v>1.894</v>
       </c>
       <c r="C94" t="n">
-        <v>1.903</v>
+        <v>1.894</v>
       </c>
       <c r="D94" t="n">
-        <v>1.903</v>
+        <v>1.894</v>
       </c>
       <c r="E94" t="n">
-        <v>1.903</v>
+        <v>1.894</v>
       </c>
       <c r="F94" t="n">
-        <v>263.1251</v>
+        <v>10207.8989</v>
       </c>
       <c r="G94" t="n">
-        <v>1.899416666666667</v>
+        <v>1.89915</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.894</v>
+        <v>1.903</v>
       </c>
       <c r="C95" t="n">
-        <v>1.894</v>
+        <v>1.903</v>
       </c>
       <c r="D95" t="n">
-        <v>1.894</v>
+        <v>1.903</v>
       </c>
       <c r="E95" t="n">
-        <v>1.894</v>
+        <v>1.903</v>
       </c>
       <c r="F95" t="n">
-        <v>164625.3311</v>
+        <v>263.1251</v>
       </c>
       <c r="G95" t="n">
-        <v>1.899166666666667</v>
+        <v>1.899416666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.885</v>
+        <v>1.894</v>
       </c>
       <c r="C96" t="n">
-        <v>1.885</v>
+        <v>1.894</v>
       </c>
       <c r="D96" t="n">
-        <v>1.885</v>
+        <v>1.894</v>
       </c>
       <c r="E96" t="n">
-        <v>1.885</v>
+        <v>1.894</v>
       </c>
       <c r="F96" t="n">
-        <v>27836.9116</v>
+        <v>164625.3311</v>
       </c>
       <c r="G96" t="n">
-        <v>1.898366666666667</v>
+        <v>1.899166666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.891</v>
+        <v>1.885</v>
       </c>
       <c r="C97" t="n">
-        <v>1.89</v>
+        <v>1.885</v>
       </c>
       <c r="D97" t="n">
-        <v>1.895</v>
+        <v>1.885</v>
       </c>
       <c r="E97" t="n">
-        <v>1.89</v>
+        <v>1.885</v>
       </c>
       <c r="F97" t="n">
-        <v>233761.93</v>
+        <v>27836.9116</v>
       </c>
       <c r="G97" t="n">
-        <v>1.898033333333334</v>
+        <v>1.898366666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.885</v>
+        <v>1.891</v>
       </c>
       <c r="C98" t="n">
-        <v>1.885</v>
+        <v>1.89</v>
       </c>
       <c r="D98" t="n">
-        <v>1.885</v>
+        <v>1.895</v>
       </c>
       <c r="E98" t="n">
-        <v>1.885</v>
+        <v>1.89</v>
       </c>
       <c r="F98" t="n">
-        <v>17819.1426</v>
+        <v>233761.93</v>
       </c>
       <c r="G98" t="n">
-        <v>1.897466666666667</v>
+        <v>1.898033333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>1.885</v>
       </c>
       <c r="F99" t="n">
-        <v>173087.0638</v>
+        <v>17819.1426</v>
       </c>
       <c r="G99" t="n">
-        <v>1.897433333333334</v>
+        <v>1.897466666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>1.885</v>
       </c>
       <c r="C100" t="n">
-        <v>1.884</v>
+        <v>1.885</v>
       </c>
       <c r="D100" t="n">
         <v>1.885</v>
       </c>
       <c r="E100" t="n">
-        <v>1.884</v>
+        <v>1.885</v>
       </c>
       <c r="F100" t="n">
-        <v>85395.8554</v>
+        <v>173087.0638</v>
       </c>
       <c r="G100" t="n">
-        <v>1.897166666666667</v>
+        <v>1.897433333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.884</v>
+        <v>1.885</v>
       </c>
       <c r="C101" t="n">
         <v>1.884</v>
       </c>
       <c r="D101" t="n">
-        <v>1.884</v>
+        <v>1.885</v>
       </c>
       <c r="E101" t="n">
         <v>1.884</v>
       </c>
       <c r="F101" t="n">
-        <v>127656.8536</v>
+        <v>85395.8554</v>
       </c>
       <c r="G101" t="n">
-        <v>1.896733333333334</v>
+        <v>1.897166666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.883</v>
+        <v>1.884</v>
       </c>
       <c r="C102" t="n">
-        <v>1.885</v>
+        <v>1.884</v>
       </c>
       <c r="D102" t="n">
-        <v>1.885</v>
+        <v>1.884</v>
       </c>
       <c r="E102" t="n">
-        <v>1.882</v>
+        <v>1.884</v>
       </c>
       <c r="F102" t="n">
-        <v>118388</v>
+        <v>127656.8536</v>
       </c>
       <c r="G102" t="n">
-        <v>1.896316666666668</v>
+        <v>1.896733333333334</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.882</v>
+        <v>1.883</v>
       </c>
       <c r="C103" t="n">
-        <v>1.882</v>
+        <v>1.885</v>
       </c>
       <c r="D103" t="n">
-        <v>1.882</v>
+        <v>1.885</v>
       </c>
       <c r="E103" t="n">
         <v>1.882</v>
       </c>
       <c r="F103" t="n">
-        <v>57504.1236</v>
+        <v>118388</v>
       </c>
       <c r="G103" t="n">
-        <v>1.895850000000001</v>
+        <v>1.896316666666668</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.881</v>
+        <v>1.882</v>
       </c>
       <c r="C104" t="n">
-        <v>1.881</v>
+        <v>1.882</v>
       </c>
       <c r="D104" t="n">
-        <v>1.881</v>
+        <v>1.882</v>
       </c>
       <c r="E104" t="n">
-        <v>1.881</v>
+        <v>1.882</v>
       </c>
       <c r="F104" t="n">
-        <v>52416.1212</v>
+        <v>57504.1236</v>
       </c>
       <c r="G104" t="n">
-        <v>1.895283333333334</v>
+        <v>1.895850000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>1.881</v>
       </c>
       <c r="F105" t="n">
-        <v>292808.4019</v>
+        <v>52416.1212</v>
       </c>
       <c r="G105" t="n">
-        <v>1.894916666666667</v>
+        <v>1.895283333333334</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.88</v>
+        <v>1.881</v>
       </c>
       <c r="C106" t="n">
-        <v>1.88</v>
+        <v>1.881</v>
       </c>
       <c r="D106" t="n">
-        <v>1.88</v>
+        <v>1.881</v>
       </c>
       <c r="E106" t="n">
-        <v>1.88</v>
+        <v>1.881</v>
       </c>
       <c r="F106" t="n">
-        <v>19191.5565</v>
+        <v>292808.4019</v>
       </c>
       <c r="G106" t="n">
-        <v>1.894483333333334</v>
+        <v>1.894916666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,19 +4120,23 @@
         <v>1.88</v>
       </c>
       <c r="F107" t="n">
-        <v>21168.1718</v>
+        <v>19191.5565</v>
       </c>
       <c r="G107" t="n">
-        <v>1.893983333333334</v>
+        <v>1.894483333333334</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
@@ -4146,19 +4150,19 @@
         <v>1.88</v>
       </c>
       <c r="C108" t="n">
-        <v>1.877</v>
+        <v>1.88</v>
       </c>
       <c r="D108" t="n">
         <v>1.88</v>
       </c>
       <c r="E108" t="n">
-        <v>1.877</v>
+        <v>1.88</v>
       </c>
       <c r="F108" t="n">
-        <v>574430.1048</v>
+        <v>21168.1718</v>
       </c>
       <c r="G108" t="n">
-        <v>1.893550000000001</v>
+        <v>1.893983333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4167,8 +4171,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4181,29 +4191,37 @@
         <v>1.88</v>
       </c>
       <c r="C109" t="n">
-        <v>1.876</v>
+        <v>1.877</v>
       </c>
       <c r="D109" t="n">
         <v>1.88</v>
       </c>
       <c r="E109" t="n">
-        <v>1.876</v>
+        <v>1.877</v>
       </c>
       <c r="F109" t="n">
-        <v>39886.5962</v>
+        <v>574430.1048</v>
       </c>
       <c r="G109" t="n">
-        <v>1.893166666666667</v>
+        <v>1.893550000000001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4213,32 +4231,40 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.876</v>
+        <v>1.88</v>
       </c>
       <c r="C110" t="n">
         <v>1.876</v>
       </c>
       <c r="D110" t="n">
-        <v>1.876</v>
+        <v>1.88</v>
       </c>
       <c r="E110" t="n">
         <v>1.876</v>
       </c>
       <c r="F110" t="n">
-        <v>45728.5586</v>
+        <v>39886.5962</v>
       </c>
       <c r="G110" t="n">
-        <v>1.892783333333334</v>
+        <v>1.893166666666667</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4260,20 +4286,28 @@
         <v>1.876</v>
       </c>
       <c r="F111" t="n">
-        <v>10255.2361</v>
+        <v>45728.5586</v>
       </c>
       <c r="G111" t="n">
-        <v>1.892433333333334</v>
+        <v>1.892783333333334</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4283,22 +4317,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.875</v>
+        <v>1.876</v>
       </c>
       <c r="C112" t="n">
-        <v>1.874</v>
+        <v>1.876</v>
       </c>
       <c r="D112" t="n">
-        <v>1.875</v>
+        <v>1.876</v>
       </c>
       <c r="E112" t="n">
-        <v>1.874</v>
+        <v>1.876</v>
       </c>
       <c r="F112" t="n">
-        <v>8455.7567</v>
+        <v>10255.2361</v>
       </c>
       <c r="G112" t="n">
-        <v>1.892</v>
+        <v>1.892433333333334</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -4309,10 +4343,12 @@
       <c r="J112" t="n">
         <v>1.876</v>
       </c>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M112" t="n">
@@ -4324,31 +4360,35 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.89</v>
+        <v>1.875</v>
       </c>
       <c r="C113" t="n">
-        <v>1.89</v>
+        <v>1.874</v>
       </c>
       <c r="D113" t="n">
-        <v>1.89</v>
+        <v>1.875</v>
       </c>
       <c r="E113" t="n">
-        <v>1.89</v>
+        <v>1.874</v>
       </c>
       <c r="F113" t="n">
-        <v>264.7123</v>
+        <v>8455.7567</v>
       </c>
       <c r="G113" t="n">
-        <v>1.891883333333334</v>
+        <v>1.892</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4363,31 +4403,35 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.873</v>
+        <v>1.89</v>
       </c>
       <c r="C114" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="D114" t="n">
-        <v>1.873</v>
+        <v>1.89</v>
       </c>
       <c r="E114" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="F114" t="n">
-        <v>67081.9103</v>
+        <v>264.7123</v>
       </c>
       <c r="G114" t="n">
-        <v>1.891383333333334</v>
+        <v>1.891883333333334</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4402,31 +4446,35 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="C115" t="n">
         <v>1.87</v>
       </c>
-      <c r="C115" t="n">
-        <v>1.869</v>
-      </c>
       <c r="D115" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="E115" t="n">
         <v>1.87</v>
       </c>
-      <c r="E115" t="n">
-        <v>1.869</v>
-      </c>
       <c r="F115" t="n">
-        <v>20088.0939</v>
+        <v>67081.9103</v>
       </c>
       <c r="G115" t="n">
-        <v>1.890916666666667</v>
+        <v>1.891383333333334</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4441,22 +4489,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.869</v>
+        <v>1.87</v>
       </c>
       <c r="C116" t="n">
         <v>1.869</v>
       </c>
       <c r="D116" t="n">
-        <v>1.869</v>
+        <v>1.87</v>
       </c>
       <c r="E116" t="n">
         <v>1.869</v>
       </c>
       <c r="F116" t="n">
-        <v>30987.6309</v>
+        <v>20088.0939</v>
       </c>
       <c r="G116" t="n">
-        <v>1.890316666666667</v>
+        <v>1.890916666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4465,7 +4513,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4480,22 +4530,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.87</v>
+        <v>1.869</v>
       </c>
       <c r="C117" t="n">
-        <v>1.87</v>
+        <v>1.869</v>
       </c>
       <c r="D117" t="n">
-        <v>1.87</v>
+        <v>1.869</v>
       </c>
       <c r="E117" t="n">
-        <v>1.87</v>
+        <v>1.869</v>
       </c>
       <c r="F117" t="n">
-        <v>21482.5903</v>
+        <v>30987.6309</v>
       </c>
       <c r="G117" t="n">
-        <v>1.889866666666667</v>
+        <v>1.890316666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4504,7 +4554,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4525,16 +4577,16 @@
         <v>1.87</v>
       </c>
       <c r="D118" t="n">
-        <v>1.894</v>
+        <v>1.87</v>
       </c>
       <c r="E118" t="n">
         <v>1.87</v>
       </c>
       <c r="F118" t="n">
-        <v>192016.419</v>
+        <v>21482.5903</v>
       </c>
       <c r="G118" t="n">
-        <v>1.8894</v>
+        <v>1.889866666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4543,7 +4595,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4558,33 +4612,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.894</v>
+        <v>1.87</v>
       </c>
       <c r="C119" t="n">
-        <v>1.894</v>
+        <v>1.87</v>
       </c>
       <c r="D119" t="n">
         <v>1.894</v>
       </c>
       <c r="E119" t="n">
-        <v>1.894</v>
+        <v>1.87</v>
       </c>
       <c r="F119" t="n">
-        <v>19731.3523</v>
+        <v>192016.419</v>
       </c>
       <c r="G119" t="n">
-        <v>1.889333333333334</v>
+        <v>1.8894</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4599,7 +4653,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.893</v>
+        <v>1.894</v>
       </c>
       <c r="C120" t="n">
         <v>1.894</v>
@@ -4608,24 +4662,24 @@
         <v>1.894</v>
       </c>
       <c r="E120" t="n">
-        <v>1.893</v>
+        <v>1.894</v>
       </c>
       <c r="F120" t="n">
-        <v>75915.4905</v>
+        <v>19731.3523</v>
       </c>
       <c r="G120" t="n">
-        <v>1.889283333333334</v>
+        <v>1.889333333333334</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4640,7 +4694,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.894</v>
+        <v>1.893</v>
       </c>
       <c r="C121" t="n">
         <v>1.894</v>
@@ -4649,13 +4703,13 @@
         <v>1.894</v>
       </c>
       <c r="E121" t="n">
-        <v>1.894</v>
+        <v>1.893</v>
       </c>
       <c r="F121" t="n">
-        <v>127539.8291</v>
+        <v>75915.4905</v>
       </c>
       <c r="G121" t="n">
-        <v>1.889366666666667</v>
+        <v>1.889283333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4664,7 +4718,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4691,10 +4747,10 @@
         <v>1.894</v>
       </c>
       <c r="F122" t="n">
-        <v>67339.8946</v>
+        <v>127539.8291</v>
       </c>
       <c r="G122" t="n">
-        <v>1.889466666666667</v>
+        <v>1.889366666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4703,7 +4759,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4730,10 +4788,10 @@
         <v>1.894</v>
       </c>
       <c r="F123" t="n">
-        <v>65492.993</v>
+        <v>67339.8946</v>
       </c>
       <c r="G123" t="n">
-        <v>1.889283333333334</v>
+        <v>1.889466666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4742,7 +4800,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4757,7 +4817,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.88</v>
+        <v>1.894</v>
       </c>
       <c r="C124" t="n">
         <v>1.894</v>
@@ -4766,13 +4826,13 @@
         <v>1.894</v>
       </c>
       <c r="E124" t="n">
-        <v>1.88</v>
+        <v>1.894</v>
       </c>
       <c r="F124" t="n">
-        <v>169173.9569</v>
+        <v>65492.993</v>
       </c>
       <c r="G124" t="n">
-        <v>1.889366666666668</v>
+        <v>1.889283333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4781,7 +4841,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4796,22 +4858,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C125" t="n">
         <v>1.894</v>
       </c>
-      <c r="C125" t="n">
-        <v>1.895</v>
-      </c>
       <c r="D125" t="n">
-        <v>1.895</v>
+        <v>1.894</v>
       </c>
       <c r="E125" t="n">
-        <v>1.894</v>
+        <v>1.88</v>
       </c>
       <c r="F125" t="n">
-        <v>220100.4811</v>
+        <v>169173.9569</v>
       </c>
       <c r="G125" t="n">
-        <v>1.889500000000001</v>
+        <v>1.889366666666668</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4820,7 +4882,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4838,28 +4902,32 @@
         <v>1.894</v>
       </c>
       <c r="C126" t="n">
-        <v>1.893</v>
+        <v>1.895</v>
       </c>
       <c r="D126" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="E126" t="n">
         <v>1.894</v>
       </c>
-      <c r="E126" t="n">
-        <v>1.893</v>
-      </c>
       <c r="F126" t="n">
-        <v>122351.9998</v>
+        <v>220100.4811</v>
       </c>
       <c r="G126" t="n">
-        <v>1.889600000000001</v>
+        <v>1.889500000000001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4874,22 +4942,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.883</v>
+        <v>1.894</v>
       </c>
       <c r="C127" t="n">
-        <v>1.883</v>
+        <v>1.893</v>
       </c>
       <c r="D127" t="n">
-        <v>1.883</v>
+        <v>1.894</v>
       </c>
       <c r="E127" t="n">
-        <v>1.883</v>
+        <v>1.893</v>
       </c>
       <c r="F127" t="n">
-        <v>357365.3113</v>
+        <v>122351.9998</v>
       </c>
       <c r="G127" t="n">
-        <v>1.889550000000001</v>
+        <v>1.889600000000001</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4898,7 +4966,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4925,10 +4995,10 @@
         <v>1.883</v>
       </c>
       <c r="F128" t="n">
-        <v>6000</v>
+        <v>357365.3113</v>
       </c>
       <c r="G128" t="n">
-        <v>1.889483333333334</v>
+        <v>1.889550000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4937,7 +5007,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4955,19 +5027,19 @@
         <v>1.883</v>
       </c>
       <c r="C129" t="n">
-        <v>1.902</v>
+        <v>1.883</v>
       </c>
       <c r="D129" t="n">
-        <v>1.902</v>
+        <v>1.883</v>
       </c>
       <c r="E129" t="n">
         <v>1.883</v>
       </c>
       <c r="F129" t="n">
-        <v>20262.9192</v>
+        <v>6000</v>
       </c>
       <c r="G129" t="n">
-        <v>1.889733333333334</v>
+        <v>1.889483333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4976,7 +5048,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4994,19 +5068,19 @@
         <v>1.883</v>
       </c>
       <c r="C130" t="n">
-        <v>1.893</v>
+        <v>1.902</v>
       </c>
       <c r="D130" t="n">
-        <v>1.893</v>
+        <v>1.902</v>
       </c>
       <c r="E130" t="n">
         <v>1.883</v>
       </c>
       <c r="F130" t="n">
-        <v>73018.74249999999</v>
+        <v>20262.9192</v>
       </c>
       <c r="G130" t="n">
-        <v>1.889833333333334</v>
+        <v>1.889733333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5015,7 +5089,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5033,19 +5109,19 @@
         <v>1.883</v>
       </c>
       <c r="C131" t="n">
-        <v>1.883</v>
+        <v>1.893</v>
       </c>
       <c r="D131" t="n">
-        <v>1.883</v>
+        <v>1.893</v>
       </c>
       <c r="E131" t="n">
         <v>1.883</v>
       </c>
       <c r="F131" t="n">
-        <v>2000</v>
+        <v>73018.74249999999</v>
       </c>
       <c r="G131" t="n">
-        <v>1.889783333333334</v>
+        <v>1.889833333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5054,7 +5130,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5081,10 +5159,10 @@
         <v>1.883</v>
       </c>
       <c r="F132" t="n">
-        <v>29585.2415</v>
+        <v>2000</v>
       </c>
       <c r="G132" t="n">
-        <v>1.889733333333334</v>
+        <v>1.889783333333334</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5093,7 +5171,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5111,19 +5191,19 @@
         <v>1.883</v>
       </c>
       <c r="C133" t="n">
-        <v>1.889</v>
+        <v>1.883</v>
       </c>
       <c r="D133" t="n">
-        <v>1.889</v>
+        <v>1.883</v>
       </c>
       <c r="E133" t="n">
         <v>1.883</v>
       </c>
       <c r="F133" t="n">
-        <v>156201.6877</v>
+        <v>29585.2415</v>
       </c>
       <c r="G133" t="n">
-        <v>1.889533333333334</v>
+        <v>1.889733333333334</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5132,7 +5212,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5147,22 +5229,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.897</v>
+        <v>1.883</v>
       </c>
       <c r="C134" t="n">
-        <v>1.897</v>
+        <v>1.889</v>
       </c>
       <c r="D134" t="n">
-        <v>1.897</v>
+        <v>1.889</v>
       </c>
       <c r="E134" t="n">
-        <v>1.897</v>
+        <v>1.883</v>
       </c>
       <c r="F134" t="n">
-        <v>498519.2179</v>
+        <v>156201.6877</v>
       </c>
       <c r="G134" t="n">
-        <v>1.889716666666668</v>
+        <v>1.889533333333334</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5171,7 +5253,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5186,22 +5270,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="C135" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="D135" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="E135" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="F135" t="n">
-        <v>263.2525</v>
+        <v>498519.2179</v>
       </c>
       <c r="G135" t="n">
-        <v>1.889700000000001</v>
+        <v>1.889716666666668</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5210,7 +5294,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5225,22 +5311,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.889</v>
+        <v>1.9</v>
       </c>
       <c r="C136" t="n">
-        <v>1.889</v>
+        <v>1.9</v>
       </c>
       <c r="D136" t="n">
-        <v>1.889</v>
+        <v>1.9</v>
       </c>
       <c r="E136" t="n">
-        <v>1.889</v>
+        <v>1.9</v>
       </c>
       <c r="F136" t="n">
-        <v>1000</v>
+        <v>263.2525</v>
       </c>
       <c r="G136" t="n">
-        <v>1.889766666666667</v>
+        <v>1.889700000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5249,7 +5335,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5276,10 +5364,10 @@
         <v>1.889</v>
       </c>
       <c r="F137" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G137" t="n">
-        <v>1.889583333333334</v>
+        <v>1.889766666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5288,7 +5376,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5315,10 +5405,10 @@
         <v>1.889</v>
       </c>
       <c r="F138" t="n">
-        <v>48520.7584</v>
+        <v>2000</v>
       </c>
       <c r="G138" t="n">
-        <v>1.889133333333334</v>
+        <v>1.889583333333334</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5327,7 +5417,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5354,10 +5446,10 @@
         <v>1.889</v>
       </c>
       <c r="F139" t="n">
-        <v>18064.5458</v>
+        <v>48520.7584</v>
       </c>
       <c r="G139" t="n">
-        <v>1.889033333333334</v>
+        <v>1.889133333333334</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5366,7 +5458,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5393,10 +5487,10 @@
         <v>1.889</v>
       </c>
       <c r="F140" t="n">
-        <v>2000</v>
+        <v>18064.5458</v>
       </c>
       <c r="G140" t="n">
-        <v>1.888733333333334</v>
+        <v>1.889033333333334</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5405,7 +5499,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5432,10 +5528,10 @@
         <v>1.889</v>
       </c>
       <c r="F141" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="G141" t="n">
-        <v>1.888300000000001</v>
+        <v>1.888733333333334</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5444,7 +5540,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5471,10 +5569,10 @@
         <v>1.889</v>
       </c>
       <c r="F142" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G142" t="n">
-        <v>1.887866666666667</v>
+        <v>1.888300000000001</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5483,7 +5581,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5510,10 +5610,10 @@
         <v>1.889</v>
       </c>
       <c r="F143" t="n">
-        <v>20521.4468</v>
+        <v>4000</v>
       </c>
       <c r="G143" t="n">
-        <v>1.887566666666667</v>
+        <v>1.887866666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5522,7 +5622,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5540,19 +5642,19 @@
         <v>1.889</v>
       </c>
       <c r="C144" t="n">
-        <v>1.9</v>
+        <v>1.889</v>
       </c>
       <c r="D144" t="n">
-        <v>1.9</v>
+        <v>1.889</v>
       </c>
       <c r="E144" t="n">
         <v>1.889</v>
       </c>
       <c r="F144" t="n">
-        <v>2463.7668</v>
+        <v>20521.4468</v>
       </c>
       <c r="G144" t="n">
-        <v>1.887450000000001</v>
+        <v>1.887566666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5561,7 +5663,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5579,19 +5683,19 @@
         <v>1.889</v>
       </c>
       <c r="C145" t="n">
-        <v>1.889</v>
+        <v>1.9</v>
       </c>
       <c r="D145" t="n">
-        <v>1.889</v>
+        <v>1.9</v>
       </c>
       <c r="E145" t="n">
         <v>1.889</v>
       </c>
       <c r="F145" t="n">
-        <v>4000</v>
+        <v>2463.7668</v>
       </c>
       <c r="G145" t="n">
-        <v>1.887350000000001</v>
+        <v>1.887450000000001</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5600,7 +5704,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5627,10 +5733,10 @@
         <v>1.889</v>
       </c>
       <c r="F146" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G146" t="n">
-        <v>1.887250000000001</v>
+        <v>1.887350000000001</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5639,7 +5745,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5666,10 +5774,10 @@
         <v>1.889</v>
       </c>
       <c r="F147" t="n">
-        <v>23323.1986</v>
+        <v>2000</v>
       </c>
       <c r="G147" t="n">
-        <v>1.887150000000001</v>
+        <v>1.887250000000001</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5678,7 +5786,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5705,10 +5815,10 @@
         <v>1.889</v>
       </c>
       <c r="F148" t="n">
-        <v>22889.1463</v>
+        <v>23323.1986</v>
       </c>
       <c r="G148" t="n">
-        <v>1.887050000000001</v>
+        <v>1.887150000000001</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5717,7 +5827,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5738,16 +5850,16 @@
         <v>1.889</v>
       </c>
       <c r="D149" t="n">
-        <v>1.9</v>
+        <v>1.889</v>
       </c>
       <c r="E149" t="n">
         <v>1.889</v>
       </c>
       <c r="F149" t="n">
-        <v>4263.2525</v>
+        <v>22889.1463</v>
       </c>
       <c r="G149" t="n">
-        <v>1.88695</v>
+        <v>1.887050000000001</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5756,7 +5868,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5777,16 +5891,16 @@
         <v>1.889</v>
       </c>
       <c r="D150" t="n">
-        <v>1.901</v>
+        <v>1.9</v>
       </c>
       <c r="E150" t="n">
         <v>1.889</v>
       </c>
       <c r="F150" t="n">
-        <v>26457.0198</v>
+        <v>4263.2525</v>
       </c>
       <c r="G150" t="n">
-        <v>1.88685</v>
+        <v>1.88695</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5795,7 +5909,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5816,16 +5932,16 @@
         <v>1.889</v>
       </c>
       <c r="D151" t="n">
-        <v>1.889</v>
+        <v>1.901</v>
       </c>
       <c r="E151" t="n">
         <v>1.889</v>
       </c>
       <c r="F151" t="n">
-        <v>20192.8208</v>
+        <v>26457.0198</v>
       </c>
       <c r="G151" t="n">
-        <v>1.88675</v>
+        <v>1.88685</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5834,7 +5950,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5861,10 +5979,10 @@
         <v>1.889</v>
       </c>
       <c r="F152" t="n">
-        <v>22077.5397</v>
+        <v>20192.8208</v>
       </c>
       <c r="G152" t="n">
-        <v>1.88665</v>
+        <v>1.88675</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5873,7 +5991,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5900,10 +6020,10 @@
         <v>1.889</v>
       </c>
       <c r="F153" t="n">
-        <v>33862.4631</v>
+        <v>22077.5397</v>
       </c>
       <c r="G153" t="n">
-        <v>1.886566666666667</v>
+        <v>1.88665</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5912,7 +6032,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5927,22 +6049,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.89</v>
+        <v>1.889</v>
       </c>
       <c r="C154" t="n">
-        <v>1.89</v>
+        <v>1.889</v>
       </c>
       <c r="D154" t="n">
-        <v>1.89</v>
+        <v>1.889</v>
       </c>
       <c r="E154" t="n">
-        <v>1.89</v>
+        <v>1.889</v>
       </c>
       <c r="F154" t="n">
-        <v>26606.8141</v>
+        <v>33862.4631</v>
       </c>
       <c r="G154" t="n">
-        <v>1.88635</v>
+        <v>1.886566666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5951,7 +6073,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5978,10 +6102,10 @@
         <v>1.89</v>
       </c>
       <c r="F155" t="n">
-        <v>53692.6711</v>
+        <v>26606.8141</v>
       </c>
       <c r="G155" t="n">
-        <v>1.886283333333334</v>
+        <v>1.88635</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5990,7 +6114,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6017,10 +6143,10 @@
         <v>1.89</v>
       </c>
       <c r="F156" t="n">
-        <v>31150.5148</v>
+        <v>53692.6711</v>
       </c>
       <c r="G156" t="n">
-        <v>1.886366666666667</v>
+        <v>1.886283333333334</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6029,7 +6155,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6044,22 +6172,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="C157" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="D157" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="E157" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="F157" t="n">
-        <v>1000</v>
+        <v>31150.5148</v>
       </c>
       <c r="G157" t="n">
-        <v>1.8862</v>
+        <v>1.886366666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6068,7 +6196,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6083,22 +6213,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="C158" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="D158" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="E158" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="F158" t="n">
-        <v>25401.4858</v>
+        <v>1000</v>
       </c>
       <c r="G158" t="n">
-        <v>1.886283333333333</v>
+        <v>1.8862</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6107,7 +6237,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6134,10 +6266,10 @@
         <v>1.89</v>
       </c>
       <c r="F159" t="n">
-        <v>1000</v>
+        <v>25401.4858</v>
       </c>
       <c r="G159" t="n">
-        <v>1.886366666666667</v>
+        <v>1.886283333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6146,7 +6278,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6173,10 +6307,10 @@
         <v>1.89</v>
       </c>
       <c r="F160" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G160" t="n">
-        <v>1.886466666666667</v>
+        <v>1.886366666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6185,7 +6319,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6212,10 +6348,10 @@
         <v>1.89</v>
       </c>
       <c r="F161" t="n">
-        <v>25187.9656</v>
+        <v>2000</v>
       </c>
       <c r="G161" t="n">
-        <v>1.886566666666667</v>
+        <v>1.886466666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6224,7 +6360,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6251,10 +6389,10 @@
         <v>1.89</v>
       </c>
       <c r="F162" t="n">
-        <v>1640.5486</v>
+        <v>25187.9656</v>
       </c>
       <c r="G162" t="n">
-        <v>1.88665</v>
+        <v>1.886566666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6263,7 +6401,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6290,10 +6430,10 @@
         <v>1.89</v>
       </c>
       <c r="F163" t="n">
-        <v>45301.66</v>
+        <v>1640.5486</v>
       </c>
       <c r="G163" t="n">
-        <v>1.886783333333333</v>
+        <v>1.88665</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6302,7 +6442,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6317,22 +6459,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1.883</v>
+        <v>1.89</v>
       </c>
       <c r="C164" t="n">
-        <v>1.883</v>
+        <v>1.89</v>
       </c>
       <c r="D164" t="n">
-        <v>1.883</v>
+        <v>1.89</v>
       </c>
       <c r="E164" t="n">
-        <v>1.883</v>
+        <v>1.89</v>
       </c>
       <c r="F164" t="n">
-        <v>19801.3553</v>
+        <v>45301.66</v>
       </c>
       <c r="G164" t="n">
-        <v>1.886816666666666</v>
+        <v>1.886783333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6341,7 +6483,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6368,10 +6512,10 @@
         <v>1.883</v>
       </c>
       <c r="F165" t="n">
-        <v>17230.1142</v>
+        <v>19801.3553</v>
       </c>
       <c r="G165" t="n">
-        <v>1.886849999999999</v>
+        <v>1.886816666666666</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6380,7 +6524,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6407,10 +6553,10 @@
         <v>1.883</v>
       </c>
       <c r="F166" t="n">
-        <v>12415.027</v>
+        <v>17230.1142</v>
       </c>
       <c r="G166" t="n">
-        <v>1.8869</v>
+        <v>1.886849999999999</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6419,7 +6565,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6446,10 +6594,10 @@
         <v>1.883</v>
       </c>
       <c r="F167" t="n">
-        <v>19159.7241</v>
+        <v>12415.027</v>
       </c>
       <c r="G167" t="n">
-        <v>1.886949999999999</v>
+        <v>1.8869</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6458,7 +6606,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6485,10 +6635,10 @@
         <v>1.883</v>
       </c>
       <c r="F168" t="n">
-        <v>24734.7957</v>
+        <v>19159.7241</v>
       </c>
       <c r="G168" t="n">
-        <v>1.887049999999999</v>
+        <v>1.886949999999999</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6497,7 +6647,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6524,10 +6676,10 @@
         <v>1.883</v>
       </c>
       <c r="F169" t="n">
-        <v>21002.2173</v>
+        <v>24734.7957</v>
       </c>
       <c r="G169" t="n">
-        <v>1.887166666666666</v>
+        <v>1.887049999999999</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6536,7 +6688,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6563,19 +6717,23 @@
         <v>1.883</v>
       </c>
       <c r="F170" t="n">
-        <v>18325.7739</v>
+        <v>21002.2173</v>
       </c>
       <c r="G170" t="n">
-        <v>1.887283333333333</v>
+        <v>1.887166666666666</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K170" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6602,10 +6760,10 @@
         <v>1.883</v>
       </c>
       <c r="F171" t="n">
-        <v>35927.24</v>
+        <v>18325.7739</v>
       </c>
       <c r="G171" t="n">
-        <v>1.887399999999999</v>
+        <v>1.887283333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6614,7 +6772,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6641,10 +6801,10 @@
         <v>1.883</v>
       </c>
       <c r="F172" t="n">
-        <v>25442.11</v>
+        <v>35927.24</v>
       </c>
       <c r="G172" t="n">
-        <v>1.887549999999999</v>
+        <v>1.887399999999999</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6653,7 +6813,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6668,22 +6830,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1.885</v>
+        <v>1.883</v>
       </c>
       <c r="C173" t="n">
-        <v>1.885</v>
+        <v>1.883</v>
       </c>
       <c r="D173" t="n">
-        <v>1.885</v>
+        <v>1.883</v>
       </c>
       <c r="E173" t="n">
-        <v>1.885</v>
+        <v>1.883</v>
       </c>
       <c r="F173" t="n">
-        <v>35580.2922</v>
+        <v>25442.11</v>
       </c>
       <c r="G173" t="n">
-        <v>1.887466666666666</v>
+        <v>1.887549999999999</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6692,7 +6854,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6719,19 +6883,23 @@
         <v>1.885</v>
       </c>
       <c r="F174" t="n">
-        <v>18623.8989</v>
+        <v>35580.2922</v>
       </c>
       <c r="G174" t="n">
-        <v>1.887716666666666</v>
+        <v>1.887466666666666</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6758,19 +6926,23 @@
         <v>1.885</v>
       </c>
       <c r="F175" t="n">
-        <v>19434.5067</v>
+        <v>18623.8989</v>
       </c>
       <c r="G175" t="n">
-        <v>1.887983333333332</v>
+        <v>1.887716666666666</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6797,10 +6969,10 @@
         <v>1.885</v>
       </c>
       <c r="F176" t="n">
-        <v>49421.0964</v>
+        <v>19434.5067</v>
       </c>
       <c r="G176" t="n">
-        <v>1.888249999999999</v>
+        <v>1.887983333333332</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6809,7 +6981,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6836,10 +7010,10 @@
         <v>1.885</v>
       </c>
       <c r="F177" t="n">
-        <v>23754.0985</v>
+        <v>49421.0964</v>
       </c>
       <c r="G177" t="n">
-        <v>1.888499999999999</v>
+        <v>1.888249999999999</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6848,7 +7022,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6863,31 +7039,35 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1.886</v>
+        <v>1.885</v>
       </c>
       <c r="C178" t="n">
         <v>1.885</v>
       </c>
       <c r="D178" t="n">
-        <v>1.886</v>
+        <v>1.885</v>
       </c>
       <c r="E178" t="n">
         <v>1.885</v>
       </c>
       <c r="F178" t="n">
-        <v>40339.0217</v>
+        <v>23754.0985</v>
       </c>
       <c r="G178" t="n">
-        <v>1.888749999999999</v>
+        <v>1.888499999999999</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6902,31 +7082,35 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1.885</v>
+        <v>1.886</v>
       </c>
       <c r="C179" t="n">
         <v>1.885</v>
       </c>
       <c r="D179" t="n">
-        <v>1.885</v>
+        <v>1.886</v>
       </c>
       <c r="E179" t="n">
         <v>1.885</v>
       </c>
       <c r="F179" t="n">
-        <v>24980.4039</v>
+        <v>40339.0217</v>
       </c>
       <c r="G179" t="n">
-        <v>1.888599999999999</v>
+        <v>1.888749999999999</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6953,10 +7137,10 @@
         <v>1.885</v>
       </c>
       <c r="F180" t="n">
-        <v>19095.2027</v>
+        <v>24980.4039</v>
       </c>
       <c r="G180" t="n">
-        <v>1.888449999999999</v>
+        <v>1.888599999999999</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6965,7 +7149,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6992,10 +7178,10 @@
         <v>1.885</v>
       </c>
       <c r="F181" t="n">
-        <v>44711.1704</v>
+        <v>19095.2027</v>
       </c>
       <c r="G181" t="n">
-        <v>1.888299999999999</v>
+        <v>1.888449999999999</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7004,7 +7190,9 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7022,19 +7210,19 @@
         <v>1.885</v>
       </c>
       <c r="C182" t="n">
-        <v>1.883</v>
+        <v>1.885</v>
       </c>
       <c r="D182" t="n">
         <v>1.885</v>
       </c>
       <c r="E182" t="n">
-        <v>1.883</v>
+        <v>1.885</v>
       </c>
       <c r="F182" t="n">
-        <v>60000</v>
+        <v>44711.1704</v>
       </c>
       <c r="G182" t="n">
-        <v>1.888116666666666</v>
+        <v>1.888299999999999</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7043,7 +7231,9 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7058,22 +7248,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1.883</v>
+        <v>1.885</v>
       </c>
       <c r="C183" t="n">
         <v>1.883</v>
       </c>
       <c r="D183" t="n">
-        <v>1.883</v>
+        <v>1.885</v>
       </c>
       <c r="E183" t="n">
         <v>1.883</v>
       </c>
       <c r="F183" t="n">
-        <v>52891.8439</v>
+        <v>60000</v>
       </c>
       <c r="G183" t="n">
-        <v>1.887933333333332</v>
+        <v>1.888116666666666</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7082,7 +7272,9 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7097,22 +7289,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1.881</v>
+        <v>1.883</v>
       </c>
       <c r="C184" t="n">
-        <v>1.879</v>
+        <v>1.883</v>
       </c>
       <c r="D184" t="n">
-        <v>1.881</v>
+        <v>1.883</v>
       </c>
       <c r="E184" t="n">
-        <v>1.879</v>
+        <v>1.883</v>
       </c>
       <c r="F184" t="n">
-        <v>179418.0864</v>
+        <v>52891.8439</v>
       </c>
       <c r="G184" t="n">
-        <v>1.887683333333332</v>
+        <v>1.887933333333332</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7121,7 +7313,9 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7136,22 +7330,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1.879</v>
+        <v>1.881</v>
       </c>
       <c r="C185" t="n">
         <v>1.879</v>
       </c>
       <c r="D185" t="n">
-        <v>1.879</v>
+        <v>1.881</v>
       </c>
       <c r="E185" t="n">
         <v>1.879</v>
       </c>
       <c r="F185" t="n">
-        <v>28117.2986</v>
+        <v>179418.0864</v>
       </c>
       <c r="G185" t="n">
-        <v>1.887416666666666</v>
+        <v>1.887683333333332</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7160,7 +7354,9 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7175,22 +7371,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1.9</v>
+        <v>1.879</v>
       </c>
       <c r="C186" t="n">
-        <v>1.9</v>
+        <v>1.879</v>
       </c>
       <c r="D186" t="n">
-        <v>1.9</v>
+        <v>1.879</v>
       </c>
       <c r="E186" t="n">
-        <v>1.9</v>
+        <v>1.879</v>
       </c>
       <c r="F186" t="n">
-        <v>14302.226</v>
+        <v>28117.2986</v>
       </c>
       <c r="G186" t="n">
-        <v>1.887533333333333</v>
+        <v>1.887416666666666</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7199,7 +7395,9 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7217,19 +7415,19 @@
         <v>1.9</v>
       </c>
       <c r="C187" t="n">
-        <v>1.895</v>
+        <v>1.9</v>
       </c>
       <c r="D187" t="n">
         <v>1.9</v>
       </c>
       <c r="E187" t="n">
-        <v>1.895</v>
+        <v>1.9</v>
       </c>
       <c r="F187" t="n">
-        <v>437999.2839</v>
+        <v>14302.226</v>
       </c>
       <c r="G187" t="n">
-        <v>1.887733333333333</v>
+        <v>1.887533333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7238,7 +7436,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7253,22 +7453,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="C188" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="D188" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="E188" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="F188" t="n">
-        <v>424428.9704</v>
+        <v>437999.2839</v>
       </c>
       <c r="G188" t="n">
-        <v>1.887849999999999</v>
+        <v>1.887733333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7277,7 +7477,9 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7295,68 +7497,78 @@
         <v>1.89</v>
       </c>
       <c r="C189" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="D189" t="n">
         <v>1.89</v>
       </c>
       <c r="E189" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="F189" t="n">
-        <v>144329.3116</v>
+        <v>424428.9704</v>
       </c>
       <c r="G189" t="n">
-        <v>1.887483333333333</v>
+        <v>1.887849999999999</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M189" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="C190" t="n">
         <v>1.88</v>
       </c>
       <c r="D190" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="E190" t="n">
         <v>1.88</v>
       </c>
       <c r="F190" t="n">
-        <v>5507</v>
+        <v>144329.3116</v>
       </c>
       <c r="G190" t="n">
-        <v>1.887266666666666</v>
+        <v>1.887483333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M190" t="n">
-        <v>1</v>
+        <v>0.9944683678894205</v>
       </c>
     </row>
     <row r="191">
@@ -7364,28 +7576,28 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1.881</v>
+        <v>1.88</v>
       </c>
       <c r="C191" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="D191" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="E191" t="n">
-        <v>1.879</v>
+        <v>1.88</v>
       </c>
       <c r="F191" t="n">
-        <v>263963.5872</v>
+        <v>5507</v>
       </c>
       <c r="G191" t="n">
-        <v>1.887383333333333</v>
+        <v>1.887266666666666</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
@@ -7399,7 +7611,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1.89</v>
+        <v>1.881</v>
       </c>
       <c r="C192" t="n">
         <v>1.89</v>
@@ -7408,19 +7620,19 @@
         <v>1.89</v>
       </c>
       <c r="E192" t="n">
-        <v>1.875</v>
+        <v>1.879</v>
       </c>
       <c r="F192" t="n">
-        <v>399086.1759</v>
+        <v>263963.5872</v>
       </c>
       <c r="G192" t="n">
-        <v>1.887499999999999</v>
+        <v>1.887383333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
@@ -7437,19 +7649,19 @@
         <v>1.89</v>
       </c>
       <c r="C193" t="n">
-        <v>1.883</v>
+        <v>1.89</v>
       </c>
       <c r="D193" t="n">
         <v>1.89</v>
       </c>
       <c r="E193" t="n">
-        <v>1.883</v>
+        <v>1.875</v>
       </c>
       <c r="F193" t="n">
-        <v>138270.5356</v>
+        <v>399086.1759</v>
       </c>
       <c r="G193" t="n">
-        <v>1.887399999999999</v>
+        <v>1.887499999999999</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7469,22 +7681,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1.883</v>
+        <v>1.89</v>
       </c>
       <c r="C194" t="n">
         <v>1.883</v>
       </c>
       <c r="D194" t="n">
-        <v>1.883</v>
+        <v>1.89</v>
       </c>
       <c r="E194" t="n">
         <v>1.883</v>
       </c>
       <c r="F194" t="n">
-        <v>2000</v>
+        <v>138270.5356</v>
       </c>
       <c r="G194" t="n">
-        <v>1.887166666666666</v>
+        <v>1.887399999999999</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7507,19 +7719,19 @@
         <v>1.883</v>
       </c>
       <c r="C195" t="n">
-        <v>1.884</v>
+        <v>1.883</v>
       </c>
       <c r="D195" t="n">
-        <v>1.884</v>
+        <v>1.883</v>
       </c>
       <c r="E195" t="n">
         <v>1.883</v>
       </c>
       <c r="F195" t="n">
-        <v>68764</v>
+        <v>2000</v>
       </c>
       <c r="G195" t="n">
-        <v>1.886899999999999</v>
+        <v>1.887166666666666</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7539,22 +7751,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1.891</v>
+        <v>1.883</v>
       </c>
       <c r="C196" t="n">
-        <v>1.891</v>
+        <v>1.884</v>
       </c>
       <c r="D196" t="n">
-        <v>1.891</v>
+        <v>1.884</v>
       </c>
       <c r="E196" t="n">
-        <v>1.891</v>
+        <v>1.883</v>
       </c>
       <c r="F196" t="n">
-        <v>622040</v>
+        <v>68764</v>
       </c>
       <c r="G196" t="n">
-        <v>1.886933333333332</v>
+        <v>1.886899999999999</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7569,6 +7781,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="F197" t="n">
+        <v>622040</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1.886933333333332</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-13 BackTest HYC.xlsx
+++ b/BackTest/2020-01-13 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M197"/>
+  <dimension ref="A1:N207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>6118.8621</v>
       </c>
       <c r="G2" t="n">
+        <v>1.913999999999999</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.917950000000004</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>20360.447</v>
       </c>
       <c r="G3" t="n">
+        <v>1.914866666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.91786666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>8661.0327</v>
       </c>
       <c r="G4" t="n">
+        <v>1.915133333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.917750000000003</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>20978.5203</v>
       </c>
       <c r="G5" t="n">
+        <v>1.9154</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.917650000000003</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>20360</v>
       </c>
       <c r="G6" t="n">
+        <v>1.915066666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.917400000000003</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>62253.3094</v>
       </c>
       <c r="G7" t="n">
+        <v>1.915333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.91751666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>29290</v>
       </c>
       <c r="G8" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.917600000000003</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>78633.02469999999</v>
       </c>
       <c r="G9" t="n">
+        <v>1.914933333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.917533333333336</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>632922.1084</v>
       </c>
       <c r="G10" t="n">
+        <v>1.914133333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.917400000000003</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>6091.5143</v>
       </c>
       <c r="G11" t="n">
+        <v>1.914933333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.917383333333337</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>483087.6954</v>
       </c>
       <c r="G12" t="n">
+        <v>1.914866666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.91721666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>20847.648</v>
       </c>
       <c r="G13" t="n">
+        <v>1.9148</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.917050000000003</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>56000</v>
       </c>
       <c r="G14" t="n">
+        <v>1.914733333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.916883333333336</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>58000</v>
       </c>
       <c r="G15" t="n">
+        <v>1.913733333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.916633333333336</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>6000</v>
       </c>
       <c r="G16" t="n">
+        <v>1.912733333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.916383333333336</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>22075</v>
       </c>
       <c r="G17" t="n">
+        <v>1.911466666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.916066666666669</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>454025</v>
       </c>
       <c r="G18" t="n">
+        <v>1.910266666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.915750000000003</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>3578.4124</v>
       </c>
       <c r="G19" t="n">
+        <v>1.909066666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.915433333333336</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>47000.8</v>
       </c>
       <c r="G20" t="n">
+        <v>1.907866666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.915100000000002</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>381921.2342</v>
       </c>
       <c r="G21" t="n">
+        <v>1.906266666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.914600000000003</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>90317.61870000001</v>
       </c>
       <c r="G22" t="n">
+        <v>1.904000000000001</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.914000000000002</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>163000.6704</v>
       </c>
       <c r="G23" t="n">
+        <v>1.902000000000001</v>
+      </c>
+      <c r="H23" t="n">
         <v>1.913400000000002</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>361677.742</v>
       </c>
       <c r="G24" t="n">
+        <v>1.899933333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.912700000000002</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>26105.0357</v>
       </c>
       <c r="G25" t="n">
+        <v>1.899600000000001</v>
+      </c>
+      <c r="H25" t="n">
         <v>1.912350000000002</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>290306.6406</v>
       </c>
       <c r="G26" t="n">
+        <v>1.897400000000001</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.911766666666669</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>53854.35</v>
       </c>
       <c r="G27" t="n">
+        <v>1.896066666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>1.911166666666669</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>37345.1948</v>
       </c>
       <c r="G28" t="n">
+        <v>1.8948</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.910600000000002</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>261</v>
       </c>
       <c r="G29" t="n">
+        <v>1.894866666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>1.910366666666669</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>331764.363</v>
       </c>
       <c r="G30" t="n">
+        <v>1.8936</v>
+      </c>
+      <c r="H30" t="n">
         <v>1.909800000000002</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>75803.64999999999</v>
       </c>
       <c r="G31" t="n">
+        <v>1.892266666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>1.909300000000002</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>3898.3753</v>
       </c>
       <c r="G32" t="n">
+        <v>1.892533333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>1.909133333333335</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>1191.299790356</v>
       </c>
       <c r="G33" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.909016666666669</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>560</v>
       </c>
       <c r="G34" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="H34" t="n">
         <v>1.908533333333335</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>61563.2561</v>
       </c>
       <c r="G35" t="n">
+        <v>1.891066666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.908100000000002</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>717.6004</v>
       </c>
       <c r="G36" t="n">
+        <v>1.892266666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.907916666666668</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>758246.166968546</v>
       </c>
       <c r="G37" t="n">
+        <v>1.895466666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>1.908133333333335</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>34501.3847</v>
       </c>
       <c r="G38" t="n">
+        <v>1.897133333333334</v>
+      </c>
+      <c r="H38" t="n">
         <v>1.907966666666668</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>59140.6439</v>
       </c>
       <c r="G39" t="n">
+        <v>1.8994</v>
+      </c>
+      <c r="H39" t="n">
         <v>1.907950000000002</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>758246.1669</v>
       </c>
       <c r="G40" t="n">
+        <v>1.898533333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>1.907400000000002</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>8256.154699999999</v>
       </c>
       <c r="G41" t="n">
+        <v>1.899466666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>1.907066666666668</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>259</v>
       </c>
       <c r="G42" t="n">
+        <v>1.901133333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>1.906900000000002</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>13078.4104</v>
       </c>
       <c r="G43" t="n">
+        <v>1.902733333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>1.906733333333335</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>839186.8663</v>
       </c>
       <c r="G44" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.906566666666668</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>22440.7266</v>
       </c>
       <c r="G45" t="n">
+        <v>1.904933333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>1.906483333333335</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>45983.3921</v>
       </c>
       <c r="G46" t="n">
+        <v>1.906133333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.906200000000002</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>263.015</v>
       </c>
       <c r="G47" t="n">
+        <v>1.9062</v>
+      </c>
+      <c r="H47" t="n">
         <v>1.906050000000002</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>262.7712</v>
       </c>
       <c r="G48" t="n">
+        <v>1.906333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>1.906116666666668</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>22691.8075</v>
       </c>
       <c r="G49" t="n">
+        <v>1.907466666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>1.905916666666668</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>18839.6518</v>
       </c>
       <c r="G50" t="n">
+        <v>1.908266666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>1.905650000000001</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>22435.7307</v>
       </c>
       <c r="G51" t="n">
+        <v>1.9076</v>
+      </c>
+      <c r="H51" t="n">
         <v>1.905300000000001</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>911.7043</v>
       </c>
       <c r="G52" t="n">
+        <v>1.9052</v>
+      </c>
+      <c r="H52" t="n">
         <v>1.905000000000001</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>60391.7025</v>
       </c>
       <c r="G53" t="n">
+        <v>1.904533333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>1.904666666666668</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>64874.2691</v>
       </c>
       <c r="G54" t="n">
+        <v>1.903066666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>1.904333333333335</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>26990.097</v>
       </c>
       <c r="G55" t="n">
+        <v>1.903933333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>1.904050000000002</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>44564.281</v>
       </c>
       <c r="G56" t="n">
+        <v>1.903733333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>1.903883333333335</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>112397.284</v>
       </c>
       <c r="G57" t="n">
+        <v>1.9034</v>
+      </c>
+      <c r="H57" t="n">
         <v>1.903866666666668</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>10391.1567</v>
       </c>
       <c r="G58" t="n">
+        <v>1.902533333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>1.903716666666668</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>13798.1129</v>
       </c>
       <c r="G59" t="n">
+        <v>1.901733333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>1.903583333333335</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>15630</v>
       </c>
       <c r="G60" t="n">
+        <v>1.9006</v>
+      </c>
+      <c r="H60" t="n">
         <v>1.903216666666668</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>35499.4488</v>
       </c>
       <c r="G61" t="n">
+        <v>1.900199999999999</v>
+      </c>
+      <c r="H61" t="n">
         <v>1.902833333333335</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>147463.6631</v>
       </c>
       <c r="G62" t="n">
+        <v>1.899066666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>1.902316666666668</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>50000</v>
       </c>
       <c r="G63" t="n">
+        <v>1.8976</v>
+      </c>
+      <c r="H63" t="n">
         <v>1.901800000000001</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>262.6124</v>
       </c>
       <c r="G64" t="n">
+        <v>1.897733333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>1.901566666666668</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>816377.9518</v>
       </c>
       <c r="G65" t="n">
+        <v>1.897066666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>1.901066666666668</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>178592.7937</v>
       </c>
       <c r="G66" t="n">
+        <v>1.896266666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>1.900600000000001</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>5060.1847</v>
       </c>
       <c r="G67" t="n">
+        <v>1.8956</v>
+      </c>
+      <c r="H67" t="n">
         <v>1.900066666666668</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>17480.8251</v>
       </c>
       <c r="G68" t="n">
+        <v>1.894666666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>1.899583333333335</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>48725.2327</v>
       </c>
       <c r="G69" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="H69" t="n">
         <v>1.899100000000001</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>123317.1003</v>
       </c>
       <c r="G70" t="n">
+        <v>1.893133333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>1.898800000000001</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>17168.0417</v>
       </c>
       <c r="G71" t="n">
+        <v>1.892466666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>1.898266666666668</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>283372.0165</v>
       </c>
       <c r="G72" t="n">
+        <v>1.8912</v>
+      </c>
+      <c r="H72" t="n">
         <v>1.897950000000001</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>2368.4806</v>
       </c>
       <c r="G73" t="n">
+        <v>1.890466666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>1.897633333333335</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>263</v>
       </c>
       <c r="G74" t="n">
+        <v>1.890666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>1.897566666666668</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>77804.11440000001</v>
       </c>
       <c r="G75" t="n">
+        <v>1.889866666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>1.897250000000001</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>262</v>
       </c>
       <c r="G76" t="n">
+        <v>1.890133333333334</v>
+      </c>
+      <c r="H76" t="n">
         <v>1.897183333333334</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>171022.8605</v>
       </c>
       <c r="G77" t="n">
+        <v>1.889866666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>1.896916666666668</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>529917.0606</v>
       </c>
       <c r="G78" t="n">
+        <v>1.890666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>1.896900000000001</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>1280782.6143</v>
       </c>
       <c r="G79" t="n">
+        <v>1.8914</v>
+      </c>
+      <c r="H79" t="n">
         <v>1.897150000000001</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>51652.2207</v>
       </c>
       <c r="G80" t="n">
+        <v>1.8918</v>
+      </c>
+      <c r="H80" t="n">
         <v>1.897050000000001</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>25820</v>
       </c>
       <c r="G81" t="n">
+        <v>1.893133333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>1.897316666666668</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>262.12</v>
       </c>
       <c r="G82" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="H82" t="n">
         <v>1.897816666666668</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>26505.195</v>
       </c>
       <c r="G83" t="n">
+        <v>1.896933333333334</v>
+      </c>
+      <c r="H83" t="n">
         <v>1.898316666666668</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>65170</v>
       </c>
       <c r="G84" t="n">
+        <v>1.898266666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>1.898683333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>0.5276999999999999</v>
       </c>
       <c r="G85" t="n">
+        <v>1.8996</v>
+      </c>
+      <c r="H85" t="n">
         <v>1.898800000000001</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>14743.5161</v>
       </c>
       <c r="G86" t="n">
+        <v>1.900133333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>1.898950000000001</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>89899.7892</v>
       </c>
       <c r="G87" t="n">
+        <v>1.900733333333334</v>
+      </c>
+      <c r="H87" t="n">
         <v>1.899116666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>62139.9365</v>
       </c>
       <c r="G88" t="n">
+        <v>1.901333333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>1.899266666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>50259.1654</v>
       </c>
       <c r="G89" t="n">
+        <v>1.900933333333334</v>
+      </c>
+      <c r="H89" t="n">
         <v>1.899083333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>28091.4153</v>
       </c>
       <c r="G90" t="n">
+        <v>1.901533333333334</v>
+      </c>
+      <c r="H90" t="n">
         <v>1.899233333333334</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>50000</v>
       </c>
       <c r="G91" t="n">
+        <v>1.901133333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>1.8994</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>26150.3738</v>
       </c>
       <c r="G92" t="n">
+        <v>1.9018</v>
+      </c>
+      <c r="H92" t="n">
         <v>1.899233333333334</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>44291.9621</v>
       </c>
       <c r="G93" t="n">
+        <v>1.901466666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>1.899016666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>10207.8989</v>
       </c>
       <c r="G94" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H94" t="n">
         <v>1.89915</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>263.1251</v>
       </c>
       <c r="G95" t="n">
+        <v>1.900533333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>1.899416666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>164625.3311</v>
       </c>
       <c r="G96" t="n">
+        <v>1.899666666666666</v>
+      </c>
+      <c r="H96" t="n">
         <v>1.899166666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>27836.9116</v>
       </c>
       <c r="G97" t="n">
+        <v>1.897666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>1.898366666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>233761.93</v>
       </c>
       <c r="G98" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="H98" t="n">
         <v>1.898033333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>17819.1426</v>
       </c>
       <c r="G99" t="n">
+        <v>1.894533333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>1.897466666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>173087.0638</v>
       </c>
       <c r="G100" t="n">
+        <v>1.893066666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>1.897433333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>85395.8554</v>
       </c>
       <c r="G101" t="n">
+        <v>1.892333333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>1.897166666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>127656.8536</v>
       </c>
       <c r="G102" t="n">
+        <v>1.8916</v>
+      </c>
+      <c r="H102" t="n">
         <v>1.896733333333334</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>118388</v>
       </c>
       <c r="G103" t="n">
+        <v>1.890933333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>1.896316666666668</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>57504.1236</v>
       </c>
       <c r="G104" t="n">
+        <v>1.890066666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>1.895850000000001</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>52416.1212</v>
       </c>
       <c r="G105" t="n">
+        <v>1.889133333333334</v>
+      </c>
+      <c r="H105" t="n">
         <v>1.895283333333334</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>292808.4019</v>
       </c>
       <c r="G106" t="n">
+        <v>1.888200000000001</v>
+      </c>
+      <c r="H106" t="n">
         <v>1.894916666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,22 +4443,21 @@
         <v>19191.5565</v>
       </c>
       <c r="G107" t="n">
+        <v>1.887200000000001</v>
+      </c>
+      <c r="H107" t="n">
         <v>1.894483333333334</v>
       </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="K107" t="n">
-        <v>1.881</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,24 +4481,21 @@
         <v>21168.1718</v>
       </c>
       <c r="G108" t="n">
+        <v>1.886200000000001</v>
+      </c>
+      <c r="H108" t="n">
         <v>1.893983333333334</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4203,26 +4519,21 @@
         <v>574430.1048</v>
       </c>
       <c r="G109" t="n">
+        <v>1.885066666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>1.893550000000001</v>
       </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K109" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,26 +4557,21 @@
         <v>39886.5962</v>
       </c>
       <c r="G110" t="n">
+        <v>1.883266666666668</v>
+      </c>
+      <c r="H110" t="n">
         <v>1.893166666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="K110" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4289,26 +4595,21 @@
         <v>45728.5586</v>
       </c>
       <c r="G111" t="n">
+        <v>1.882066666666668</v>
+      </c>
+      <c r="H111" t="n">
         <v>1.892783333333334</v>
       </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="K111" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4332,26 +4633,21 @@
         <v>10255.2361</v>
       </c>
       <c r="G112" t="n">
+        <v>1.881466666666668</v>
+      </c>
+      <c r="H112" t="n">
         <v>1.892433333333334</v>
       </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="K112" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,26 +4671,21 @@
         <v>8455.7567</v>
       </c>
       <c r="G113" t="n">
+        <v>1.880400000000001</v>
+      </c>
+      <c r="H113" t="n">
         <v>1.892</v>
       </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="K113" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4418,26 +4709,21 @@
         <v>264.7123</v>
       </c>
       <c r="G114" t="n">
+        <v>1.880733333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>1.891883333333334</v>
       </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>1.874</v>
-      </c>
-      <c r="K114" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4461,26 +4747,21 @@
         <v>67081.9103</v>
       </c>
       <c r="G115" t="n">
+        <v>1.879733333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>1.891383333333334</v>
       </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K115" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,24 +4785,21 @@
         <v>20088.0939</v>
       </c>
       <c r="G116" t="n">
+        <v>1.878733333333334</v>
+      </c>
+      <c r="H116" t="n">
         <v>1.890916666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4545,24 +4823,21 @@
         <v>30987.6309</v>
       </c>
       <c r="G117" t="n">
+        <v>1.877733333333334</v>
+      </c>
+      <c r="H117" t="n">
         <v>1.890316666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4586,24 +4861,21 @@
         <v>21482.5903</v>
       </c>
       <c r="G118" t="n">
+        <v>1.876733333333334</v>
+      </c>
+      <c r="H118" t="n">
         <v>1.889866666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4627,24 +4899,27 @@
         <v>192016.419</v>
       </c>
       <c r="G119" t="n">
+        <v>1.875933333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>1.8894</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4668,24 +4943,27 @@
         <v>19731.3523</v>
       </c>
       <c r="G120" t="n">
+        <v>1.8768</v>
+      </c>
+      <c r="H120" t="n">
         <v>1.889333333333334</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4709,24 +4987,27 @@
         <v>75915.4905</v>
       </c>
       <c r="G121" t="n">
+        <v>1.877666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>1.889283333333334</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4750,24 +5031,25 @@
         <v>127539.8291</v>
       </c>
       <c r="G122" t="n">
+        <v>1.8786</v>
+      </c>
+      <c r="H122" t="n">
         <v>1.889366666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4791,24 +5073,25 @@
         <v>67339.8946</v>
       </c>
       <c r="G123" t="n">
+        <v>1.879533333333334</v>
+      </c>
+      <c r="H123" t="n">
         <v>1.889466666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4832,24 +5115,25 @@
         <v>65492.993</v>
       </c>
       <c r="G124" t="n">
+        <v>1.880666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>1.889283333333334</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4873,24 +5157,25 @@
         <v>169173.9569</v>
       </c>
       <c r="G125" t="n">
+        <v>1.881866666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>1.889366666666668</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4914,26 +5199,25 @@
         <v>220100.4811</v>
       </c>
       <c r="G126" t="n">
+        <v>1.883133333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>1.889500000000001</v>
       </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="K126" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4957,24 +5241,25 @@
         <v>122351.9998</v>
       </c>
       <c r="G127" t="n">
+        <v>1.884266666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>1.889600000000001</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,24 +5283,25 @@
         <v>357365.3113</v>
       </c>
       <c r="G128" t="n">
+        <v>1.884866666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>1.889550000000001</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5039,24 +5325,25 @@
         <v>6000</v>
       </c>
       <c r="G129" t="n">
+        <v>1.8844</v>
+      </c>
+      <c r="H129" t="n">
         <v>1.889483333333334</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5080,24 +5367,25 @@
         <v>20262.9192</v>
       </c>
       <c r="G130" t="n">
+        <v>1.886533333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>1.889733333333334</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5121,24 +5409,25 @@
         <v>73018.74249999999</v>
       </c>
       <c r="G131" t="n">
+        <v>1.888133333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>1.889833333333334</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5162,24 +5451,25 @@
         <v>2000</v>
       </c>
       <c r="G132" t="n">
+        <v>1.889066666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>1.889783333333334</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5203,24 +5493,25 @@
         <v>29585.2415</v>
       </c>
       <c r="G133" t="n">
+        <v>1.889933333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>1.889733333333334</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5244,24 +5535,25 @@
         <v>156201.6877</v>
       </c>
       <c r="G134" t="n">
+        <v>1.8912</v>
+      </c>
+      <c r="H134" t="n">
         <v>1.889533333333334</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5285,24 +5577,25 @@
         <v>498519.2179</v>
       </c>
       <c r="G135" t="n">
+        <v>1.8914</v>
+      </c>
+      <c r="H135" t="n">
         <v>1.889716666666668</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5326,24 +5619,25 @@
         <v>263.2525</v>
       </c>
       <c r="G136" t="n">
+        <v>1.8918</v>
+      </c>
+      <c r="H136" t="n">
         <v>1.889700000000001</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5367,24 +5661,25 @@
         <v>1000</v>
       </c>
       <c r="G137" t="n">
+        <v>1.891466666666666</v>
+      </c>
+      <c r="H137" t="n">
         <v>1.889766666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5408,24 +5703,25 @@
         <v>2000</v>
       </c>
       <c r="G138" t="n">
+        <v>1.891133333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>1.889583333333334</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5449,24 +5745,25 @@
         <v>48520.7584</v>
       </c>
       <c r="G139" t="n">
+        <v>1.8908</v>
+      </c>
+      <c r="H139" t="n">
         <v>1.889133333333334</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5490,24 +5787,25 @@
         <v>18064.5458</v>
       </c>
       <c r="G140" t="n">
+        <v>1.890466666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>1.889033333333334</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5531,24 +5829,25 @@
         <v>2000</v>
       </c>
       <c r="G141" t="n">
+        <v>1.890066666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>1.888733333333334</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5572,24 +5871,25 @@
         <v>8000</v>
       </c>
       <c r="G142" t="n">
+        <v>1.8898</v>
+      </c>
+      <c r="H142" t="n">
         <v>1.888300000000001</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5613,24 +5913,25 @@
         <v>4000</v>
       </c>
       <c r="G143" t="n">
+        <v>1.8902</v>
+      </c>
+      <c r="H143" t="n">
         <v>1.887866666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5654,24 +5955,25 @@
         <v>20521.4468</v>
       </c>
       <c r="G144" t="n">
+        <v>1.8906</v>
+      </c>
+      <c r="H144" t="n">
         <v>1.887566666666667</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5695,24 +5997,25 @@
         <v>2463.7668</v>
       </c>
       <c r="G145" t="n">
+        <v>1.890466666666666</v>
+      </c>
+      <c r="H145" t="n">
         <v>1.887450000000001</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5736,24 +6039,25 @@
         <v>4000</v>
       </c>
       <c r="G146" t="n">
+        <v>1.8902</v>
+      </c>
+      <c r="H146" t="n">
         <v>1.887350000000001</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5777,24 +6081,25 @@
         <v>2000</v>
       </c>
       <c r="G147" t="n">
+        <v>1.8906</v>
+      </c>
+      <c r="H147" t="n">
         <v>1.887250000000001</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5818,24 +6123,25 @@
         <v>23323.1986</v>
       </c>
       <c r="G148" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="H148" t="n">
         <v>1.887150000000001</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5859,24 +6165,25 @@
         <v>22889.1463</v>
       </c>
       <c r="G149" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="H149" t="n">
         <v>1.887050000000001</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5900,24 +6207,25 @@
         <v>4263.2525</v>
       </c>
       <c r="G150" t="n">
+        <v>1.890466666666666</v>
+      </c>
+      <c r="H150" t="n">
         <v>1.88695</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5941,24 +6249,25 @@
         <v>26457.0198</v>
       </c>
       <c r="G151" t="n">
+        <v>1.889733333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>1.88685</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5982,24 +6291,25 @@
         <v>20192.8208</v>
       </c>
       <c r="G152" t="n">
+        <v>1.889733333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>1.88675</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6023,24 +6333,25 @@
         <v>22077.5397</v>
       </c>
       <c r="G153" t="n">
+        <v>1.889733333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>1.88665</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6064,24 +6375,25 @@
         <v>33862.4631</v>
       </c>
       <c r="G154" t="n">
+        <v>1.889733333333333</v>
+      </c>
+      <c r="H154" t="n">
         <v>1.886566666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6105,24 +6417,25 @@
         <v>26606.8141</v>
       </c>
       <c r="G155" t="n">
+        <v>1.8898</v>
+      </c>
+      <c r="H155" t="n">
         <v>1.88635</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6146,24 +6459,25 @@
         <v>53692.6711</v>
       </c>
       <c r="G156" t="n">
+        <v>1.889866666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>1.886283333333334</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6187,24 +6501,25 @@
         <v>31150.5148</v>
       </c>
       <c r="G157" t="n">
+        <v>1.889933333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>1.886366666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6228,24 +6543,25 @@
         <v>1000</v>
       </c>
       <c r="G158" t="n">
+        <v>1.889333333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>1.8862</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6269,24 +6585,25 @@
         <v>25401.4858</v>
       </c>
       <c r="G159" t="n">
+        <v>1.8894</v>
+      </c>
+      <c r="H159" t="n">
         <v>1.886283333333333</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6310,24 +6627,25 @@
         <v>1000</v>
       </c>
       <c r="G160" t="n">
+        <v>1.888733333333334</v>
+      </c>
+      <c r="H160" t="n">
         <v>1.886366666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6351,24 +6669,25 @@
         <v>2000</v>
       </c>
       <c r="G161" t="n">
+        <v>1.8888</v>
+      </c>
+      <c r="H161" t="n">
         <v>1.886466666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6392,24 +6711,25 @@
         <v>25187.9656</v>
       </c>
       <c r="G162" t="n">
+        <v>1.888866666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>1.886566666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,24 +6753,25 @@
         <v>1640.5486</v>
       </c>
       <c r="G163" t="n">
+        <v>1.888933333333334</v>
+      </c>
+      <c r="H163" t="n">
         <v>1.88665</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6474,24 +6795,25 @@
         <v>45301.66</v>
       </c>
       <c r="G164" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="H164" t="n">
         <v>1.886783333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6515,24 +6837,25 @@
         <v>19801.3553</v>
       </c>
       <c r="G165" t="n">
+        <v>1.888600000000001</v>
+      </c>
+      <c r="H165" t="n">
         <v>1.886816666666666</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6556,24 +6879,25 @@
         <v>17230.1142</v>
       </c>
       <c r="G166" t="n">
+        <v>1.888200000000001</v>
+      </c>
+      <c r="H166" t="n">
         <v>1.886849999999999</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6597,24 +6921,25 @@
         <v>12415.027</v>
       </c>
       <c r="G167" t="n">
+        <v>1.887800000000001</v>
+      </c>
+      <c r="H167" t="n">
         <v>1.8869</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6638,24 +6963,25 @@
         <v>19159.7241</v>
       </c>
       <c r="G168" t="n">
+        <v>1.8874</v>
+      </c>
+      <c r="H168" t="n">
         <v>1.886949999999999</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6679,24 +7005,25 @@
         <v>24734.7957</v>
       </c>
       <c r="G169" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="H169" t="n">
         <v>1.887049999999999</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6720,26 +7047,25 @@
         <v>21002.2173</v>
       </c>
       <c r="G170" t="n">
+        <v>1.886533333333334</v>
+      </c>
+      <c r="H170" t="n">
         <v>1.887166666666666</v>
       </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="K170" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6763,24 +7089,25 @@
         <v>18325.7739</v>
       </c>
       <c r="G171" t="n">
+        <v>1.886066666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>1.887283333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6804,24 +7131,25 @@
         <v>35927.24</v>
       </c>
       <c r="G172" t="n">
+        <v>1.8856</v>
+      </c>
+      <c r="H172" t="n">
         <v>1.887399999999999</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6845,24 +7173,25 @@
         <v>25442.11</v>
       </c>
       <c r="G173" t="n">
+        <v>1.8858</v>
+      </c>
+      <c r="H173" t="n">
         <v>1.887549999999999</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6886,26 +7215,25 @@
         <v>35580.2922</v>
       </c>
       <c r="G174" t="n">
+        <v>1.885466666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>1.887466666666666</v>
       </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="K174" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6929,26 +7257,25 @@
         <v>18623.8989</v>
       </c>
       <c r="G175" t="n">
+        <v>1.885133333333334</v>
+      </c>
+      <c r="H175" t="n">
         <v>1.887716666666666</v>
       </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K175" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6972,24 +7299,25 @@
         <v>19434.5067</v>
       </c>
       <c r="G176" t="n">
+        <v>1.8848</v>
+      </c>
+      <c r="H176" t="n">
         <v>1.887983333333332</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7013,24 +7341,25 @@
         <v>49421.0964</v>
       </c>
       <c r="G177" t="n">
+        <v>1.884466666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>1.888249999999999</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7054,26 +7383,25 @@
         <v>23754.0985</v>
       </c>
       <c r="G178" t="n">
+        <v>1.884133333333334</v>
+      </c>
+      <c r="H178" t="n">
         <v>1.888499999999999</v>
       </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K178" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7097,26 +7425,25 @@
         <v>40339.0217</v>
       </c>
       <c r="G179" t="n">
+        <v>1.883800000000001</v>
+      </c>
+      <c r="H179" t="n">
         <v>1.888749999999999</v>
       </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K179" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7140,24 +7467,25 @@
         <v>24980.4039</v>
       </c>
       <c r="G180" t="n">
+        <v>1.883933333333334</v>
+      </c>
+      <c r="H180" t="n">
         <v>1.888599999999999</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7181,24 +7509,25 @@
         <v>19095.2027</v>
       </c>
       <c r="G181" t="n">
+        <v>1.884066666666668</v>
+      </c>
+      <c r="H181" t="n">
         <v>1.888449999999999</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7222,24 +7551,25 @@
         <v>44711.1704</v>
       </c>
       <c r="G182" t="n">
+        <v>1.884200000000001</v>
+      </c>
+      <c r="H182" t="n">
         <v>1.888299999999999</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7263,24 +7593,25 @@
         <v>60000</v>
       </c>
       <c r="G183" t="n">
+        <v>1.884200000000001</v>
+      </c>
+      <c r="H183" t="n">
         <v>1.888116666666666</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7304,24 +7635,25 @@
         <v>52891.8439</v>
       </c>
       <c r="G184" t="n">
+        <v>1.884200000000001</v>
+      </c>
+      <c r="H184" t="n">
         <v>1.887933333333332</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7345,24 +7677,25 @@
         <v>179418.0864</v>
       </c>
       <c r="G185" t="n">
+        <v>1.883933333333335</v>
+      </c>
+      <c r="H185" t="n">
         <v>1.887683333333332</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7386,24 +7719,25 @@
         <v>28117.2986</v>
       </c>
       <c r="G186" t="n">
+        <v>1.883666666666668</v>
+      </c>
+      <c r="H186" t="n">
         <v>1.887416666666666</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7427,24 +7761,25 @@
         <v>14302.226</v>
       </c>
       <c r="G187" t="n">
+        <v>1.884800000000001</v>
+      </c>
+      <c r="H187" t="n">
         <v>1.887533333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7468,24 +7803,25 @@
         <v>437999.2839</v>
       </c>
       <c r="G188" t="n">
+        <v>1.885600000000001</v>
+      </c>
+      <c r="H188" t="n">
         <v>1.887733333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7509,24 +7845,25 @@
         <v>424428.9704</v>
       </c>
       <c r="G189" t="n">
+        <v>1.885933333333335</v>
+      </c>
+      <c r="H189" t="n">
         <v>1.887849999999999</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7550,25 +7887,26 @@
         <v>144329.3116</v>
       </c>
       <c r="G190" t="n">
+        <v>1.885600000000001</v>
+      </c>
+      <c r="H190" t="n">
         <v>1.887483333333333</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>0.9944683678894205</v>
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -7591,18 +7929,25 @@
         <v>5507</v>
       </c>
       <c r="G191" t="n">
+        <v>1.885266666666668</v>
+      </c>
+      <c r="H191" t="n">
         <v>1.887266666666666</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
-        <v>1</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7626,18 +7971,25 @@
         <v>263963.5872</v>
       </c>
       <c r="G192" t="n">
+        <v>1.885600000000001</v>
+      </c>
+      <c r="H192" t="n">
         <v>1.887383333333333</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
-        <v>1</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7661,18 +8013,25 @@
         <v>399086.1759</v>
       </c>
       <c r="G193" t="n">
+        <v>1.885933333333334</v>
+      </c>
+      <c r="H193" t="n">
         <v>1.887499999999999</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7696,18 +8055,25 @@
         <v>138270.5356</v>
       </c>
       <c r="G194" t="n">
+        <v>1.885800000000001</v>
+      </c>
+      <c r="H194" t="n">
         <v>1.887399999999999</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7731,18 +8097,25 @@
         <v>2000</v>
       </c>
       <c r="G195" t="n">
+        <v>1.885666666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>1.887166666666666</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7766,18 +8139,25 @@
         <v>68764</v>
       </c>
       <c r="G196" t="n">
+        <v>1.8856</v>
+      </c>
+      <c r="H196" t="n">
         <v>1.886899999999999</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7801,18 +8181,445 @@
         <v>622040</v>
       </c>
       <c r="G197" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="H197" t="n">
         <v>1.886933333333332</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="F198" t="n">
+        <v>24311.123</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1.887133333333334</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1.887116666666666</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F199" t="n">
+        <v>35000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1.888266666666667</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1.8873</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="F200" t="n">
+        <v>22867.3772</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1.889066666666667</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1.887333333333333</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="F201" t="n">
+        <v>499691.5829</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1.8894</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1.88725</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1.888333333333333</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1.887166666666666</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="F203" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1.8876</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1.887083333333333</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="F204" t="n">
+        <v>42000</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1.8872</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F205" t="n">
+        <v>87460</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1.887466666666667</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1.886733333333333</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="F206" t="n">
+        <v>29260</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1.887466666666667</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1.886583333333333</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F207" t="n">
+        <v>740</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1.8868</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1.886433333333333</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-13 BackTest HYC.xlsx
+++ b/BackTest/2020-01-13 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N194"/>
+  <dimension ref="A1:N265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.905</v>
+        <v>1.925</v>
       </c>
       <c r="C2" t="n">
-        <v>1.905</v>
+        <v>1.926</v>
       </c>
       <c r="D2" t="n">
-        <v>1.905</v>
+        <v>1.926</v>
       </c>
       <c r="E2" t="n">
-        <v>1.905</v>
+        <v>1.925</v>
       </c>
       <c r="F2" t="n">
-        <v>58000</v>
+        <v>63216.7452</v>
       </c>
       <c r="G2" t="n">
-        <v>483007.6019999992</v>
+        <v>2115307.7452</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.905</v>
+        <v>1.926</v>
       </c>
       <c r="C3" t="n">
-        <v>1.905</v>
+        <v>1.925</v>
       </c>
       <c r="D3" t="n">
-        <v>1.905</v>
+        <v>1.926</v>
       </c>
       <c r="E3" t="n">
-        <v>1.905</v>
+        <v>1.925</v>
       </c>
       <c r="F3" t="n">
-        <v>6000</v>
+        <v>228392.49</v>
       </c>
       <c r="G3" t="n">
-        <v>483007.6019999992</v>
+        <v>1886915.2552</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.901</v>
+        <v>1.927</v>
       </c>
       <c r="C4" t="n">
-        <v>1.901</v>
+        <v>1.93</v>
       </c>
       <c r="D4" t="n">
-        <v>1.901</v>
+        <v>1.93</v>
       </c>
       <c r="E4" t="n">
-        <v>1.901</v>
+        <v>1.92</v>
       </c>
       <c r="F4" t="n">
-        <v>22075</v>
+        <v>480551.0984</v>
       </c>
       <c r="G4" t="n">
-        <v>460932.6019999992</v>
+        <v>2367466.3536</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.901</v>
+        <v>1.912</v>
       </c>
       <c r="C5" t="n">
-        <v>1.901</v>
+        <v>1.912</v>
       </c>
       <c r="D5" t="n">
-        <v>1.901</v>
+        <v>1.912</v>
       </c>
       <c r="E5" t="n">
-        <v>1.901</v>
+        <v>1.912</v>
       </c>
       <c r="F5" t="n">
-        <v>454025</v>
+        <v>28809.7738</v>
       </c>
       <c r="G5" t="n">
-        <v>460932.6019999992</v>
+        <v>2338656.5798</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.901</v>
+        <v>1.912</v>
       </c>
       <c r="C6" t="n">
-        <v>1.901</v>
+        <v>1.91</v>
       </c>
       <c r="D6" t="n">
-        <v>1.901</v>
+        <v>1.912</v>
       </c>
       <c r="E6" t="n">
-        <v>1.901</v>
+        <v>1.91</v>
       </c>
       <c r="F6" t="n">
-        <v>3578.4124</v>
+        <v>19242.4994</v>
       </c>
       <c r="G6" t="n">
-        <v>460932.6019999992</v>
+        <v>2319414.0804</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.901</v>
+        <v>1.92</v>
       </c>
       <c r="C7" t="n">
-        <v>1.901</v>
+        <v>1.92</v>
       </c>
       <c r="D7" t="n">
-        <v>1.901</v>
+        <v>1.92</v>
       </c>
       <c r="E7" t="n">
-        <v>1.901</v>
+        <v>1.92</v>
       </c>
       <c r="F7" t="n">
-        <v>47000.8</v>
+        <v>259</v>
       </c>
       <c r="G7" t="n">
-        <v>460932.6019999992</v>
+        <v>2319673.0804</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.901</v>
+        <v>1.913</v>
       </c>
       <c r="C8" t="n">
-        <v>1.891</v>
+        <v>1.913</v>
       </c>
       <c r="D8" t="n">
-        <v>1.901</v>
+        <v>1.913</v>
       </c>
       <c r="E8" t="n">
-        <v>1.885</v>
+        <v>1.913</v>
       </c>
       <c r="F8" t="n">
-        <v>381921.2342</v>
+        <v>23205.9641</v>
       </c>
       <c r="G8" t="n">
-        <v>79011.36779999919</v>
+        <v>2296467.1163</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.885</v>
+        <v>1.92</v>
       </c>
       <c r="C9" t="n">
-        <v>1.885</v>
+        <v>1.92</v>
       </c>
       <c r="D9" t="n">
-        <v>1.885</v>
+        <v>1.92</v>
       </c>
       <c r="E9" t="n">
-        <v>1.885</v>
+        <v>1.92</v>
       </c>
       <c r="F9" t="n">
-        <v>90317.61870000001</v>
+        <v>256</v>
       </c>
       <c r="G9" t="n">
-        <v>-11306.25090000081</v>
+        <v>2296723.1163</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.885</v>
+        <v>1.915</v>
       </c>
       <c r="C10" t="n">
-        <v>1.885</v>
+        <v>1.915</v>
       </c>
       <c r="D10" t="n">
-        <v>1.885</v>
+        <v>1.915</v>
       </c>
       <c r="E10" t="n">
-        <v>1.885</v>
+        <v>1.915</v>
       </c>
       <c r="F10" t="n">
-        <v>163000.6704</v>
+        <v>32238.6745</v>
       </c>
       <c r="G10" t="n">
-        <v>-11306.25090000081</v>
+        <v>2264484.4418</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.885</v>
+        <v>1.915</v>
       </c>
       <c r="C11" t="n">
-        <v>1.885</v>
+        <v>1.915</v>
       </c>
       <c r="D11" t="n">
-        <v>1.885</v>
+        <v>1.915</v>
       </c>
       <c r="E11" t="n">
-        <v>1.885</v>
+        <v>1.915</v>
       </c>
       <c r="F11" t="n">
-        <v>361677.742</v>
+        <v>22138.4922</v>
       </c>
       <c r="G11" t="n">
-        <v>-11306.25090000081</v>
+        <v>2264484.4418</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.9</v>
+        <v>1.915</v>
       </c>
       <c r="C12" t="n">
-        <v>1.9</v>
+        <v>1.915</v>
       </c>
       <c r="D12" t="n">
-        <v>1.9</v>
+        <v>1.915</v>
       </c>
       <c r="E12" t="n">
-        <v>1.9</v>
+        <v>1.915</v>
       </c>
       <c r="F12" t="n">
-        <v>26105.0357</v>
+        <v>29481.0275</v>
       </c>
       <c r="G12" t="n">
-        <v>14798.78479999919</v>
+        <v>2264484.4418</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="C13" t="n">
-        <v>1.886</v>
+        <v>1.92</v>
       </c>
       <c r="D13" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="E13" t="n">
-        <v>1.886</v>
+        <v>1.92</v>
       </c>
       <c r="F13" t="n">
-        <v>290306.6406</v>
+        <v>252</v>
       </c>
       <c r="G13" t="n">
-        <v>-275507.8558000008</v>
+        <v>2264736.4418</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.885</v>
+        <v>1.92</v>
       </c>
       <c r="C14" t="n">
-        <v>1.885</v>
+        <v>1.92</v>
       </c>
       <c r="D14" t="n">
-        <v>1.885</v>
+        <v>1.92</v>
       </c>
       <c r="E14" t="n">
-        <v>1.885</v>
+        <v>1.92</v>
       </c>
       <c r="F14" t="n">
-        <v>53854.35</v>
+        <v>18425.2732</v>
       </c>
       <c r="G14" t="n">
-        <v>-329362.2058000008</v>
+        <v>2264736.4418</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.886</v>
+        <v>1.92</v>
       </c>
       <c r="C15" t="n">
-        <v>1.886</v>
+        <v>1.92</v>
       </c>
       <c r="D15" t="n">
-        <v>1.886</v>
+        <v>1.92</v>
       </c>
       <c r="E15" t="n">
-        <v>1.886</v>
+        <v>1.92</v>
       </c>
       <c r="F15" t="n">
-        <v>37345.1948</v>
+        <v>25470.9801</v>
       </c>
       <c r="G15" t="n">
-        <v>-292017.0110000008</v>
+        <v>2264736.4418</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.906</v>
+        <v>1.927</v>
       </c>
       <c r="C16" t="n">
-        <v>1.906</v>
+        <v>1.92</v>
       </c>
       <c r="D16" t="n">
-        <v>1.906</v>
+        <v>1.927</v>
       </c>
       <c r="E16" t="n">
-        <v>1.906</v>
+        <v>1.92</v>
       </c>
       <c r="F16" t="n">
-        <v>261</v>
+        <v>235899.4374</v>
       </c>
       <c r="G16" t="n">
-        <v>-291756.0110000008</v>
+        <v>2264736.4418</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.885</v>
+        <v>1.92</v>
       </c>
       <c r="C17" t="n">
-        <v>1.886</v>
+        <v>1.92</v>
       </c>
       <c r="D17" t="n">
-        <v>1.886</v>
+        <v>1.92</v>
       </c>
       <c r="E17" t="n">
-        <v>1.885</v>
+        <v>1.92</v>
       </c>
       <c r="F17" t="n">
-        <v>331764.363</v>
+        <v>15807.5259</v>
       </c>
       <c r="G17" t="n">
-        <v>-623520.3740000008</v>
+        <v>2264736.4418</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.885</v>
+        <v>1.921</v>
       </c>
       <c r="C18" t="n">
-        <v>1.885</v>
+        <v>1.921</v>
       </c>
       <c r="D18" t="n">
-        <v>1.885</v>
+        <v>1.927</v>
       </c>
       <c r="E18" t="n">
-        <v>1.885</v>
+        <v>1.921</v>
       </c>
       <c r="F18" t="n">
-        <v>75803.64999999999</v>
+        <v>124025.8533</v>
       </c>
       <c r="G18" t="n">
-        <v>-699324.0240000008</v>
+        <v>2388762.2951</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.905</v>
+        <v>1.921</v>
       </c>
       <c r="C19" t="n">
-        <v>1.905</v>
+        <v>1.921</v>
       </c>
       <c r="D19" t="n">
-        <v>1.905</v>
+        <v>1.921</v>
       </c>
       <c r="E19" t="n">
-        <v>1.905</v>
+        <v>1.921</v>
       </c>
       <c r="F19" t="n">
-        <v>3898.3753</v>
+        <v>23743.7167</v>
       </c>
       <c r="G19" t="n">
-        <v>-695425.6487000008</v>
+        <v>2388762.2951</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.908</v>
+        <v>1.921</v>
       </c>
       <c r="C20" t="n">
-        <v>1.908</v>
+        <v>1.921</v>
       </c>
       <c r="D20" t="n">
-        <v>1.908</v>
+        <v>1.921</v>
       </c>
       <c r="E20" t="n">
-        <v>1.908</v>
+        <v>1.921</v>
       </c>
       <c r="F20" t="n">
-        <v>1191.299790356</v>
+        <v>35677.206</v>
       </c>
       <c r="G20" t="n">
-        <v>-694234.3489096449</v>
+        <v>2388762.2951</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.901</v>
+        <v>1.921</v>
       </c>
       <c r="C21" t="n">
-        <v>1.886</v>
+        <v>1.921</v>
       </c>
       <c r="D21" t="n">
-        <v>1.901</v>
+        <v>1.921</v>
       </c>
       <c r="E21" t="n">
-        <v>1.886</v>
+        <v>1.921</v>
       </c>
       <c r="F21" t="n">
-        <v>560</v>
+        <v>168943.1966</v>
       </c>
       <c r="G21" t="n">
-        <v>-694794.3489096449</v>
+        <v>2388762.2951</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.887</v>
+        <v>1.927</v>
       </c>
       <c r="C22" t="n">
-        <v>1.887</v>
+        <v>1.927</v>
       </c>
       <c r="D22" t="n">
-        <v>1.904</v>
+        <v>1.927</v>
       </c>
       <c r="E22" t="n">
-        <v>1.887</v>
+        <v>1.927</v>
       </c>
       <c r="F22" t="n">
-        <v>61563.2561</v>
+        <v>259.4707</v>
       </c>
       <c r="G22" t="n">
-        <v>-633231.0928096449</v>
+        <v>2389021.7658</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.909</v>
+        <v>1.921</v>
       </c>
       <c r="C23" t="n">
-        <v>1.909</v>
+        <v>1.921</v>
       </c>
       <c r="D23" t="n">
-        <v>1.909</v>
+        <v>1.921</v>
       </c>
       <c r="E23" t="n">
-        <v>1.909</v>
+        <v>1.921</v>
       </c>
       <c r="F23" t="n">
-        <v>717.6004</v>
+        <v>35806.3168</v>
       </c>
       <c r="G23" t="n">
-        <v>-632513.4924096449</v>
+        <v>2353215.449</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.909</v>
+        <v>1.921</v>
       </c>
       <c r="C24" t="n">
-        <v>1.933</v>
+        <v>1.921</v>
       </c>
       <c r="D24" t="n">
-        <v>1.933</v>
+        <v>1.921</v>
       </c>
       <c r="E24" t="n">
-        <v>1.909</v>
+        <v>1.921</v>
       </c>
       <c r="F24" t="n">
-        <v>758246.166968546</v>
+        <v>500780.311</v>
       </c>
       <c r="G24" t="n">
-        <v>125732.6745589011</v>
+        <v>2353215.449</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.91</v>
+        <v>1.921</v>
       </c>
       <c r="C25" t="n">
-        <v>1.91</v>
+        <v>1.921</v>
       </c>
       <c r="D25" t="n">
-        <v>1.91</v>
+        <v>1.921</v>
       </c>
       <c r="E25" t="n">
-        <v>1.91</v>
+        <v>1.921</v>
       </c>
       <c r="F25" t="n">
-        <v>34501.3847</v>
+        <v>199786.806</v>
       </c>
       <c r="G25" t="n">
-        <v>91231.28985890112</v>
+        <v>2353215.449</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="C26" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="D26" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="E26" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="F26" t="n">
-        <v>59140.6439</v>
+        <v>19809.5285</v>
       </c>
       <c r="G26" t="n">
-        <v>150371.9337589011</v>
+        <v>2333405.9205</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="C27" t="n">
-        <v>1.887</v>
+        <v>1.92</v>
       </c>
       <c r="D27" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="E27" t="n">
-        <v>1.887</v>
+        <v>1.92</v>
       </c>
       <c r="F27" t="n">
-        <v>758246.1669</v>
+        <v>17770.5029</v>
       </c>
       <c r="G27" t="n">
-        <v>-607874.2331410989</v>
+        <v>2333405.9205</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="C28" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="D28" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="E28" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="F28" t="n">
-        <v>8256.154699999999</v>
+        <v>131007.6727</v>
       </c>
       <c r="G28" t="n">
-        <v>-599618.0784410989</v>
+        <v>2333405.9205</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="C29" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="D29" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="E29" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="F29" t="n">
-        <v>259</v>
+        <v>509972.56</v>
       </c>
       <c r="G29" t="n">
-        <v>-599359.0784410989</v>
+        <v>1823433.360499999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="C30" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="D30" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="E30" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="F30" t="n">
-        <v>13078.4104</v>
+        <v>22485.1553</v>
       </c>
       <c r="G30" t="n">
-        <v>-599359.0784410989</v>
+        <v>1823433.360499999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="C31" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="D31" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="E31" t="n">
-        <v>1.888</v>
+        <v>1.915</v>
       </c>
       <c r="F31" t="n">
-        <v>839186.8663</v>
+        <v>20262.9323</v>
       </c>
       <c r="G31" t="n">
-        <v>-599359.0784410989</v>
+        <v>1823433.360499999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,7 +1518,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="C32" t="n">
         <v>1.915</v>
@@ -1527,19 +1527,19 @@
         <v>1.915</v>
       </c>
       <c r="E32" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="F32" t="n">
-        <v>22440.7266</v>
+        <v>673934.4557</v>
       </c>
       <c r="G32" t="n">
-        <v>-576918.3518410989</v>
+        <v>1823433.360499999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1557,25 +1557,25 @@
         <v>1.915</v>
       </c>
       <c r="C33" t="n">
-        <v>1.903</v>
+        <v>1.913</v>
       </c>
       <c r="D33" t="n">
         <v>1.915</v>
       </c>
       <c r="E33" t="n">
-        <v>1.903</v>
+        <v>1.913</v>
       </c>
       <c r="F33" t="n">
-        <v>45983.3921</v>
+        <v>48092.7228</v>
       </c>
       <c r="G33" t="n">
-        <v>-622901.7439410989</v>
+        <v>1775340.637699999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.906</v>
+        <v>1.92</v>
       </c>
       <c r="C34" t="n">
-        <v>1.906</v>
+        <v>1.92</v>
       </c>
       <c r="D34" t="n">
-        <v>1.906</v>
+        <v>1.92</v>
       </c>
       <c r="E34" t="n">
-        <v>1.906</v>
+        <v>1.92</v>
       </c>
       <c r="F34" t="n">
-        <v>263.015</v>
+        <v>25650.5337</v>
       </c>
       <c r="G34" t="n">
-        <v>-622638.7289410989</v>
+        <v>1800991.171399999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="C35" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="D35" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="E35" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7712</v>
+        <v>17724.3172</v>
       </c>
       <c r="G35" t="n">
-        <v>-622375.9577410989</v>
+        <v>1800991.171399999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.903</v>
+        <v>1.92</v>
       </c>
       <c r="C36" t="n">
-        <v>1.903</v>
+        <v>1.92</v>
       </c>
       <c r="D36" t="n">
-        <v>1.903</v>
+        <v>1.92</v>
       </c>
       <c r="E36" t="n">
-        <v>1.903</v>
+        <v>1.92</v>
       </c>
       <c r="F36" t="n">
-        <v>22691.8075</v>
+        <v>22433.7301</v>
       </c>
       <c r="G36" t="n">
-        <v>-645067.7652410989</v>
+        <v>1800991.171399999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.899</v>
+        <v>1.92</v>
       </c>
       <c r="C37" t="n">
-        <v>1.899</v>
+        <v>1.92</v>
       </c>
       <c r="D37" t="n">
-        <v>1.899</v>
+        <v>1.92</v>
       </c>
       <c r="E37" t="n">
-        <v>1.899</v>
+        <v>1.92</v>
       </c>
       <c r="F37" t="n">
-        <v>18839.6518</v>
+        <v>17043.8976</v>
       </c>
       <c r="G37" t="n">
-        <v>-663907.4170410989</v>
+        <v>1800991.171399999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.899</v>
+        <v>1.92</v>
       </c>
       <c r="C38" t="n">
-        <v>1.899</v>
+        <v>1.92</v>
       </c>
       <c r="D38" t="n">
-        <v>1.899</v>
+        <v>1.92</v>
       </c>
       <c r="E38" t="n">
-        <v>1.899</v>
+        <v>1.92</v>
       </c>
       <c r="F38" t="n">
-        <v>22435.7307</v>
+        <v>16819.0457</v>
       </c>
       <c r="G38" t="n">
-        <v>-663907.4170410989</v>
+        <v>1800991.171399999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.897</v>
+        <v>1.92</v>
       </c>
       <c r="C39" t="n">
-        <v>1.897</v>
+        <v>1.92</v>
       </c>
       <c r="D39" t="n">
-        <v>1.897</v>
+        <v>1.92</v>
       </c>
       <c r="E39" t="n">
-        <v>1.897</v>
+        <v>1.92</v>
       </c>
       <c r="F39" t="n">
-        <v>911.7043</v>
+        <v>29661.8985</v>
       </c>
       <c r="G39" t="n">
-        <v>-664819.1213410989</v>
+        <v>1800991.171399999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.897</v>
+        <v>1.92</v>
       </c>
       <c r="C40" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="D40" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="E40" t="n">
-        <v>1.897</v>
+        <v>1.92</v>
       </c>
       <c r="F40" t="n">
-        <v>60391.7025</v>
+        <v>18942.277</v>
       </c>
       <c r="G40" t="n">
-        <v>-604427.4188410989</v>
+        <v>1800991.171399999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.897</v>
+        <v>1.92</v>
       </c>
       <c r="C41" t="n">
-        <v>1.897</v>
+        <v>1.92</v>
       </c>
       <c r="D41" t="n">
-        <v>1.897</v>
+        <v>1.92</v>
       </c>
       <c r="E41" t="n">
-        <v>1.897</v>
+        <v>1.92</v>
       </c>
       <c r="F41" t="n">
-        <v>64874.2691</v>
+        <v>53902.8984</v>
       </c>
       <c r="G41" t="n">
-        <v>-669301.6879410989</v>
+        <v>1800991.171399999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="C42" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="D42" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="E42" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="F42" t="n">
-        <v>26990.097</v>
+        <v>20650.4711</v>
       </c>
       <c r="G42" t="n">
-        <v>-642311.590941099</v>
+        <v>1800991.171399999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="C43" t="n">
-        <v>1.897</v>
+        <v>1.92</v>
       </c>
       <c r="D43" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="E43" t="n">
-        <v>1.897</v>
+        <v>1.92</v>
       </c>
       <c r="F43" t="n">
-        <v>44564.281</v>
+        <v>44925.8016</v>
       </c>
       <c r="G43" t="n">
-        <v>-686875.8719410989</v>
+        <v>1800991.171399999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.897</v>
+        <v>1.92</v>
       </c>
       <c r="C44" t="n">
-        <v>1.905</v>
+        <v>1.92</v>
       </c>
       <c r="D44" t="n">
-        <v>1.905</v>
+        <v>1.92</v>
       </c>
       <c r="E44" t="n">
-        <v>1.897</v>
+        <v>1.92</v>
       </c>
       <c r="F44" t="n">
-        <v>112397.284</v>
+        <v>19308.7421</v>
       </c>
       <c r="G44" t="n">
-        <v>-574478.587941099</v>
+        <v>1800991.171399999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.897</v>
+        <v>1.915</v>
       </c>
       <c r="C45" t="n">
-        <v>1.897</v>
+        <v>1.915</v>
       </c>
       <c r="D45" t="n">
-        <v>1.897</v>
+        <v>1.915</v>
       </c>
       <c r="E45" t="n">
-        <v>1.897</v>
+        <v>1.915</v>
       </c>
       <c r="F45" t="n">
-        <v>10391.1567</v>
+        <v>19404.6312</v>
       </c>
       <c r="G45" t="n">
-        <v>-584869.744641099</v>
+        <v>1781586.540199999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.898</v>
+        <v>1.915</v>
       </c>
       <c r="C46" t="n">
-        <v>1.898</v>
+        <v>1.906</v>
       </c>
       <c r="D46" t="n">
-        <v>1.898</v>
+        <v>1.915</v>
       </c>
       <c r="E46" t="n">
-        <v>1.898</v>
+        <v>1.906</v>
       </c>
       <c r="F46" t="n">
-        <v>13798.1129</v>
+        <v>87585.74159999999</v>
       </c>
       <c r="G46" t="n">
-        <v>-571071.6317410991</v>
+        <v>1694000.798599999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.898</v>
+        <v>1.915</v>
       </c>
       <c r="C47" t="n">
-        <v>1.898</v>
+        <v>1.915</v>
       </c>
       <c r="D47" t="n">
-        <v>1.898</v>
+        <v>1.915</v>
       </c>
       <c r="E47" t="n">
-        <v>1.898</v>
+        <v>1.915</v>
       </c>
       <c r="F47" t="n">
-        <v>15630</v>
+        <v>90029.9999</v>
       </c>
       <c r="G47" t="n">
-        <v>-571071.6317410991</v>
+        <v>1784030.798499999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.898</v>
+        <v>1.915</v>
       </c>
       <c r="C48" t="n">
-        <v>1.897</v>
+        <v>1.915</v>
       </c>
       <c r="D48" t="n">
-        <v>1.898</v>
+        <v>1.915</v>
       </c>
       <c r="E48" t="n">
-        <v>1.897</v>
+        <v>1.906</v>
       </c>
       <c r="F48" t="n">
-        <v>35499.4488</v>
+        <v>74404.5276</v>
       </c>
       <c r="G48" t="n">
-        <v>-606571.0805410991</v>
+        <v>1784030.798499999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.889</v>
+        <v>1.92</v>
       </c>
       <c r="C49" t="n">
-        <v>1.889</v>
+        <v>1.92</v>
       </c>
       <c r="D49" t="n">
-        <v>1.889</v>
+        <v>1.92</v>
       </c>
       <c r="E49" t="n">
-        <v>1.889</v>
+        <v>1.92</v>
       </c>
       <c r="F49" t="n">
-        <v>147463.6631</v>
+        <v>23841.1494</v>
       </c>
       <c r="G49" t="n">
-        <v>-754034.7436410991</v>
+        <v>1807871.947899999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.888</v>
+        <v>1.915</v>
       </c>
       <c r="C50" t="n">
-        <v>1.888</v>
+        <v>1.915</v>
       </c>
       <c r="D50" t="n">
-        <v>1.888</v>
+        <v>1.915</v>
       </c>
       <c r="E50" t="n">
-        <v>1.888</v>
+        <v>1.906</v>
       </c>
       <c r="F50" t="n">
-        <v>50000</v>
+        <v>62529.3729</v>
       </c>
       <c r="G50" t="n">
-        <v>-804034.7436410991</v>
+        <v>1745342.574999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.905</v>
+        <v>1.92</v>
       </c>
       <c r="C51" t="n">
-        <v>1.905</v>
+        <v>1.92</v>
       </c>
       <c r="D51" t="n">
-        <v>1.905</v>
+        <v>1.92</v>
       </c>
       <c r="E51" t="n">
-        <v>1.905</v>
+        <v>1.92</v>
       </c>
       <c r="F51" t="n">
-        <v>262.6124</v>
+        <v>101549.4145</v>
       </c>
       <c r="G51" t="n">
-        <v>-803772.1312410991</v>
+        <v>1846891.989499999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.89</v>
+        <v>1.917</v>
       </c>
       <c r="C52" t="n">
-        <v>1.889</v>
+        <v>1.917</v>
       </c>
       <c r="D52" t="n">
-        <v>1.89</v>
+        <v>1.917</v>
       </c>
       <c r="E52" t="n">
-        <v>1.889</v>
+        <v>1.917</v>
       </c>
       <c r="F52" t="n">
-        <v>816377.9518</v>
+        <v>96550</v>
       </c>
       <c r="G52" t="n">
-        <v>-1620150.083041099</v>
+        <v>1750341.989499999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.887</v>
+        <v>1.917</v>
       </c>
       <c r="C53" t="n">
-        <v>1.887</v>
+        <v>1.917</v>
       </c>
       <c r="D53" t="n">
-        <v>1.887</v>
+        <v>1.917</v>
       </c>
       <c r="E53" t="n">
-        <v>1.887</v>
+        <v>1.917</v>
       </c>
       <c r="F53" t="n">
-        <v>178592.7937</v>
+        <v>46134.2307</v>
       </c>
       <c r="G53" t="n">
-        <v>-1798742.876741099</v>
+        <v>1750341.989499999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.887</v>
+        <v>1.917</v>
       </c>
       <c r="C54" t="n">
-        <v>1.887</v>
+        <v>1.907</v>
       </c>
       <c r="D54" t="n">
-        <v>1.887</v>
+        <v>1.917</v>
       </c>
       <c r="E54" t="n">
-        <v>1.887</v>
+        <v>1.907</v>
       </c>
       <c r="F54" t="n">
-        <v>5060.1847</v>
+        <v>200050.2193</v>
       </c>
       <c r="G54" t="n">
-        <v>-1798742.876741099</v>
+        <v>1550291.770199999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.886</v>
+        <v>1.907</v>
       </c>
       <c r="C55" t="n">
-        <v>1.886</v>
+        <v>1.906</v>
       </c>
       <c r="D55" t="n">
-        <v>1.886</v>
+        <v>1.907</v>
       </c>
       <c r="E55" t="n">
-        <v>1.886</v>
+        <v>1.906</v>
       </c>
       <c r="F55" t="n">
-        <v>17480.8251</v>
+        <v>28241.7659</v>
       </c>
       <c r="G55" t="n">
-        <v>-1816223.701841099</v>
+        <v>1522050.004299999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.887</v>
+        <v>1.906</v>
       </c>
       <c r="C56" t="n">
-        <v>1.887</v>
+        <v>1.906</v>
       </c>
       <c r="D56" t="n">
-        <v>1.887</v>
+        <v>1.906</v>
       </c>
       <c r="E56" t="n">
-        <v>1.887</v>
+        <v>1.906</v>
       </c>
       <c r="F56" t="n">
-        <v>48725.2327</v>
+        <v>48026.4972</v>
       </c>
       <c r="G56" t="n">
-        <v>-1767498.469141099</v>
+        <v>1522050.004299999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.887</v>
+        <v>1.906</v>
       </c>
       <c r="C57" t="n">
-        <v>1.887</v>
+        <v>1.906</v>
       </c>
       <c r="D57" t="n">
-        <v>1.887</v>
+        <v>1.906</v>
       </c>
       <c r="E57" t="n">
-        <v>1.887</v>
+        <v>1.906</v>
       </c>
       <c r="F57" t="n">
-        <v>123317.1003</v>
+        <v>20360.4465</v>
       </c>
       <c r="G57" t="n">
-        <v>-1767498.469141099</v>
+        <v>1522050.004299999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.887</v>
+        <v>1.92</v>
       </c>
       <c r="C58" t="n">
-        <v>1.887</v>
+        <v>1.92</v>
       </c>
       <c r="D58" t="n">
-        <v>1.887</v>
+        <v>1.92</v>
       </c>
       <c r="E58" t="n">
-        <v>1.887</v>
+        <v>1.92</v>
       </c>
       <c r="F58" t="n">
-        <v>17168.0417</v>
+        <v>0.0001</v>
       </c>
       <c r="G58" t="n">
-        <v>-1767498.469141099</v>
+        <v>1522050.004399999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.886</v>
+        <v>1.92</v>
       </c>
       <c r="C59" t="n">
-        <v>1.886</v>
+        <v>1.92</v>
       </c>
       <c r="D59" t="n">
-        <v>1.886</v>
+        <v>1.92</v>
       </c>
       <c r="E59" t="n">
-        <v>1.886</v>
+        <v>1.92</v>
       </c>
       <c r="F59" t="n">
-        <v>283372.0165</v>
+        <v>16619.9735</v>
       </c>
       <c r="G59" t="n">
-        <v>-2050870.485641099</v>
+        <v>1522050.004399999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.886</v>
+        <v>1.92</v>
       </c>
       <c r="C60" t="n">
-        <v>1.886</v>
+        <v>1.92</v>
       </c>
       <c r="D60" t="n">
-        <v>1.886</v>
+        <v>1.92</v>
       </c>
       <c r="E60" t="n">
-        <v>1.886</v>
+        <v>1.92</v>
       </c>
       <c r="F60" t="n">
-        <v>2368.4806</v>
+        <v>6118.8621</v>
       </c>
       <c r="G60" t="n">
-        <v>-2050870.485641099</v>
+        <v>1522050.004399999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.901</v>
+        <v>1.919</v>
       </c>
       <c r="C61" t="n">
-        <v>1.901</v>
+        <v>1.919</v>
       </c>
       <c r="D61" t="n">
-        <v>1.901</v>
+        <v>1.919</v>
       </c>
       <c r="E61" t="n">
-        <v>1.901</v>
+        <v>1.919</v>
       </c>
       <c r="F61" t="n">
-        <v>263</v>
+        <v>20360.447</v>
       </c>
       <c r="G61" t="n">
-        <v>-2050607.485641099</v>
+        <v>1501689.557399999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.886</v>
+        <v>1.919</v>
       </c>
       <c r="C62" t="n">
-        <v>1.886</v>
+        <v>1.919</v>
       </c>
       <c r="D62" t="n">
-        <v>1.886</v>
+        <v>1.919</v>
       </c>
       <c r="E62" t="n">
-        <v>1.886</v>
+        <v>1.919</v>
       </c>
       <c r="F62" t="n">
-        <v>77804.11440000001</v>
+        <v>8661.0327</v>
       </c>
       <c r="G62" t="n">
-        <v>-2128411.600041099</v>
+        <v>1501689.557399999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.901</v>
+        <v>1.919</v>
       </c>
       <c r="C63" t="n">
-        <v>1.901</v>
+        <v>1.919</v>
       </c>
       <c r="D63" t="n">
-        <v>1.901</v>
+        <v>1.919</v>
       </c>
       <c r="E63" t="n">
-        <v>1.901</v>
+        <v>1.919</v>
       </c>
       <c r="F63" t="n">
-        <v>262</v>
+        <v>20978.5203</v>
       </c>
       <c r="G63" t="n">
-        <v>-2128149.600041099</v>
+        <v>1501689.557399999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.886</v>
+        <v>1.915</v>
       </c>
       <c r="C64" t="n">
-        <v>1.885</v>
+        <v>1.915</v>
       </c>
       <c r="D64" t="n">
-        <v>1.886</v>
+        <v>1.915</v>
       </c>
       <c r="E64" t="n">
-        <v>1.885</v>
+        <v>1.915</v>
       </c>
       <c r="F64" t="n">
-        <v>171022.8605</v>
+        <v>20360</v>
       </c>
       <c r="G64" t="n">
-        <v>-2299172.460541099</v>
+        <v>1481329.557399999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.9</v>
+        <v>1.919</v>
       </c>
       <c r="C65" t="n">
-        <v>1.9</v>
+        <v>1.919</v>
       </c>
       <c r="D65" t="n">
-        <v>1.903</v>
+        <v>1.919</v>
       </c>
       <c r="E65" t="n">
-        <v>1.9</v>
+        <v>1.919</v>
       </c>
       <c r="F65" t="n">
-        <v>529917.0606</v>
+        <v>62253.3094</v>
       </c>
       <c r="G65" t="n">
-        <v>-1769255.399941099</v>
+        <v>1543582.866799999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.9</v>
+        <v>1.915</v>
       </c>
       <c r="C66" t="n">
-        <v>1.916</v>
+        <v>1.915</v>
       </c>
       <c r="D66" t="n">
-        <v>1.919</v>
+        <v>1.915</v>
       </c>
       <c r="E66" t="n">
-        <v>1.9</v>
+        <v>1.915</v>
       </c>
       <c r="F66" t="n">
-        <v>1280782.6143</v>
+        <v>29290</v>
       </c>
       <c r="G66" t="n">
-        <v>-488472.7856410989</v>
+        <v>1514292.866799999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.895</v>
+        <v>1.916</v>
       </c>
       <c r="C67" t="n">
-        <v>1.895</v>
+        <v>1.916</v>
       </c>
       <c r="D67" t="n">
-        <v>1.895</v>
+        <v>1.916</v>
       </c>
       <c r="E67" t="n">
-        <v>1.895</v>
+        <v>1.916</v>
       </c>
       <c r="F67" t="n">
-        <v>51652.2207</v>
+        <v>78633.02469999999</v>
       </c>
       <c r="G67" t="n">
-        <v>-540125.0063410988</v>
+        <v>1592925.891499999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2817,19 +2817,19 @@
         <v>1.907</v>
       </c>
       <c r="C68" t="n">
-        <v>1.907</v>
+        <v>1.905</v>
       </c>
       <c r="D68" t="n">
         <v>1.907</v>
       </c>
       <c r="E68" t="n">
-        <v>1.907</v>
+        <v>1.905</v>
       </c>
       <c r="F68" t="n">
-        <v>25820</v>
+        <v>632922.1084</v>
       </c>
       <c r="G68" t="n">
-        <v>-514305.0063410988</v>
+        <v>960003.7830999992</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.915</v>
+        <v>1.919</v>
       </c>
       <c r="C69" t="n">
-        <v>1.915</v>
+        <v>1.919</v>
       </c>
       <c r="D69" t="n">
-        <v>1.915</v>
+        <v>1.919</v>
       </c>
       <c r="E69" t="n">
-        <v>1.915</v>
+        <v>1.919</v>
       </c>
       <c r="F69" t="n">
-        <v>262.12</v>
+        <v>6091.5143</v>
       </c>
       <c r="G69" t="n">
-        <v>-514042.8863410988</v>
+        <v>966095.2973999992</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.915</v>
+        <v>1.905</v>
       </c>
       <c r="C70" t="n">
-        <v>1.915</v>
+        <v>1.905</v>
       </c>
       <c r="D70" t="n">
-        <v>1.915</v>
+        <v>1.905</v>
       </c>
       <c r="E70" t="n">
-        <v>1.915</v>
+        <v>1.905</v>
       </c>
       <c r="F70" t="n">
-        <v>26505.195</v>
+        <v>483087.6954</v>
       </c>
       <c r="G70" t="n">
-        <v>-514042.8863410988</v>
+        <v>483007.6019999992</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.907</v>
+        <v>1.905</v>
       </c>
       <c r="C71" t="n">
-        <v>1.907</v>
+        <v>1.905</v>
       </c>
       <c r="D71" t="n">
-        <v>1.907</v>
+        <v>1.905</v>
       </c>
       <c r="E71" t="n">
-        <v>1.907</v>
+        <v>1.905</v>
       </c>
       <c r="F71" t="n">
-        <v>65170</v>
+        <v>20847.648</v>
       </c>
       <c r="G71" t="n">
-        <v>-579212.8863410988</v>
+        <v>483007.6019999992</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.907</v>
+        <v>1.905</v>
       </c>
       <c r="C72" t="n">
-        <v>1.907</v>
+        <v>1.905</v>
       </c>
       <c r="D72" t="n">
-        <v>1.907</v>
+        <v>1.905</v>
       </c>
       <c r="E72" t="n">
-        <v>1.907</v>
+        <v>1.905</v>
       </c>
       <c r="F72" t="n">
-        <v>0.5276999999999999</v>
+        <v>56000</v>
       </c>
       <c r="G72" t="n">
-        <v>-579212.8863410988</v>
+        <v>483007.6019999992</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.895</v>
+        <v>1.905</v>
       </c>
       <c r="C73" t="n">
-        <v>1.895</v>
+        <v>1.905</v>
       </c>
       <c r="D73" t="n">
-        <v>1.895</v>
+        <v>1.905</v>
       </c>
       <c r="E73" t="n">
-        <v>1.895</v>
+        <v>1.905</v>
       </c>
       <c r="F73" t="n">
-        <v>14743.5161</v>
+        <v>58000</v>
       </c>
       <c r="G73" t="n">
-        <v>-593956.4024410988</v>
+        <v>483007.6019999992</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.895</v>
+        <v>1.905</v>
       </c>
       <c r="C74" t="n">
-        <v>1.895</v>
+        <v>1.905</v>
       </c>
       <c r="D74" t="n">
-        <v>1.895</v>
+        <v>1.905</v>
       </c>
       <c r="E74" t="n">
-        <v>1.895</v>
+        <v>1.905</v>
       </c>
       <c r="F74" t="n">
-        <v>89899.7892</v>
+        <v>6000</v>
       </c>
       <c r="G74" t="n">
-        <v>-593956.4024410988</v>
+        <v>483007.6019999992</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.895</v>
+        <v>1.901</v>
       </c>
       <c r="C75" t="n">
-        <v>1.895</v>
+        <v>1.901</v>
       </c>
       <c r="D75" t="n">
-        <v>1.895</v>
+        <v>1.901</v>
       </c>
       <c r="E75" t="n">
-        <v>1.89</v>
+        <v>1.901</v>
       </c>
       <c r="F75" t="n">
-        <v>62139.9365</v>
+        <v>22075</v>
       </c>
       <c r="G75" t="n">
-        <v>-593956.4024410988</v>
+        <v>460932.6019999992</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.895</v>
+        <v>1.901</v>
       </c>
       <c r="C76" t="n">
-        <v>1.895</v>
+        <v>1.901</v>
       </c>
       <c r="D76" t="n">
-        <v>1.895</v>
+        <v>1.901</v>
       </c>
       <c r="E76" t="n">
-        <v>1.895</v>
+        <v>1.901</v>
       </c>
       <c r="F76" t="n">
-        <v>50259.1654</v>
+        <v>454025</v>
       </c>
       <c r="G76" t="n">
-        <v>-593956.4024410988</v>
+        <v>460932.6019999992</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.895</v>
+        <v>1.901</v>
       </c>
       <c r="C77" t="n">
-        <v>1.895</v>
+        <v>1.901</v>
       </c>
       <c r="D77" t="n">
-        <v>1.895</v>
+        <v>1.901</v>
       </c>
       <c r="E77" t="n">
-        <v>1.895</v>
+        <v>1.901</v>
       </c>
       <c r="F77" t="n">
-        <v>28091.4153</v>
+        <v>3578.4124</v>
       </c>
       <c r="G77" t="n">
-        <v>-593956.4024410988</v>
+        <v>460932.6019999992</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.895</v>
+        <v>1.901</v>
       </c>
       <c r="C78" t="n">
-        <v>1.895</v>
+        <v>1.901</v>
       </c>
       <c r="D78" t="n">
-        <v>1.895</v>
+        <v>1.901</v>
       </c>
       <c r="E78" t="n">
-        <v>1.895</v>
+        <v>1.901</v>
       </c>
       <c r="F78" t="n">
-        <v>50000</v>
+        <v>47000.8</v>
       </c>
       <c r="G78" t="n">
-        <v>-593956.4024410988</v>
+        <v>460932.6019999992</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.895</v>
+        <v>1.901</v>
       </c>
       <c r="C79" t="n">
-        <v>1.895</v>
+        <v>1.891</v>
       </c>
       <c r="D79" t="n">
-        <v>1.895</v>
+        <v>1.901</v>
       </c>
       <c r="E79" t="n">
-        <v>1.895</v>
+        <v>1.885</v>
       </c>
       <c r="F79" t="n">
-        <v>26150.3738</v>
+        <v>381921.2342</v>
       </c>
       <c r="G79" t="n">
-        <v>-593956.4024410988</v>
+        <v>79011.36779999919</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.895</v>
+        <v>1.885</v>
       </c>
       <c r="C80" t="n">
-        <v>1.895</v>
+        <v>1.885</v>
       </c>
       <c r="D80" t="n">
-        <v>1.895</v>
+        <v>1.885</v>
       </c>
       <c r="E80" t="n">
-        <v>1.895</v>
+        <v>1.885</v>
       </c>
       <c r="F80" t="n">
-        <v>44291.9621</v>
+        <v>90317.61870000001</v>
       </c>
       <c r="G80" t="n">
-        <v>-593956.4024410988</v>
+        <v>-11306.25090000081</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.894</v>
+        <v>1.885</v>
       </c>
       <c r="C81" t="n">
-        <v>1.894</v>
+        <v>1.885</v>
       </c>
       <c r="D81" t="n">
-        <v>1.894</v>
+        <v>1.885</v>
       </c>
       <c r="E81" t="n">
-        <v>1.894</v>
+        <v>1.885</v>
       </c>
       <c r="F81" t="n">
-        <v>10207.8989</v>
+        <v>163000.6704</v>
       </c>
       <c r="G81" t="n">
-        <v>-604164.3013410988</v>
+        <v>-11306.25090000081</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.903</v>
+        <v>1.885</v>
       </c>
       <c r="C82" t="n">
-        <v>1.903</v>
+        <v>1.885</v>
       </c>
       <c r="D82" t="n">
-        <v>1.903</v>
+        <v>1.885</v>
       </c>
       <c r="E82" t="n">
-        <v>1.903</v>
+        <v>1.885</v>
       </c>
       <c r="F82" t="n">
-        <v>263.1251</v>
+        <v>361677.742</v>
       </c>
       <c r="G82" t="n">
-        <v>-603901.1762410989</v>
+        <v>-11306.25090000081</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.894</v>
+        <v>1.9</v>
       </c>
       <c r="C83" t="n">
-        <v>1.894</v>
+        <v>1.9</v>
       </c>
       <c r="D83" t="n">
-        <v>1.894</v>
+        <v>1.9</v>
       </c>
       <c r="E83" t="n">
-        <v>1.894</v>
+        <v>1.9</v>
       </c>
       <c r="F83" t="n">
-        <v>164625.3311</v>
+        <v>26105.0357</v>
       </c>
       <c r="G83" t="n">
-        <v>-768526.507341099</v>
+        <v>14798.78479999919</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.885</v>
+        <v>1.9</v>
       </c>
       <c r="C84" t="n">
-        <v>1.885</v>
+        <v>1.886</v>
       </c>
       <c r="D84" t="n">
-        <v>1.885</v>
+        <v>1.9</v>
       </c>
       <c r="E84" t="n">
-        <v>1.885</v>
+        <v>1.886</v>
       </c>
       <c r="F84" t="n">
-        <v>27836.9116</v>
+        <v>290306.6406</v>
       </c>
       <c r="G84" t="n">
-        <v>-796363.418941099</v>
+        <v>-275507.8558000008</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.891</v>
+        <v>1.885</v>
       </c>
       <c r="C85" t="n">
-        <v>1.89</v>
+        <v>1.885</v>
       </c>
       <c r="D85" t="n">
-        <v>1.895</v>
+        <v>1.885</v>
       </c>
       <c r="E85" t="n">
-        <v>1.89</v>
+        <v>1.885</v>
       </c>
       <c r="F85" t="n">
-        <v>233761.93</v>
+        <v>53854.35</v>
       </c>
       <c r="G85" t="n">
-        <v>-562601.488941099</v>
+        <v>-329362.2058000008</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.885</v>
+        <v>1.886</v>
       </c>
       <c r="C86" t="n">
-        <v>1.885</v>
+        <v>1.886</v>
       </c>
       <c r="D86" t="n">
-        <v>1.885</v>
+        <v>1.886</v>
       </c>
       <c r="E86" t="n">
-        <v>1.885</v>
+        <v>1.886</v>
       </c>
       <c r="F86" t="n">
-        <v>17819.1426</v>
+        <v>37345.1948</v>
       </c>
       <c r="G86" t="n">
-        <v>-580420.6315410991</v>
+        <v>-292017.0110000008</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.885</v>
+        <v>1.906</v>
       </c>
       <c r="C87" t="n">
-        <v>1.885</v>
+        <v>1.906</v>
       </c>
       <c r="D87" t="n">
-        <v>1.885</v>
+        <v>1.906</v>
       </c>
       <c r="E87" t="n">
-        <v>1.885</v>
+        <v>1.906</v>
       </c>
       <c r="F87" t="n">
-        <v>173087.0638</v>
+        <v>261</v>
       </c>
       <c r="G87" t="n">
-        <v>-580420.6315410991</v>
+        <v>-291756.0110000008</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3537,19 +3537,19 @@
         <v>1.885</v>
       </c>
       <c r="C88" t="n">
-        <v>1.884</v>
+        <v>1.886</v>
       </c>
       <c r="D88" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="E88" t="n">
         <v>1.885</v>
       </c>
-      <c r="E88" t="n">
-        <v>1.884</v>
-      </c>
       <c r="F88" t="n">
-        <v>85395.8554</v>
+        <v>331764.363</v>
       </c>
       <c r="G88" t="n">
-        <v>-665816.4869410991</v>
+        <v>-623520.3740000008</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.884</v>
+        <v>1.885</v>
       </c>
       <c r="C89" t="n">
-        <v>1.884</v>
+        <v>1.885</v>
       </c>
       <c r="D89" t="n">
-        <v>1.884</v>
+        <v>1.885</v>
       </c>
       <c r="E89" t="n">
-        <v>1.884</v>
+        <v>1.885</v>
       </c>
       <c r="F89" t="n">
-        <v>127656.8536</v>
+        <v>75803.64999999999</v>
       </c>
       <c r="G89" t="n">
-        <v>-665816.4869410991</v>
+        <v>-699324.0240000008</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.883</v>
+        <v>1.905</v>
       </c>
       <c r="C90" t="n">
-        <v>1.885</v>
+        <v>1.905</v>
       </c>
       <c r="D90" t="n">
-        <v>1.885</v>
+        <v>1.905</v>
       </c>
       <c r="E90" t="n">
-        <v>1.882</v>
+        <v>1.905</v>
       </c>
       <c r="F90" t="n">
-        <v>118388</v>
+        <v>3898.3753</v>
       </c>
       <c r="G90" t="n">
-        <v>-547428.4869410991</v>
+        <v>-695425.6487000008</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.882</v>
+        <v>1.908</v>
       </c>
       <c r="C91" t="n">
-        <v>1.882</v>
+        <v>1.908</v>
       </c>
       <c r="D91" t="n">
-        <v>1.882</v>
+        <v>1.908</v>
       </c>
       <c r="E91" t="n">
-        <v>1.882</v>
+        <v>1.908</v>
       </c>
       <c r="F91" t="n">
-        <v>57504.1236</v>
+        <v>1191.299790356</v>
       </c>
       <c r="G91" t="n">
-        <v>-604932.6105410991</v>
+        <v>-694234.3489096449</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.881</v>
+        <v>1.901</v>
       </c>
       <c r="C92" t="n">
-        <v>1.881</v>
+        <v>1.886</v>
       </c>
       <c r="D92" t="n">
-        <v>1.881</v>
+        <v>1.901</v>
       </c>
       <c r="E92" t="n">
-        <v>1.881</v>
+        <v>1.886</v>
       </c>
       <c r="F92" t="n">
-        <v>52416.1212</v>
+        <v>560</v>
       </c>
       <c r="G92" t="n">
-        <v>-657348.7317410992</v>
+        <v>-694794.3489096449</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.881</v>
+        <v>1.887</v>
       </c>
       <c r="C93" t="n">
-        <v>1.881</v>
+        <v>1.887</v>
       </c>
       <c r="D93" t="n">
-        <v>1.881</v>
+        <v>1.904</v>
       </c>
       <c r="E93" t="n">
-        <v>1.881</v>
+        <v>1.887</v>
       </c>
       <c r="F93" t="n">
-        <v>292808.4019</v>
+        <v>61563.2561</v>
       </c>
       <c r="G93" t="n">
-        <v>-657348.7317410992</v>
+        <v>-633231.0928096449</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.88</v>
+        <v>1.909</v>
       </c>
       <c r="C94" t="n">
-        <v>1.88</v>
+        <v>1.909</v>
       </c>
       <c r="D94" t="n">
-        <v>1.88</v>
+        <v>1.909</v>
       </c>
       <c r="E94" t="n">
-        <v>1.88</v>
+        <v>1.909</v>
       </c>
       <c r="F94" t="n">
-        <v>19191.5565</v>
+        <v>717.6004</v>
       </c>
       <c r="G94" t="n">
-        <v>-676540.2882410991</v>
+        <v>-632513.4924096449</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.88</v>
+        <v>1.909</v>
       </c>
       <c r="C95" t="n">
-        <v>1.88</v>
+        <v>1.933</v>
       </c>
       <c r="D95" t="n">
-        <v>1.88</v>
+        <v>1.933</v>
       </c>
       <c r="E95" t="n">
-        <v>1.88</v>
+        <v>1.909</v>
       </c>
       <c r="F95" t="n">
-        <v>21168.1718</v>
+        <v>758246.166968546</v>
       </c>
       <c r="G95" t="n">
-        <v>-676540.2882410991</v>
+        <v>125732.6745589011</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="C96" t="n">
-        <v>1.877</v>
+        <v>1.91</v>
       </c>
       <c r="D96" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="E96" t="n">
-        <v>1.877</v>
+        <v>1.91</v>
       </c>
       <c r="F96" t="n">
-        <v>574430.1048</v>
+        <v>34501.3847</v>
       </c>
       <c r="G96" t="n">
-        <v>-1250970.393041099</v>
+        <v>91231.28985890112</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.88</v>
+        <v>1.919</v>
       </c>
       <c r="C97" t="n">
-        <v>1.876</v>
+        <v>1.919</v>
       </c>
       <c r="D97" t="n">
-        <v>1.88</v>
+        <v>1.919</v>
       </c>
       <c r="E97" t="n">
-        <v>1.876</v>
+        <v>1.919</v>
       </c>
       <c r="F97" t="n">
-        <v>39886.5962</v>
+        <v>59140.6439</v>
       </c>
       <c r="G97" t="n">
-        <v>-1290856.989241099</v>
+        <v>150371.9337589011</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.876</v>
+        <v>1.9</v>
       </c>
       <c r="C98" t="n">
-        <v>1.876</v>
+        <v>1.887</v>
       </c>
       <c r="D98" t="n">
-        <v>1.876</v>
+        <v>1.9</v>
       </c>
       <c r="E98" t="n">
-        <v>1.876</v>
+        <v>1.887</v>
       </c>
       <c r="F98" t="n">
-        <v>45728.5586</v>
+        <v>758246.1669</v>
       </c>
       <c r="G98" t="n">
-        <v>-1290856.989241099</v>
+        <v>-607874.2331410989</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.876</v>
+        <v>1.9</v>
       </c>
       <c r="C99" t="n">
-        <v>1.876</v>
+        <v>1.9</v>
       </c>
       <c r="D99" t="n">
-        <v>1.876</v>
+        <v>1.9</v>
       </c>
       <c r="E99" t="n">
-        <v>1.876</v>
+        <v>1.9</v>
       </c>
       <c r="F99" t="n">
-        <v>10255.2361</v>
+        <v>8256.154699999999</v>
       </c>
       <c r="G99" t="n">
-        <v>-1290856.989241099</v>
+        <v>-599618.0784410989</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.875</v>
+        <v>1.91</v>
       </c>
       <c r="C100" t="n">
-        <v>1.874</v>
+        <v>1.91</v>
       </c>
       <c r="D100" t="n">
-        <v>1.875</v>
+        <v>1.91</v>
       </c>
       <c r="E100" t="n">
-        <v>1.874</v>
+        <v>1.91</v>
       </c>
       <c r="F100" t="n">
-        <v>8455.7567</v>
+        <v>259</v>
       </c>
       <c r="G100" t="n">
-        <v>-1299312.745941099</v>
+        <v>-599359.0784410989</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="C101" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="D101" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="E101" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="F101" t="n">
-        <v>264.7123</v>
+        <v>13078.4104</v>
       </c>
       <c r="G101" t="n">
-        <v>-1299048.033641099</v>
+        <v>-599359.0784410989</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.873</v>
+        <v>1.91</v>
       </c>
       <c r="C102" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="D102" t="n">
-        <v>1.873</v>
+        <v>1.91</v>
       </c>
       <c r="E102" t="n">
-        <v>1.87</v>
+        <v>1.888</v>
       </c>
       <c r="F102" t="n">
-        <v>67081.9103</v>
+        <v>839186.8663</v>
       </c>
       <c r="G102" t="n">
-        <v>-1366129.943941099</v>
+        <v>-599359.0784410989</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="C103" t="n">
-        <v>1.869</v>
+        <v>1.915</v>
       </c>
       <c r="D103" t="n">
-        <v>1.87</v>
+        <v>1.915</v>
       </c>
       <c r="E103" t="n">
-        <v>1.869</v>
+        <v>1.91</v>
       </c>
       <c r="F103" t="n">
-        <v>20088.0939</v>
+        <v>22440.7266</v>
       </c>
       <c r="G103" t="n">
-        <v>-1386218.037841099</v>
+        <v>-576918.3518410989</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.869</v>
+        <v>1.915</v>
       </c>
       <c r="C104" t="n">
-        <v>1.869</v>
+        <v>1.903</v>
       </c>
       <c r="D104" t="n">
-        <v>1.869</v>
+        <v>1.915</v>
       </c>
       <c r="E104" t="n">
-        <v>1.869</v>
+        <v>1.903</v>
       </c>
       <c r="F104" t="n">
-        <v>30987.6309</v>
+        <v>45983.3921</v>
       </c>
       <c r="G104" t="n">
-        <v>-1386218.037841099</v>
+        <v>-622901.7439410989</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.87</v>
+        <v>1.906</v>
       </c>
       <c r="C105" t="n">
-        <v>1.87</v>
+        <v>1.906</v>
       </c>
       <c r="D105" t="n">
-        <v>1.87</v>
+        <v>1.906</v>
       </c>
       <c r="E105" t="n">
-        <v>1.87</v>
+        <v>1.906</v>
       </c>
       <c r="F105" t="n">
-        <v>21482.5903</v>
+        <v>263.015</v>
       </c>
       <c r="G105" t="n">
-        <v>-1364735.447541099</v>
+        <v>-622638.7289410989</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="C106" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="D106" t="n">
-        <v>1.894</v>
+        <v>1.91</v>
       </c>
       <c r="E106" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="F106" t="n">
-        <v>192016.419</v>
+        <v>262.7712</v>
       </c>
       <c r="G106" t="n">
-        <v>-1364735.447541099</v>
+        <v>-622375.9577410989</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.894</v>
+        <v>1.903</v>
       </c>
       <c r="C107" t="n">
-        <v>1.894</v>
+        <v>1.903</v>
       </c>
       <c r="D107" t="n">
-        <v>1.894</v>
+        <v>1.903</v>
       </c>
       <c r="E107" t="n">
-        <v>1.894</v>
+        <v>1.903</v>
       </c>
       <c r="F107" t="n">
-        <v>19731.3523</v>
+        <v>22691.8075</v>
       </c>
       <c r="G107" t="n">
-        <v>-1345004.095241099</v>
+        <v>-645067.7652410989</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.893</v>
+        <v>1.899</v>
       </c>
       <c r="C108" t="n">
-        <v>1.894</v>
+        <v>1.899</v>
       </c>
       <c r="D108" t="n">
-        <v>1.894</v>
+        <v>1.899</v>
       </c>
       <c r="E108" t="n">
-        <v>1.893</v>
+        <v>1.899</v>
       </c>
       <c r="F108" t="n">
-        <v>75915.4905</v>
+        <v>18839.6518</v>
       </c>
       <c r="G108" t="n">
-        <v>-1345004.095241099</v>
+        <v>-663907.4170410989</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.894</v>
+        <v>1.899</v>
       </c>
       <c r="C109" t="n">
-        <v>1.894</v>
+        <v>1.899</v>
       </c>
       <c r="D109" t="n">
-        <v>1.894</v>
+        <v>1.899</v>
       </c>
       <c r="E109" t="n">
-        <v>1.894</v>
+        <v>1.899</v>
       </c>
       <c r="F109" t="n">
-        <v>127539.8291</v>
+        <v>22435.7307</v>
       </c>
       <c r="G109" t="n">
-        <v>-1345004.095241099</v>
+        <v>-663907.4170410989</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.894</v>
+        <v>1.897</v>
       </c>
       <c r="C110" t="n">
-        <v>1.894</v>
+        <v>1.897</v>
       </c>
       <c r="D110" t="n">
-        <v>1.894</v>
+        <v>1.897</v>
       </c>
       <c r="E110" t="n">
-        <v>1.894</v>
+        <v>1.897</v>
       </c>
       <c r="F110" t="n">
-        <v>67339.8946</v>
+        <v>911.7043</v>
       </c>
       <c r="G110" t="n">
-        <v>-1345004.095241099</v>
+        <v>-664819.1213410989</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.894</v>
+        <v>1.897</v>
       </c>
       <c r="C111" t="n">
-        <v>1.894</v>
+        <v>1.9</v>
       </c>
       <c r="D111" t="n">
-        <v>1.894</v>
+        <v>1.9</v>
       </c>
       <c r="E111" t="n">
-        <v>1.894</v>
+        <v>1.897</v>
       </c>
       <c r="F111" t="n">
-        <v>65492.993</v>
+        <v>60391.7025</v>
       </c>
       <c r="G111" t="n">
-        <v>-1345004.095241099</v>
+        <v>-604427.4188410989</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.88</v>
+        <v>1.897</v>
       </c>
       <c r="C112" t="n">
-        <v>1.894</v>
+        <v>1.897</v>
       </c>
       <c r="D112" t="n">
-        <v>1.894</v>
+        <v>1.897</v>
       </c>
       <c r="E112" t="n">
-        <v>1.88</v>
+        <v>1.897</v>
       </c>
       <c r="F112" t="n">
-        <v>169173.9569</v>
+        <v>64874.2691</v>
       </c>
       <c r="G112" t="n">
-        <v>-1345004.095241099</v>
+        <v>-669301.6879410989</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.894</v>
+        <v>1.9</v>
       </c>
       <c r="C113" t="n">
-        <v>1.895</v>
+        <v>1.9</v>
       </c>
       <c r="D113" t="n">
-        <v>1.895</v>
+        <v>1.9</v>
       </c>
       <c r="E113" t="n">
-        <v>1.894</v>
+        <v>1.9</v>
       </c>
       <c r="F113" t="n">
-        <v>220100.4811</v>
+        <v>26990.097</v>
       </c>
       <c r="G113" t="n">
-        <v>-1124903.614141099</v>
+        <v>-642311.590941099</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4470,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.894</v>
+        <v>1.9</v>
       </c>
       <c r="C114" t="n">
-        <v>1.893</v>
+        <v>1.897</v>
       </c>
       <c r="D114" t="n">
-        <v>1.894</v>
+        <v>1.9</v>
       </c>
       <c r="E114" t="n">
-        <v>1.893</v>
+        <v>1.897</v>
       </c>
       <c r="F114" t="n">
-        <v>122351.9998</v>
+        <v>44564.281</v>
       </c>
       <c r="G114" t="n">
-        <v>-1247255.613941099</v>
+        <v>-686875.8719410989</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.883</v>
+        <v>1.897</v>
       </c>
       <c r="C115" t="n">
-        <v>1.883</v>
+        <v>1.905</v>
       </c>
       <c r="D115" t="n">
-        <v>1.883</v>
+        <v>1.905</v>
       </c>
       <c r="E115" t="n">
-        <v>1.883</v>
+        <v>1.897</v>
       </c>
       <c r="F115" t="n">
-        <v>357365.3113</v>
+        <v>112397.284</v>
       </c>
       <c r="G115" t="n">
-        <v>-1604620.925241099</v>
+        <v>-574478.587941099</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4542,22 +4542,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.883</v>
+        <v>1.897</v>
       </c>
       <c r="C116" t="n">
-        <v>1.883</v>
+        <v>1.897</v>
       </c>
       <c r="D116" t="n">
-        <v>1.883</v>
+        <v>1.897</v>
       </c>
       <c r="E116" t="n">
-        <v>1.883</v>
+        <v>1.897</v>
       </c>
       <c r="F116" t="n">
-        <v>6000</v>
+        <v>10391.1567</v>
       </c>
       <c r="G116" t="n">
-        <v>-1604620.925241099</v>
+        <v>-584869.744641099</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4578,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.883</v>
+        <v>1.898</v>
       </c>
       <c r="C117" t="n">
-        <v>1.902</v>
+        <v>1.898</v>
       </c>
       <c r="D117" t="n">
-        <v>1.902</v>
+        <v>1.898</v>
       </c>
       <c r="E117" t="n">
-        <v>1.883</v>
+        <v>1.898</v>
       </c>
       <c r="F117" t="n">
-        <v>20262.9192</v>
+        <v>13798.1129</v>
       </c>
       <c r="G117" t="n">
-        <v>-1584358.006041099</v>
+        <v>-571071.6317410991</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4614,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.883</v>
+        <v>1.898</v>
       </c>
       <c r="C118" t="n">
-        <v>1.893</v>
+        <v>1.898</v>
       </c>
       <c r="D118" t="n">
-        <v>1.893</v>
+        <v>1.898</v>
       </c>
       <c r="E118" t="n">
-        <v>1.883</v>
+        <v>1.898</v>
       </c>
       <c r="F118" t="n">
-        <v>73018.74249999999</v>
+        <v>15630</v>
       </c>
       <c r="G118" t="n">
-        <v>-1657376.748541099</v>
+        <v>-571071.6317410991</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4650,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.883</v>
+        <v>1.898</v>
       </c>
       <c r="C119" t="n">
-        <v>1.883</v>
+        <v>1.897</v>
       </c>
       <c r="D119" t="n">
-        <v>1.883</v>
+        <v>1.898</v>
       </c>
       <c r="E119" t="n">
-        <v>1.883</v>
+        <v>1.897</v>
       </c>
       <c r="F119" t="n">
-        <v>2000</v>
+        <v>35499.4488</v>
       </c>
       <c r="G119" t="n">
-        <v>-1659376.748541099</v>
+        <v>-606571.0805410991</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4686,22 +4686,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.883</v>
+        <v>1.889</v>
       </c>
       <c r="C120" t="n">
-        <v>1.883</v>
+        <v>1.889</v>
       </c>
       <c r="D120" t="n">
-        <v>1.883</v>
+        <v>1.889</v>
       </c>
       <c r="E120" t="n">
-        <v>1.883</v>
+        <v>1.889</v>
       </c>
       <c r="F120" t="n">
-        <v>29585.2415</v>
+        <v>147463.6631</v>
       </c>
       <c r="G120" t="n">
-        <v>-1659376.748541099</v>
+        <v>-754034.7436410991</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4722,22 +4722,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.883</v>
+        <v>1.888</v>
       </c>
       <c r="C121" t="n">
-        <v>1.889</v>
+        <v>1.888</v>
       </c>
       <c r="D121" t="n">
-        <v>1.889</v>
+        <v>1.888</v>
       </c>
       <c r="E121" t="n">
-        <v>1.883</v>
+        <v>1.888</v>
       </c>
       <c r="F121" t="n">
-        <v>156201.6877</v>
+        <v>50000</v>
       </c>
       <c r="G121" t="n">
-        <v>-1503175.060841099</v>
+        <v>-804034.7436410991</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4758,22 +4758,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.897</v>
+        <v>1.905</v>
       </c>
       <c r="C122" t="n">
-        <v>1.897</v>
+        <v>1.905</v>
       </c>
       <c r="D122" t="n">
-        <v>1.897</v>
+        <v>1.905</v>
       </c>
       <c r="E122" t="n">
-        <v>1.897</v>
+        <v>1.905</v>
       </c>
       <c r="F122" t="n">
-        <v>498519.2179</v>
+        <v>262.6124</v>
       </c>
       <c r="G122" t="n">
-        <v>-1004655.842941099</v>
+        <v>-803772.1312410991</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4794,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="C123" t="n">
-        <v>1.9</v>
+        <v>1.889</v>
       </c>
       <c r="D123" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="E123" t="n">
-        <v>1.9</v>
+        <v>1.889</v>
       </c>
       <c r="F123" t="n">
-        <v>263.2525</v>
+        <v>816377.9518</v>
       </c>
       <c r="G123" t="n">
-        <v>-1004392.590441099</v>
+        <v>-1620150.083041099</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4830,22 +4830,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.889</v>
+        <v>1.887</v>
       </c>
       <c r="C124" t="n">
-        <v>1.889</v>
+        <v>1.887</v>
       </c>
       <c r="D124" t="n">
-        <v>1.889</v>
+        <v>1.887</v>
       </c>
       <c r="E124" t="n">
-        <v>1.889</v>
+        <v>1.887</v>
       </c>
       <c r="F124" t="n">
-        <v>1000</v>
+        <v>178592.7937</v>
       </c>
       <c r="G124" t="n">
-        <v>-1005392.590441099</v>
+        <v>-1798742.876741099</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4866,22 +4866,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.889</v>
+        <v>1.887</v>
       </c>
       <c r="C125" t="n">
-        <v>1.889</v>
+        <v>1.887</v>
       </c>
       <c r="D125" t="n">
-        <v>1.889</v>
+        <v>1.887</v>
       </c>
       <c r="E125" t="n">
-        <v>1.889</v>
+        <v>1.887</v>
       </c>
       <c r="F125" t="n">
-        <v>2000</v>
+        <v>5060.1847</v>
       </c>
       <c r="G125" t="n">
-        <v>-1005392.590441099</v>
+        <v>-1798742.876741099</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4902,22 +4902,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="C126" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="D126" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="E126" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="F126" t="n">
-        <v>48520.7584</v>
+        <v>17480.8251</v>
       </c>
       <c r="G126" t="n">
-        <v>-1005392.590441099</v>
+        <v>-1816223.701841099</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4938,22 +4938,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.889</v>
+        <v>1.887</v>
       </c>
       <c r="C127" t="n">
-        <v>1.889</v>
+        <v>1.887</v>
       </c>
       <c r="D127" t="n">
-        <v>1.889</v>
+        <v>1.887</v>
       </c>
       <c r="E127" t="n">
-        <v>1.889</v>
+        <v>1.887</v>
       </c>
       <c r="F127" t="n">
-        <v>18064.5458</v>
+        <v>48725.2327</v>
       </c>
       <c r="G127" t="n">
-        <v>-1005392.590441099</v>
+        <v>-1767498.469141099</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4974,22 +4974,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.889</v>
+        <v>1.887</v>
       </c>
       <c r="C128" t="n">
-        <v>1.889</v>
+        <v>1.887</v>
       </c>
       <c r="D128" t="n">
-        <v>1.889</v>
+        <v>1.887</v>
       </c>
       <c r="E128" t="n">
-        <v>1.889</v>
+        <v>1.887</v>
       </c>
       <c r="F128" t="n">
-        <v>2000</v>
+        <v>123317.1003</v>
       </c>
       <c r="G128" t="n">
-        <v>-1005392.590441099</v>
+        <v>-1767498.469141099</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5010,22 +5010,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.889</v>
+        <v>1.887</v>
       </c>
       <c r="C129" t="n">
-        <v>1.889</v>
+        <v>1.887</v>
       </c>
       <c r="D129" t="n">
-        <v>1.889</v>
+        <v>1.887</v>
       </c>
       <c r="E129" t="n">
-        <v>1.889</v>
+        <v>1.887</v>
       </c>
       <c r="F129" t="n">
-        <v>8000</v>
+        <v>17168.0417</v>
       </c>
       <c r="G129" t="n">
-        <v>-1005392.590441099</v>
+        <v>-1767498.469141099</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5046,22 +5046,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="C130" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="D130" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="E130" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="F130" t="n">
-        <v>4000</v>
+        <v>283372.0165</v>
       </c>
       <c r="G130" t="n">
-        <v>-1005392.590441099</v>
+        <v>-2050870.485641099</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5082,22 +5082,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="C131" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="D131" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="E131" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="F131" t="n">
-        <v>20521.4468</v>
+        <v>2368.4806</v>
       </c>
       <c r="G131" t="n">
-        <v>-1005392.590441099</v>
+        <v>-2050870.485641099</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5118,22 +5118,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.889</v>
+        <v>1.901</v>
       </c>
       <c r="C132" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="D132" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="E132" t="n">
-        <v>1.889</v>
+        <v>1.901</v>
       </c>
       <c r="F132" t="n">
-        <v>2463.7668</v>
+        <v>263</v>
       </c>
       <c r="G132" t="n">
-        <v>-1002928.823641099</v>
+        <v>-2050607.485641099</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5154,22 +5154,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="C133" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="D133" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="E133" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="F133" t="n">
-        <v>4000</v>
+        <v>77804.11440000001</v>
       </c>
       <c r="G133" t="n">
-        <v>-1006928.823641099</v>
+        <v>-2128411.600041099</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5190,22 +5190,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.889</v>
+        <v>1.901</v>
       </c>
       <c r="C134" t="n">
-        <v>1.889</v>
+        <v>1.901</v>
       </c>
       <c r="D134" t="n">
-        <v>1.889</v>
+        <v>1.901</v>
       </c>
       <c r="E134" t="n">
-        <v>1.889</v>
+        <v>1.901</v>
       </c>
       <c r="F134" t="n">
-        <v>2000</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
-        <v>-1006928.823641099</v>
+        <v>-2128149.600041099</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5226,22 +5226,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="C135" t="n">
-        <v>1.889</v>
+        <v>1.885</v>
       </c>
       <c r="D135" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="E135" t="n">
-        <v>1.889</v>
+        <v>1.885</v>
       </c>
       <c r="F135" t="n">
-        <v>23323.1986</v>
+        <v>171022.8605</v>
       </c>
       <c r="G135" t="n">
-        <v>-1006928.823641099</v>
+        <v>-2299172.460541099</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5262,22 +5262,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.889</v>
+        <v>1.9</v>
       </c>
       <c r="C136" t="n">
-        <v>1.889</v>
+        <v>1.9</v>
       </c>
       <c r="D136" t="n">
-        <v>1.889</v>
+        <v>1.903</v>
       </c>
       <c r="E136" t="n">
-        <v>1.889</v>
+        <v>1.9</v>
       </c>
       <c r="F136" t="n">
-        <v>22889.1463</v>
+        <v>529917.0606</v>
       </c>
       <c r="G136" t="n">
-        <v>-1006928.823641099</v>
+        <v>-1769255.399941099</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.889</v>
+        <v>1.9</v>
       </c>
       <c r="C137" t="n">
-        <v>1.889</v>
+        <v>1.916</v>
       </c>
       <c r="D137" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="E137" t="n">
         <v>1.9</v>
       </c>
-      <c r="E137" t="n">
-        <v>1.889</v>
-      </c>
       <c r="F137" t="n">
-        <v>4263.2525</v>
+        <v>1280782.6143</v>
       </c>
       <c r="G137" t="n">
-        <v>-1006928.823641099</v>
+        <v>-488472.7856410989</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5334,22 +5334,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.889</v>
+        <v>1.895</v>
       </c>
       <c r="C138" t="n">
-        <v>1.889</v>
+        <v>1.895</v>
       </c>
       <c r="D138" t="n">
-        <v>1.901</v>
+        <v>1.895</v>
       </c>
       <c r="E138" t="n">
-        <v>1.889</v>
+        <v>1.895</v>
       </c>
       <c r="F138" t="n">
-        <v>26457.0198</v>
+        <v>51652.2207</v>
       </c>
       <c r="G138" t="n">
-        <v>-1006928.823641099</v>
+        <v>-540125.0063410988</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5370,22 +5370,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.889</v>
+        <v>1.907</v>
       </c>
       <c r="C139" t="n">
-        <v>1.889</v>
+        <v>1.907</v>
       </c>
       <c r="D139" t="n">
-        <v>1.889</v>
+        <v>1.907</v>
       </c>
       <c r="E139" t="n">
-        <v>1.889</v>
+        <v>1.907</v>
       </c>
       <c r="F139" t="n">
-        <v>20192.8208</v>
+        <v>25820</v>
       </c>
       <c r="G139" t="n">
-        <v>-1006928.823641099</v>
+        <v>-514305.0063410988</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5406,22 +5406,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.889</v>
+        <v>1.915</v>
       </c>
       <c r="C140" t="n">
-        <v>1.889</v>
+        <v>1.915</v>
       </c>
       <c r="D140" t="n">
-        <v>1.889</v>
+        <v>1.915</v>
       </c>
       <c r="E140" t="n">
-        <v>1.889</v>
+        <v>1.915</v>
       </c>
       <c r="F140" t="n">
-        <v>22077.5397</v>
+        <v>262.12</v>
       </c>
       <c r="G140" t="n">
-        <v>-1006928.823641099</v>
+        <v>-514042.8863410988</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5442,22 +5442,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.889</v>
+        <v>1.915</v>
       </c>
       <c r="C141" t="n">
-        <v>1.889</v>
+        <v>1.915</v>
       </c>
       <c r="D141" t="n">
-        <v>1.889</v>
+        <v>1.915</v>
       </c>
       <c r="E141" t="n">
-        <v>1.889</v>
+        <v>1.915</v>
       </c>
       <c r="F141" t="n">
-        <v>33862.4631</v>
+        <v>26505.195</v>
       </c>
       <c r="G141" t="n">
-        <v>-1006928.823641099</v>
+        <v>-514042.8863410988</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5478,22 +5478,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.89</v>
+        <v>1.907</v>
       </c>
       <c r="C142" t="n">
-        <v>1.89</v>
+        <v>1.907</v>
       </c>
       <c r="D142" t="n">
-        <v>1.89</v>
+        <v>1.907</v>
       </c>
       <c r="E142" t="n">
-        <v>1.89</v>
+        <v>1.907</v>
       </c>
       <c r="F142" t="n">
-        <v>26606.8141</v>
+        <v>65170</v>
       </c>
       <c r="G142" t="n">
-        <v>-980322.0095410994</v>
+        <v>-579212.8863410988</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5514,22 +5514,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.89</v>
+        <v>1.907</v>
       </c>
       <c r="C143" t="n">
-        <v>1.89</v>
+        <v>1.907</v>
       </c>
       <c r="D143" t="n">
-        <v>1.89</v>
+        <v>1.907</v>
       </c>
       <c r="E143" t="n">
-        <v>1.89</v>
+        <v>1.907</v>
       </c>
       <c r="F143" t="n">
-        <v>53692.6711</v>
+        <v>0.5276999999999999</v>
       </c>
       <c r="G143" t="n">
-        <v>-980322.0095410994</v>
+        <v>-579212.8863410988</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5550,22 +5550,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="C144" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="D144" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="E144" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="F144" t="n">
-        <v>31150.5148</v>
+        <v>14743.5161</v>
       </c>
       <c r="G144" t="n">
-        <v>-980322.0095410994</v>
+        <v>-593956.4024410988</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.88</v>
+        <v>1.895</v>
       </c>
       <c r="C145" t="n">
-        <v>1.88</v>
+        <v>1.895</v>
       </c>
       <c r="D145" t="n">
-        <v>1.88</v>
+        <v>1.895</v>
       </c>
       <c r="E145" t="n">
-        <v>1.88</v>
+        <v>1.895</v>
       </c>
       <c r="F145" t="n">
-        <v>1000</v>
+        <v>89899.7892</v>
       </c>
       <c r="G145" t="n">
-        <v>-981322.0095410994</v>
+        <v>-593956.4024410988</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5622,22 +5622,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="C146" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="D146" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="E146" t="n">
         <v>1.89</v>
       </c>
       <c r="F146" t="n">
-        <v>25401.4858</v>
+        <v>62139.9365</v>
       </c>
       <c r="G146" t="n">
-        <v>-955920.5237410994</v>
+        <v>-593956.4024410988</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5658,22 +5658,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="C147" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="D147" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="E147" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="F147" t="n">
-        <v>1000</v>
+        <v>50259.1654</v>
       </c>
       <c r="G147" t="n">
-        <v>-955920.5237410994</v>
+        <v>-593956.4024410988</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5694,22 +5694,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="C148" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="D148" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="E148" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="F148" t="n">
-        <v>2000</v>
+        <v>28091.4153</v>
       </c>
       <c r="G148" t="n">
-        <v>-955920.5237410994</v>
+        <v>-593956.4024410988</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5730,22 +5730,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="C149" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="D149" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="E149" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="F149" t="n">
-        <v>25187.9656</v>
+        <v>50000</v>
       </c>
       <c r="G149" t="n">
-        <v>-955920.5237410994</v>
+        <v>-593956.4024410988</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5766,22 +5766,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="C150" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="D150" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="E150" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="F150" t="n">
-        <v>1640.5486</v>
+        <v>26150.3738</v>
       </c>
       <c r="G150" t="n">
-        <v>-955920.5237410994</v>
+        <v>-593956.4024410988</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5802,22 +5802,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="C151" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="D151" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="E151" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="F151" t="n">
-        <v>45301.66</v>
+        <v>44291.9621</v>
       </c>
       <c r="G151" t="n">
-        <v>-955920.5237410994</v>
+        <v>-593956.4024410988</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5838,22 +5838,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.883</v>
+        <v>1.894</v>
       </c>
       <c r="C152" t="n">
-        <v>1.883</v>
+        <v>1.894</v>
       </c>
       <c r="D152" t="n">
-        <v>1.883</v>
+        <v>1.894</v>
       </c>
       <c r="E152" t="n">
-        <v>1.883</v>
+        <v>1.894</v>
       </c>
       <c r="F152" t="n">
-        <v>19801.3553</v>
+        <v>10207.8989</v>
       </c>
       <c r="G152" t="n">
-        <v>-975721.8790410995</v>
+        <v>-604164.3013410988</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5874,22 +5874,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.883</v>
+        <v>1.903</v>
       </c>
       <c r="C153" t="n">
-        <v>1.883</v>
+        <v>1.903</v>
       </c>
       <c r="D153" t="n">
-        <v>1.883</v>
+        <v>1.903</v>
       </c>
       <c r="E153" t="n">
-        <v>1.883</v>
+        <v>1.903</v>
       </c>
       <c r="F153" t="n">
-        <v>17230.1142</v>
+        <v>263.1251</v>
       </c>
       <c r="G153" t="n">
-        <v>-975721.8790410995</v>
+        <v>-603901.1762410989</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5910,22 +5910,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.883</v>
+        <v>1.894</v>
       </c>
       <c r="C154" t="n">
-        <v>1.883</v>
+        <v>1.894</v>
       </c>
       <c r="D154" t="n">
-        <v>1.883</v>
+        <v>1.894</v>
       </c>
       <c r="E154" t="n">
-        <v>1.883</v>
+        <v>1.894</v>
       </c>
       <c r="F154" t="n">
-        <v>12415.027</v>
+        <v>164625.3311</v>
       </c>
       <c r="G154" t="n">
-        <v>-975721.8790410995</v>
+        <v>-768526.507341099</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5946,22 +5946,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.883</v>
+        <v>1.885</v>
       </c>
       <c r="C155" t="n">
-        <v>1.883</v>
+        <v>1.885</v>
       </c>
       <c r="D155" t="n">
-        <v>1.883</v>
+        <v>1.885</v>
       </c>
       <c r="E155" t="n">
-        <v>1.883</v>
+        <v>1.885</v>
       </c>
       <c r="F155" t="n">
-        <v>19159.7241</v>
+        <v>27836.9116</v>
       </c>
       <c r="G155" t="n">
-        <v>-975721.8790410995</v>
+        <v>-796363.418941099</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5982,22 +5982,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.883</v>
+        <v>1.891</v>
       </c>
       <c r="C156" t="n">
-        <v>1.883</v>
+        <v>1.89</v>
       </c>
       <c r="D156" t="n">
-        <v>1.883</v>
+        <v>1.895</v>
       </c>
       <c r="E156" t="n">
-        <v>1.883</v>
+        <v>1.89</v>
       </c>
       <c r="F156" t="n">
-        <v>24734.7957</v>
+        <v>233761.93</v>
       </c>
       <c r="G156" t="n">
-        <v>-975721.8790410995</v>
+        <v>-562601.488941099</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6018,22 +6018,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.883</v>
+        <v>1.885</v>
       </c>
       <c r="C157" t="n">
-        <v>1.883</v>
+        <v>1.885</v>
       </c>
       <c r="D157" t="n">
-        <v>1.883</v>
+        <v>1.885</v>
       </c>
       <c r="E157" t="n">
-        <v>1.883</v>
+        <v>1.885</v>
       </c>
       <c r="F157" t="n">
-        <v>21002.2173</v>
+        <v>17819.1426</v>
       </c>
       <c r="G157" t="n">
-        <v>-975721.8790410995</v>
+        <v>-580420.6315410991</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6054,22 +6054,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.883</v>
+        <v>1.885</v>
       </c>
       <c r="C158" t="n">
-        <v>1.883</v>
+        <v>1.885</v>
       </c>
       <c r="D158" t="n">
-        <v>1.883</v>
+        <v>1.885</v>
       </c>
       <c r="E158" t="n">
-        <v>1.883</v>
+        <v>1.885</v>
       </c>
       <c r="F158" t="n">
-        <v>18325.7739</v>
+        <v>173087.0638</v>
       </c>
       <c r="G158" t="n">
-        <v>-975721.8790410995</v>
+        <v>-580420.6315410991</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6090,22 +6090,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.883</v>
+        <v>1.885</v>
       </c>
       <c r="C159" t="n">
-        <v>1.883</v>
+        <v>1.884</v>
       </c>
       <c r="D159" t="n">
-        <v>1.883</v>
+        <v>1.885</v>
       </c>
       <c r="E159" t="n">
-        <v>1.883</v>
+        <v>1.884</v>
       </c>
       <c r="F159" t="n">
-        <v>35927.24</v>
+        <v>85395.8554</v>
       </c>
       <c r="G159" t="n">
-        <v>-975721.8790410995</v>
+        <v>-665816.4869410991</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6126,22 +6126,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.883</v>
+        <v>1.884</v>
       </c>
       <c r="C160" t="n">
-        <v>1.883</v>
+        <v>1.884</v>
       </c>
       <c r="D160" t="n">
-        <v>1.883</v>
+        <v>1.884</v>
       </c>
       <c r="E160" t="n">
-        <v>1.883</v>
+        <v>1.884</v>
       </c>
       <c r="F160" t="n">
-        <v>25442.11</v>
+        <v>127656.8536</v>
       </c>
       <c r="G160" t="n">
-        <v>-975721.8790410995</v>
+        <v>-665816.4869410991</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6162,7 +6162,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.885</v>
+        <v>1.883</v>
       </c>
       <c r="C161" t="n">
         <v>1.885</v>
@@ -6171,13 +6171,13 @@
         <v>1.885</v>
       </c>
       <c r="E161" t="n">
-        <v>1.885</v>
+        <v>1.882</v>
       </c>
       <c r="F161" t="n">
-        <v>35580.2922</v>
+        <v>118388</v>
       </c>
       <c r="G161" t="n">
-        <v>-940141.5868410994</v>
+        <v>-547428.4869410991</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6198,22 +6198,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.885</v>
+        <v>1.882</v>
       </c>
       <c r="C162" t="n">
-        <v>1.885</v>
+        <v>1.882</v>
       </c>
       <c r="D162" t="n">
-        <v>1.885</v>
+        <v>1.882</v>
       </c>
       <c r="E162" t="n">
-        <v>1.885</v>
+        <v>1.882</v>
       </c>
       <c r="F162" t="n">
-        <v>18623.8989</v>
+        <v>57504.1236</v>
       </c>
       <c r="G162" t="n">
-        <v>-940141.5868410994</v>
+        <v>-604932.6105410991</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6234,22 +6234,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.885</v>
+        <v>1.881</v>
       </c>
       <c r="C163" t="n">
-        <v>1.885</v>
+        <v>1.881</v>
       </c>
       <c r="D163" t="n">
-        <v>1.885</v>
+        <v>1.881</v>
       </c>
       <c r="E163" t="n">
-        <v>1.885</v>
+        <v>1.881</v>
       </c>
       <c r="F163" t="n">
-        <v>19434.5067</v>
+        <v>52416.1212</v>
       </c>
       <c r="G163" t="n">
-        <v>-940141.5868410994</v>
+        <v>-657348.7317410992</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6270,22 +6270,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1.885</v>
+        <v>1.881</v>
       </c>
       <c r="C164" t="n">
-        <v>1.885</v>
+        <v>1.881</v>
       </c>
       <c r="D164" t="n">
-        <v>1.885</v>
+        <v>1.881</v>
       </c>
       <c r="E164" t="n">
-        <v>1.885</v>
+        <v>1.881</v>
       </c>
       <c r="F164" t="n">
-        <v>49421.0964</v>
+        <v>292808.4019</v>
       </c>
       <c r="G164" t="n">
-        <v>-940141.5868410994</v>
+        <v>-657348.7317410992</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6306,35 +6306,31 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1.885</v>
+        <v>1.88</v>
       </c>
       <c r="C165" t="n">
-        <v>1.885</v>
+        <v>1.88</v>
       </c>
       <c r="D165" t="n">
-        <v>1.885</v>
+        <v>1.88</v>
       </c>
       <c r="E165" t="n">
-        <v>1.885</v>
+        <v>1.88</v>
       </c>
       <c r="F165" t="n">
-        <v>23754.0985</v>
+        <v>19191.5565</v>
       </c>
       <c r="G165" t="n">
-        <v>-940141.5868410994</v>
+        <v>-676540.2882410991</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K165" t="n">
-        <v>1.885</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
@@ -6346,520 +6342,434 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.886</v>
+        <v>1.88</v>
       </c>
       <c r="C166" t="n">
-        <v>1.885</v>
+        <v>1.88</v>
       </c>
       <c r="D166" t="n">
-        <v>1.886</v>
+        <v>1.88</v>
       </c>
       <c r="E166" t="n">
-        <v>1.885</v>
+        <v>1.88</v>
       </c>
       <c r="F166" t="n">
-        <v>40339.0217</v>
+        <v>21168.1718</v>
       </c>
       <c r="G166" t="n">
-        <v>-940141.5868410994</v>
+        <v>-676540.2882410991</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K166" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="L166" t="inlineStr">
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="F167" t="n">
+        <v>574430.1048</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-1250970.393041099</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="F168" t="n">
+        <v>39886.5962</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-1290856.989241099</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="F169" t="n">
+        <v>45728.5586</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-1290856.989241099</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="F170" t="n">
+        <v>10255.2361</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-1290856.989241099</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="F171" t="n">
+        <v>8455.7567</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-1299312.745941099</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F172" t="n">
+        <v>264.7123</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-1299048.033641099</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F173" t="n">
+        <v>67081.9103</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-1366129.943941099</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="F174" t="n">
+        <v>20088.0939</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-1386218.037841099</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="F175" t="n">
+        <v>30987.6309</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-1386218.037841099</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F176" t="n">
+        <v>21482.5903</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-1364735.447541099</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F177" t="n">
+        <v>192016.419</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1364735.447541099</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="C167" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="D167" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="F167" t="n">
-        <v>24980.4039</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-940141.5868410994</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K167" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="C168" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="D168" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="E168" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="F168" t="n">
-        <v>19095.2027</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-940141.5868410994</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K168" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="D169" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="E169" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="F169" t="n">
-        <v>44711.1704</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-940141.5868410994</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K169" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="D170" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="E170" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="F170" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-1000141.586841099</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K170" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="D171" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="E171" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="F171" t="n">
-        <v>52891.8439</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-1000141.586841099</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="K171" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="D172" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="E172" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="F172" t="n">
-        <v>179418.0864</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-1179559.673241099</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="K172" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="D173" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="E173" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="F173" t="n">
-        <v>28117.2986</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-1179559.673241099</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="K173" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D174" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E174" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F174" t="n">
-        <v>14302.226</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-1165257.447241099</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="K174" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="F175" t="n">
-        <v>437999.2839</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-1603256.731141099</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K175" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D176" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E176" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F176" t="n">
-        <v>424428.9704</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-2027685.701541099</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D177" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E177" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F177" t="n">
-        <v>144329.3116</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-2172015.013141099</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6870,33 +6780,33 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1.88</v>
+        <v>1.894</v>
       </c>
       <c r="C178" t="n">
-        <v>1.88</v>
+        <v>1.894</v>
       </c>
       <c r="D178" t="n">
-        <v>1.88</v>
+        <v>1.894</v>
       </c>
       <c r="E178" t="n">
-        <v>1.88</v>
+        <v>1.894</v>
       </c>
       <c r="F178" t="n">
-        <v>5507</v>
+        <v>19731.3523</v>
       </c>
       <c r="G178" t="n">
-        <v>-2172015.013141099</v>
+        <v>-1345004.095241099</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>1.885</v>
-      </c>
+      <c r="J178" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6912,22 +6822,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1.881</v>
+        <v>1.893</v>
       </c>
       <c r="C179" t="n">
-        <v>1.89</v>
+        <v>1.894</v>
       </c>
       <c r="D179" t="n">
-        <v>1.89</v>
+        <v>1.894</v>
       </c>
       <c r="E179" t="n">
-        <v>1.879</v>
+        <v>1.893</v>
       </c>
       <c r="F179" t="n">
-        <v>263963.5872</v>
+        <v>75915.4905</v>
       </c>
       <c r="G179" t="n">
-        <v>-1908051.425941099</v>
+        <v>-1345004.095241099</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6936,9 +6846,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>1.885</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6954,35 +6862,31 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1.89</v>
+        <v>1.894</v>
       </c>
       <c r="C180" t="n">
-        <v>1.89</v>
+        <v>1.894</v>
       </c>
       <c r="D180" t="n">
-        <v>1.89</v>
+        <v>1.894</v>
       </c>
       <c r="E180" t="n">
-        <v>1.875</v>
+        <v>1.894</v>
       </c>
       <c r="F180" t="n">
-        <v>399086.1759</v>
+        <v>127539.8291</v>
       </c>
       <c r="G180" t="n">
-        <v>-1908051.425941099</v>
+        <v>-1345004.095241099</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K180" t="n">
-        <v>1.885</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6998,22 +6902,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1.89</v>
+        <v>1.894</v>
       </c>
       <c r="C181" t="n">
-        <v>1.883</v>
+        <v>1.894</v>
       </c>
       <c r="D181" t="n">
-        <v>1.89</v>
+        <v>1.894</v>
       </c>
       <c r="E181" t="n">
-        <v>1.883</v>
+        <v>1.894</v>
       </c>
       <c r="F181" t="n">
-        <v>138270.5356</v>
+        <v>67339.8946</v>
       </c>
       <c r="G181" t="n">
-        <v>-2046321.961541099</v>
+        <v>-1345004.095241099</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7022,9 +6926,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>1.885</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7040,22 +6942,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1.883</v>
+        <v>1.894</v>
       </c>
       <c r="C182" t="n">
-        <v>1.883</v>
+        <v>1.894</v>
       </c>
       <c r="D182" t="n">
-        <v>1.883</v>
+        <v>1.894</v>
       </c>
       <c r="E182" t="n">
-        <v>1.883</v>
+        <v>1.894</v>
       </c>
       <c r="F182" t="n">
-        <v>2000</v>
+        <v>65492.993</v>
       </c>
       <c r="G182" t="n">
-        <v>-2046321.961541099</v>
+        <v>-1345004.095241099</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7064,9 +6966,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>1.885</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7082,35 +6982,31 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1.883</v>
+        <v>1.88</v>
       </c>
       <c r="C183" t="n">
-        <v>1.884</v>
+        <v>1.894</v>
       </c>
       <c r="D183" t="n">
-        <v>1.884</v>
+        <v>1.894</v>
       </c>
       <c r="E183" t="n">
-        <v>1.883</v>
+        <v>1.88</v>
       </c>
       <c r="F183" t="n">
-        <v>68764</v>
+        <v>169173.9569</v>
       </c>
       <c r="G183" t="n">
-        <v>-1977557.961541099</v>
+        <v>-1345004.095241099</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1.885</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7126,35 +7022,31 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1.891</v>
+        <v>1.894</v>
       </c>
       <c r="C184" t="n">
-        <v>1.891</v>
+        <v>1.895</v>
       </c>
       <c r="D184" t="n">
-        <v>1.891</v>
+        <v>1.895</v>
       </c>
       <c r="E184" t="n">
-        <v>1.891</v>
+        <v>1.894</v>
       </c>
       <c r="F184" t="n">
-        <v>622040</v>
+        <v>220100.4811</v>
       </c>
       <c r="G184" t="n">
-        <v>-1355517.961541099</v>
+        <v>-1124903.614141099</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K184" t="n">
-        <v>1.885</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7170,22 +7062,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1.891</v>
+        <v>1.894</v>
       </c>
       <c r="C185" t="n">
-        <v>1.9</v>
+        <v>1.893</v>
       </c>
       <c r="D185" t="n">
-        <v>1.9</v>
+        <v>1.894</v>
       </c>
       <c r="E185" t="n">
-        <v>1.891</v>
+        <v>1.893</v>
       </c>
       <c r="F185" t="n">
-        <v>24311.123</v>
+        <v>122351.9998</v>
       </c>
       <c r="G185" t="n">
-        <v>-1331206.8385411</v>
+        <v>-1247255.613941099</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7194,9 +7086,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>1.885</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7212,22 +7102,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1.9</v>
+        <v>1.883</v>
       </c>
       <c r="C186" t="n">
-        <v>1.9</v>
+        <v>1.883</v>
       </c>
       <c r="D186" t="n">
-        <v>1.9</v>
+        <v>1.883</v>
       </c>
       <c r="E186" t="n">
-        <v>1.9</v>
+        <v>1.883</v>
       </c>
       <c r="F186" t="n">
-        <v>35000</v>
+        <v>357365.3113</v>
       </c>
       <c r="G186" t="n">
-        <v>-1331206.8385411</v>
+        <v>-1604620.925241099</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7236,9 +7126,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>1.885</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7254,22 +7142,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1.9</v>
+        <v>1.883</v>
       </c>
       <c r="C187" t="n">
-        <v>1.891</v>
+        <v>1.883</v>
       </c>
       <c r="D187" t="n">
-        <v>1.9</v>
+        <v>1.883</v>
       </c>
       <c r="E187" t="n">
-        <v>1.891</v>
+        <v>1.883</v>
       </c>
       <c r="F187" t="n">
-        <v>22867.3772</v>
+        <v>6000</v>
       </c>
       <c r="G187" t="n">
-        <v>-1354074.2157411</v>
+        <v>-1604620.925241099</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7278,9 +7166,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>1.885</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7296,22 +7182,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1.891</v>
+        <v>1.883</v>
       </c>
       <c r="C188" t="n">
-        <v>1.884</v>
+        <v>1.902</v>
       </c>
       <c r="D188" t="n">
-        <v>1.891</v>
+        <v>1.902</v>
       </c>
       <c r="E188" t="n">
-        <v>1.884</v>
+        <v>1.883</v>
       </c>
       <c r="F188" t="n">
-        <v>499691.5829</v>
+        <v>20262.9192</v>
       </c>
       <c r="G188" t="n">
-        <v>-1853765.7986411</v>
+        <v>-1584358.006041099</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7320,9 +7206,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>1.885</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7338,22 +7222,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1.884</v>
+        <v>1.883</v>
       </c>
       <c r="C189" t="n">
-        <v>1.884</v>
+        <v>1.893</v>
       </c>
       <c r="D189" t="n">
-        <v>1.884</v>
+        <v>1.893</v>
       </c>
       <c r="E189" t="n">
-        <v>1.884</v>
+        <v>1.883</v>
       </c>
       <c r="F189" t="n">
-        <v>2000</v>
+        <v>73018.74249999999</v>
       </c>
       <c r="G189" t="n">
-        <v>-1853765.7986411</v>
+        <v>-1657376.748541099</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7362,9 +7246,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>1.885</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7380,22 +7262,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1.884</v>
+        <v>1.883</v>
       </c>
       <c r="C190" t="n">
-        <v>1.884</v>
+        <v>1.883</v>
       </c>
       <c r="D190" t="n">
-        <v>1.884</v>
+        <v>1.883</v>
       </c>
       <c r="E190" t="n">
-        <v>1.884</v>
+        <v>1.883</v>
       </c>
       <c r="F190" t="n">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="G190" t="n">
-        <v>-1853765.7986411</v>
+        <v>-1659376.748541099</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7404,9 +7286,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>1.885</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7422,22 +7302,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1.884</v>
+        <v>1.883</v>
       </c>
       <c r="C191" t="n">
-        <v>1.884</v>
+        <v>1.883</v>
       </c>
       <c r="D191" t="n">
-        <v>1.884</v>
+        <v>1.883</v>
       </c>
       <c r="E191" t="n">
-        <v>1.884</v>
+        <v>1.883</v>
       </c>
       <c r="F191" t="n">
-        <v>42000</v>
+        <v>29585.2415</v>
       </c>
       <c r="G191" t="n">
-        <v>-1853765.7986411</v>
+        <v>-1659376.748541099</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7446,9 +7326,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>1.885</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7464,35 +7342,31 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1.881</v>
+        <v>1.883</v>
       </c>
       <c r="C192" t="n">
-        <v>1.884</v>
+        <v>1.889</v>
       </c>
       <c r="D192" t="n">
-        <v>1.884</v>
+        <v>1.889</v>
       </c>
       <c r="E192" t="n">
-        <v>1.881</v>
+        <v>1.883</v>
       </c>
       <c r="F192" t="n">
-        <v>87460</v>
+        <v>156201.6877</v>
       </c>
       <c r="G192" t="n">
-        <v>-1853765.7986411</v>
+        <v>-1503175.060841099</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K192" t="n">
-        <v>1.885</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7508,22 +7382,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1.874</v>
+        <v>1.897</v>
       </c>
       <c r="C193" t="n">
-        <v>1.88</v>
+        <v>1.897</v>
       </c>
       <c r="D193" t="n">
-        <v>1.88</v>
+        <v>1.897</v>
       </c>
       <c r="E193" t="n">
-        <v>1.874</v>
+        <v>1.897</v>
       </c>
       <c r="F193" t="n">
-        <v>29260</v>
+        <v>498519.2179</v>
       </c>
       <c r="G193" t="n">
-        <v>-1883025.7986411</v>
+        <v>-1004655.842941099</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7532,9 +7406,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>1.885</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7550,35 +7422,31 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="C194" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="D194" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="E194" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="F194" t="n">
-        <v>740</v>
+        <v>263.2525</v>
       </c>
       <c r="G194" t="n">
-        <v>-1883025.7986411</v>
+        <v>-1004392.590441099</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K194" t="n">
-        <v>1.885</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7589,6 +7457,2900 @@
       </c>
       <c r="N194" t="inlineStr"/>
     </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-1005392.590441099</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-1005392.590441099</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F197" t="n">
+        <v>48520.7584</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-1005392.590441099</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F198" t="n">
+        <v>18064.5458</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-1005392.590441099</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-1005392.590441099</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F200" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-1005392.590441099</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F201" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-1005392.590441099</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F202" t="n">
+        <v>20521.4468</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-1005392.590441099</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2463.7668</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-1002928.823641099</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F204" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-1006928.823641099</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-1006928.823641099</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F206" t="n">
+        <v>23323.1986</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-1006928.823641099</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F207" t="n">
+        <v>22889.1463</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-1006928.823641099</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F208" t="n">
+        <v>4263.2525</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-1006928.823641099</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F209" t="n">
+        <v>26457.0198</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-1006928.823641099</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F210" t="n">
+        <v>20192.8208</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-1006928.823641099</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F211" t="n">
+        <v>22077.5397</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-1006928.823641099</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F212" t="n">
+        <v>33862.4631</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-1006928.823641099</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F213" t="n">
+        <v>26606.8141</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-980322.0095410994</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F214" t="n">
+        <v>53692.6711</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-980322.0095410994</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F215" t="n">
+        <v>31150.5148</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-980322.0095410994</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-981322.0095410994</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F217" t="n">
+        <v>25401.4858</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-955920.5237410994</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-955920.5237410994</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-955920.5237410994</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F220" t="n">
+        <v>25187.9656</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-955920.5237410994</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1640.5486</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-955920.5237410994</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F222" t="n">
+        <v>45301.66</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-955920.5237410994</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="F223" t="n">
+        <v>19801.3553</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-975721.8790410995</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="F224" t="n">
+        <v>17230.1142</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-975721.8790410995</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="F225" t="n">
+        <v>12415.027</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-975721.8790410995</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="F226" t="n">
+        <v>19159.7241</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-975721.8790410995</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="F227" t="n">
+        <v>24734.7957</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-975721.8790410995</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="F228" t="n">
+        <v>21002.2173</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-975721.8790410995</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="F229" t="n">
+        <v>18325.7739</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-975721.8790410995</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="F230" t="n">
+        <v>35927.24</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-975721.8790410995</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="F231" t="n">
+        <v>25442.11</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-975721.8790410995</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="F232" t="n">
+        <v>35580.2922</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-940141.5868410994</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="F233" t="n">
+        <v>18623.8989</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-940141.5868410994</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="F234" t="n">
+        <v>19434.5067</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-940141.5868410994</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="F235" t="n">
+        <v>49421.0964</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-940141.5868410994</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="F236" t="n">
+        <v>23754.0985</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-940141.5868410994</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="F237" t="n">
+        <v>40339.0217</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-940141.5868410994</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="F238" t="n">
+        <v>24980.4039</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-940141.5868410994</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="F239" t="n">
+        <v>19095.2027</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-940141.5868410994</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="F240" t="n">
+        <v>44711.1704</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-940141.5868410994</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="F241" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-1000141.586841099</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="F242" t="n">
+        <v>52891.8439</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-1000141.586841099</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="F243" t="n">
+        <v>179418.0864</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-1179559.673241099</v>
+      </c>
+      <c r="H243" t="n">
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="F244" t="n">
+        <v>28117.2986</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-1179559.673241099</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F245" t="n">
+        <v>14302.226</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-1165257.447241099</v>
+      </c>
+      <c r="H245" t="n">
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="F246" t="n">
+        <v>437999.2839</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-1603256.731141099</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F247" t="n">
+        <v>424428.9704</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-2027685.701541099</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F248" t="n">
+        <v>144329.3116</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-2172015.013141099</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F249" t="n">
+        <v>5507</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-2172015.013141099</v>
+      </c>
+      <c r="H249" t="n">
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="F250" t="n">
+        <v>263963.5872</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-1908051.425941099</v>
+      </c>
+      <c r="H250" t="n">
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="F251" t="n">
+        <v>399086.1759</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-1908051.425941099</v>
+      </c>
+      <c r="H251" t="n">
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="F252" t="n">
+        <v>138270.5356</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-2046321.961541099</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="F253" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-2046321.961541099</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="F254" t="n">
+        <v>68764</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-1977557.961541099</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="F255" t="n">
+        <v>622040</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-1355517.961541099</v>
+      </c>
+      <c r="H255" t="n">
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="F256" t="n">
+        <v>24311.123</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-1331206.8385411</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F257" t="n">
+        <v>35000</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-1331206.8385411</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="F258" t="n">
+        <v>22867.3772</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-1354074.2157411</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="F259" t="n">
+        <v>499691.5829</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-1853765.7986411</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="F260" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-1853765.7986411</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="F261" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-1853765.7986411</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="F262" t="n">
+        <v>42000</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-1853765.7986411</v>
+      </c>
+      <c r="H262" t="n">
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F263" t="n">
+        <v>87460</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-1853765.7986411</v>
+      </c>
+      <c r="H263" t="n">
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="F264" t="n">
+        <v>29260</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-1883025.7986411</v>
+      </c>
+      <c r="H264" t="n">
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F265" t="n">
+        <v>740</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-1883025.7986411</v>
+      </c>
+      <c r="H265" t="n">
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-13 BackTest HYC.xlsx
+++ b/BackTest/2020-01-13 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>1886915.2552</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>2367466.3536</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>2338656.5798</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2319414.0804</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>2319673.0804</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>2296467.1163</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>2264484.4418</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2264736.4418</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2264736.4418</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2264736.4418</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2388762.2951</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2388762.2951</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2388762.2951</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2388762.2951</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2389021.7658</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2353215.449</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2353215.449</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>2353215.449</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>2333405.9205</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>2333405.9205</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>2333405.9205</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1823433.360499999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1823433.360499999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1823433.360499999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>1823433.360499999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1800991.171399999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>1800991.171399999</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>1800991.171399999</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>1800991.171399999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>1800991.171399999</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>1781586.540199999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>1694000.798599999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>1784030.798499999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>1784030.798499999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>1745342.574999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1846891.989499999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1750341.989499999</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1481329.557399999</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1543582.866799999</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1514292.866799999</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1592925.891499999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>960003.7830999992</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>966095.2973999992</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>483007.6019999992</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>483007.6019999992</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>483007.6019999992</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>483007.6019999992</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>483007.6019999992</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>460932.6019999992</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>460932.6019999992</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>460932.6019999992</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>460932.6019999992</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>79011.36779999919</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-11306.25090000081</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-11306.25090000081</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-11306.25090000081</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>14798.78479999919</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-275507.8558000008</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-292017.0110000008</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -6259,10 +6259,14 @@
         <v>-1345004.095241099</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
@@ -6292,11 +6296,19 @@
         <v>-1345004.095241099</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6337,19 @@
         <v>-1345004.095241099</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +6741,17 @@
         <v>-1503175.060841099</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1.883</v>
+      </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +6784,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +6821,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +6858,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +6895,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +6932,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +6965,17 @@
         <v>-1005392.590441099</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1.889</v>
+      </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +7004,17 @@
         <v>-1005392.590441099</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1.889</v>
+      </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6989,7 +7047,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7080,17 @@
         <v>-1005392.590441099</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1.889</v>
+      </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,15 +7119,17 @@
         <v>-1005392.590441099</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>1.889</v>
       </c>
-      <c r="J202" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7091,12 +7161,10 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L203" t="n">
@@ -7130,9 +7198,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7169,9 +7235,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7208,9 +7272,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7247,9 +7309,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7286,9 +7346,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7325,9 +7383,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7364,9 +7420,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7403,9 +7457,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7442,9 +7494,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7481,9 +7531,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7520,9 +7568,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7559,9 +7605,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7595,12 +7639,12 @@
         <v>-981322.0095410994</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>1.889</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7634,12 +7678,12 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>1.889</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7673,12 +7717,12 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>1.889</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7715,9 +7759,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7754,9 +7796,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7790,12 +7830,12 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>1.889</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7829,14 +7869,10 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J222" t="n">
-        <v>1.889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7873,9 +7909,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7909,12 +7943,12 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>1.889</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7948,14 +7982,10 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="J225" t="n">
-        <v>1.889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7989,14 +8019,12 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>1.883</v>
       </c>
-      <c r="J226" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8030,14 +8058,12 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>1.883</v>
       </c>
-      <c r="J227" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8071,14 +8097,10 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="J228" t="n">
-        <v>1.889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8115,9 +8137,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8154,9 +8174,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8193,9 +8211,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8232,9 +8248,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8271,9 +8285,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8310,9 +8322,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8349,9 +8359,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8385,14 +8393,10 @@
         <v>-940141.5868410994</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="J236" t="n">
-        <v>1.889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8429,9 +8433,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8468,9 +8470,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8507,9 +8507,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8543,14 +8541,12 @@
         <v>-940141.5868410994</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>1.885</v>
       </c>
-      <c r="J240" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8587,9 +8583,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8623,14 +8617,10 @@
         <v>-1000141.586841099</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="J242" t="n">
-        <v>1.889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8664,14 +8654,12 @@
         <v>-1179559.673241099</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>1.883</v>
       </c>
-      <c r="J243" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8705,14 +8693,12 @@
         <v>-1179559.673241099</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>1.879</v>
       </c>
-      <c r="J244" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8746,12 +8732,12 @@
         <v>-1165257.447241099</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>1.889</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8788,9 +8774,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8827,9 +8811,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8866,9 +8848,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8902,12 +8882,12 @@
         <v>-2172015.013141099</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>1.889</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8941,14 +8921,12 @@
         <v>-1908051.425941099</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>1.88</v>
       </c>
-      <c r="J250" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8982,14 +8960,12 @@
         <v>-1908051.425941099</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>1.89</v>
       </c>
-      <c r="J251" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9023,14 +8999,12 @@
         <v>-2046321.961541099</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>1.89</v>
       </c>
-      <c r="J252" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9064,14 +9038,12 @@
         <v>-2046321.961541099</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>1.883</v>
       </c>
-      <c r="J253" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9105,14 +9077,12 @@
         <v>-1977557.961541099</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>1.883</v>
       </c>
-      <c r="J254" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9146,14 +9116,12 @@
         <v>-1355517.961541099</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>1.884</v>
       </c>
-      <c r="J255" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9187,14 +9155,10 @@
         <v>-1331206.8385411</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>1.891</v>
-      </c>
-      <c r="J256" t="n">
-        <v>1.889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9231,9 +9195,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9267,14 +9229,10 @@
         <v>-1354074.2157411</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J258" t="n">
-        <v>1.889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9311,9 +9269,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9347,14 +9303,10 @@
         <v>-1853765.7986411</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="J260" t="n">
-        <v>1.889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9388,14 +9340,12 @@
         <v>-1853765.7986411</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>1.884</v>
       </c>
-      <c r="J261" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9429,14 +9379,10 @@
         <v>-1853765.7986411</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="J262" t="n">
-        <v>1.889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9470,14 +9416,12 @@
         <v>-1853765.7986411</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>1.884</v>
       </c>
-      <c r="J263" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9511,14 +9455,12 @@
         <v>-1883025.7986411</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>1.884</v>
       </c>
-      <c r="J264" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9552,14 +9494,12 @@
         <v>-1883025.7986411</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>1.88</v>
       </c>
-      <c r="J265" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9571,6 +9511,6 @@
       <c r="M265" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest HYC.xlsx
+++ b/BackTest/2020-01-13 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -979,7 +979,7 @@
         <v>2388762.2951</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2388762.2951</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2388762.2951</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2388762.2951</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2389021.7658</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2353215.449</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2353215.449</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>2353215.449</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>2333405.9205</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>2333405.9205</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>2333405.9205</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1823433.360499999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1823433.360499999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1823433.360499999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>1823433.360499999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1800991.171399999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>1800991.171399999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>1800991.171399999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>1800991.171399999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>1800991.171399999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>1781586.540199999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>1694000.798599999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>1784030.798499999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>1784030.798499999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>1745342.574999999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1846891.989499999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1750341.989499999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1514292.866799999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1592925.891499999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>960003.7830999992</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>966095.2973999992</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>483007.6019999992</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>483007.6019999992</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>483007.6019999992</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>483007.6019999992</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>483007.6019999992</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>460932.6019999992</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>460932.6019999992</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>460932.6019999992</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>460932.6019999992</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>79011.36779999919</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-11306.25090000081</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-11306.25090000081</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-11306.25090000081</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>14798.78479999919</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-275507.8558000008</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-292017.0110000008</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-1798742.876741099</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-2050607.485641099</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-2128411.600041099</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-2128149.600041099</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -6259,14 +6259,10 @@
         <v>-1345004.095241099</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J178" t="n">
-        <v>1.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
@@ -6296,19 +6292,11 @@
         <v>-1345004.095241099</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="J179" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6337,19 +6325,11 @@
         <v>-1345004.095241099</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="J180" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6741,17 +6721,11 @@
         <v>-1503175.060841099</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1.883</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6784,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6821,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6858,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6895,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6932,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6965,17 +6919,11 @@
         <v>-1005392.590441099</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1.889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7004,17 +6952,11 @@
         <v>-1005392.590441099</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1.889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7047,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7080,17 +7018,11 @@
         <v>-1005392.590441099</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1.889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7119,17 +7051,11 @@
         <v>-1005392.590441099</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1.889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7162,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7199,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7236,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7273,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7310,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7347,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7384,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7421,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7458,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7495,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7532,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7569,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7602,15 +7480,11 @@
         <v>-980322.0095410994</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7639,17 +7513,11 @@
         <v>-981322.0095410994</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>1.89</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7678,17 +7546,11 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>1.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7717,17 +7579,11 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1.89</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7756,15 +7612,11 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7793,15 +7645,11 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7830,17 +7678,11 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>1.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7873,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7906,15 +7744,11 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7943,17 +7777,11 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>1.883</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7986,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8019,17 +7843,11 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>1.883</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8058,17 +7876,11 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>1.883</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8101,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8138,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8175,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8212,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8249,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8286,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8323,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8360,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8397,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8434,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8471,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8508,11 +8276,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8541,17 +8305,11 @@
         <v>-940141.5868410994</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>1.885</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8584,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8621,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8654,17 +8404,11 @@
         <v>-1179559.673241099</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>1.883</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8698,12 +8442,10 @@
       <c r="I244" t="n">
         <v>1.879</v>
       </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8737,10 +8479,12 @@
       <c r="I245" t="n">
         <v>1.879</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1.879</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L245" t="n">
@@ -8774,10 +8518,12 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1.879</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L246" t="n">
@@ -8812,11 +8558,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8849,11 +8591,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8882,17 +8620,11 @@
         <v>-2172015.013141099</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>1.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8921,17 +8653,11 @@
         <v>-1908051.425941099</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>1.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8960,17 +8686,11 @@
         <v>-1908051.425941099</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>1.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8999,17 +8719,11 @@
         <v>-2046321.961541099</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>1.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9038,17 +8752,11 @@
         <v>-2046321.961541099</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>1.883</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9077,17 +8785,11 @@
         <v>-1977557.961541099</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>1.883</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9116,17 +8818,11 @@
         <v>-1355517.961541099</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>1.884</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9159,11 +8855,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +8888,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9233,11 +8921,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9270,11 +8954,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9307,11 +8987,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9340,17 +9016,11 @@
         <v>-1853765.7986411</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>1.884</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9383,11 +9053,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9416,17 +9082,11 @@
         <v>-1853765.7986411</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>1.884</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9455,17 +9115,11 @@
         <v>-1883025.7986411</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>1.884</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9494,23 +9148,17 @@
         <v>-1883025.7986411</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>1.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
       <c r="M265" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest HYC.xlsx
+++ b/BackTest/2020-01-13 BackTest HYC.xlsx
@@ -484,7 +484,7 @@
         <v>1886915.2552</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>2367466.3536</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2264736.4418</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2264736.4418</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2264736.4418</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2264736.4418</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2388762.2951</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2389021.7658</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2353215.449</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2353215.449</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>2353215.449</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>2333405.9205</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>2333405.9205</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>2333405.9205</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1823433.360499999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1823433.360499999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-1798742.876741099</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-2050607.485641099</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-2128411.600041099</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-2128149.600041099</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -7348,10 +7348,14 @@
         <v>-1006928.823641099</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1.889</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
@@ -7381,11 +7385,19 @@
         <v>-1006928.823641099</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +7426,19 @@
         <v>-980322.0095410994</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,10 +7467,14 @@
         <v>-980322.0095410994</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1.89</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
@@ -7480,11 +7504,19 @@
         <v>-980322.0095410994</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +7545,19 @@
         <v>-981322.0095410994</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J216" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7546,10 +7586,14 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1.88</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
@@ -7579,11 +7623,19 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7612,11 +7664,19 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7645,10 +7705,14 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1.89</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
@@ -7678,11 +7742,19 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7711,11 +7783,19 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7744,10 +7824,14 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1.89</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
@@ -7777,11 +7861,19 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +7902,19 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7843,10 +7943,14 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1.883</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
@@ -7876,11 +7980,19 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +8021,19 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7942,10 +8062,14 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="J229" t="n">
+        <v>1.883</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
@@ -7978,8 +8102,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8011,8 +8141,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8305,10 +8441,14 @@
         <v>-940141.5868410994</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1.885</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
@@ -8338,11 +8478,19 @@
         <v>-1000141.586841099</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8519,19 @@
         <v>-1000141.586841099</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="J242" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8560,19 @@
         <v>-1179559.673241099</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="J243" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8443,9 +8607,13 @@
         <v>1.879</v>
       </c>
       <c r="J244" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="K244" t="inlineStr"/>
+        <v>1.885</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8480,11 +8648,11 @@
         <v>1.879</v>
       </c>
       <c r="J245" t="n">
-        <v>1.879</v>
+        <v>1.885</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L245" t="n">
@@ -8519,11 +8687,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>1.879</v>
+        <v>1.885</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L246" t="n">
@@ -8557,8 +8725,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8590,8 +8764,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8623,8 +8803,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8656,8 +8842,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8686,11 +8878,19 @@
         <v>-1908051.425941099</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8722,8 +8922,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8755,8 +8961,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8785,11 +8997,19 @@
         <v>-1977557.961541099</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8821,8 +9041,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8854,8 +9080,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8887,8 +9119,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8920,8 +9158,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8953,8 +9197,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8986,8 +9236,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9019,8 +9275,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9052,8 +9314,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9085,8 +9353,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9118,8 +9392,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9148,11 +9428,19 @@
         <v>-1883025.7986411</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J265" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-13 BackTest HYC.xlsx
+++ b/BackTest/2020-01-13 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M265"/>
+  <dimension ref="A1:L265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>63216.7452</v>
       </c>
       <c r="G2" t="n">
-        <v>2115307.7452</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>228392.49</v>
       </c>
       <c r="G3" t="n">
-        <v>1886915.2552</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>480551.0984</v>
       </c>
       <c r="G4" t="n">
-        <v>2367466.3536</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>28809.7738</v>
       </c>
       <c r="G5" t="n">
-        <v>2338656.5798</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>19242.4994</v>
       </c>
       <c r="G6" t="n">
-        <v>2319414.0804</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>259</v>
       </c>
       <c r="G7" t="n">
-        <v>2319673.0804</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>23205.9641</v>
       </c>
       <c r="G8" t="n">
-        <v>2296467.1163</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>256</v>
       </c>
       <c r="G9" t="n">
-        <v>2296723.1163</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>32238.6745</v>
       </c>
       <c r="G10" t="n">
-        <v>2264484.4418</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>22138.4922</v>
       </c>
       <c r="G11" t="n">
-        <v>2264484.4418</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>29481.0275</v>
       </c>
       <c r="G12" t="n">
-        <v>2264484.4418</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>252</v>
       </c>
       <c r="G13" t="n">
-        <v>2264736.4418</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>18425.2732</v>
       </c>
       <c r="G14" t="n">
-        <v>2264736.4418</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>25470.9801</v>
       </c>
       <c r="G15" t="n">
-        <v>2264736.4418</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>235899.4374</v>
       </c>
       <c r="G16" t="n">
-        <v>2264736.4418</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>15807.5259</v>
       </c>
       <c r="G17" t="n">
-        <v>2264736.4418</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>124025.8533</v>
       </c>
       <c r="G18" t="n">
-        <v>2388762.2951</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>23743.7167</v>
       </c>
       <c r="G19" t="n">
-        <v>2388762.2951</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>35677.206</v>
       </c>
       <c r="G20" t="n">
-        <v>2388762.2951</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>168943.1966</v>
       </c>
       <c r="G21" t="n">
-        <v>2388762.2951</v>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>259.4707</v>
       </c>
       <c r="G22" t="n">
-        <v>2389021.7658</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>35806.3168</v>
       </c>
       <c r="G23" t="n">
-        <v>2353215.449</v>
-      </c>
-      <c r="H23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>500780.311</v>
       </c>
       <c r="G24" t="n">
-        <v>2353215.449</v>
-      </c>
-      <c r="H24" t="n">
         <v>2</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>199786.806</v>
       </c>
       <c r="G25" t="n">
-        <v>2353215.449</v>
-      </c>
-      <c r="H25" t="n">
         <v>2</v>
       </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>19809.5285</v>
       </c>
       <c r="G26" t="n">
-        <v>2333405.9205</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>17770.5029</v>
       </c>
       <c r="G27" t="n">
-        <v>2333405.9205</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>131007.6727</v>
       </c>
       <c r="G28" t="n">
-        <v>2333405.9205</v>
-      </c>
-      <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>509972.56</v>
       </c>
       <c r="G29" t="n">
-        <v>1823433.360499999</v>
-      </c>
-      <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>22485.1553</v>
       </c>
       <c r="G30" t="n">
-        <v>1823433.360499999</v>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>20262.9323</v>
       </c>
       <c r="G31" t="n">
-        <v>1823433.360499999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>673934.4557</v>
       </c>
       <c r="G32" t="n">
-        <v>1823433.360499999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>48092.7228</v>
       </c>
       <c r="G33" t="n">
-        <v>1775340.637699999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>25650.5337</v>
       </c>
       <c r="G34" t="n">
-        <v>1800991.171399999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>17724.3172</v>
       </c>
       <c r="G35" t="n">
-        <v>1800991.171399999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>22433.7301</v>
       </c>
       <c r="G36" t="n">
-        <v>1800991.171399999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>17043.8976</v>
       </c>
       <c r="G37" t="n">
-        <v>1800991.171399999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>16819.0457</v>
       </c>
       <c r="G38" t="n">
-        <v>1800991.171399999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>29661.8985</v>
       </c>
       <c r="G39" t="n">
-        <v>1800991.171399999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>18942.277</v>
       </c>
       <c r="G40" t="n">
-        <v>1800991.171399999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>53902.8984</v>
       </c>
       <c r="G41" t="n">
-        <v>1800991.171399999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>20650.4711</v>
       </c>
       <c r="G42" t="n">
-        <v>1800991.171399999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>44925.8016</v>
       </c>
       <c r="G43" t="n">
-        <v>1800991.171399999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>19308.7421</v>
       </c>
       <c r="G44" t="n">
-        <v>1800991.171399999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>19404.6312</v>
       </c>
       <c r="G45" t="n">
-        <v>1781586.540199999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>87585.74159999999</v>
       </c>
       <c r="G46" t="n">
-        <v>1694000.798599999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>90029.9999</v>
       </c>
       <c r="G47" t="n">
-        <v>1784030.798499999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>74404.5276</v>
       </c>
       <c r="G48" t="n">
-        <v>1784030.798499999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>23841.1494</v>
       </c>
       <c r="G49" t="n">
-        <v>1807871.947899999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>62529.3729</v>
       </c>
       <c r="G50" t="n">
-        <v>1745342.574999999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>101549.4145</v>
       </c>
       <c r="G51" t="n">
-        <v>1846891.989499999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>96550</v>
       </c>
       <c r="G52" t="n">
-        <v>1750341.989499999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>46134.2307</v>
       </c>
       <c r="G53" t="n">
-        <v>1750341.989499999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>200050.2193</v>
       </c>
       <c r="G54" t="n">
-        <v>1550291.770199999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>28241.7659</v>
       </c>
       <c r="G55" t="n">
-        <v>1522050.004299999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>48026.4972</v>
       </c>
       <c r="G56" t="n">
-        <v>1522050.004299999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>20360.4465</v>
       </c>
       <c r="G57" t="n">
-        <v>1522050.004299999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>0.0001</v>
       </c>
       <c r="G58" t="n">
-        <v>1522050.004399999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>16619.9735</v>
       </c>
       <c r="G59" t="n">
-        <v>1522050.004399999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>6118.8621</v>
       </c>
       <c r="G60" t="n">
-        <v>1522050.004399999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>20360.447</v>
       </c>
       <c r="G61" t="n">
-        <v>1501689.557399999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>8661.0327</v>
       </c>
       <c r="G62" t="n">
-        <v>1501689.557399999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>20978.5203</v>
       </c>
       <c r="G63" t="n">
-        <v>1501689.557399999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>20360</v>
       </c>
       <c r="G64" t="n">
-        <v>1481329.557399999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>62253.3094</v>
       </c>
       <c r="G65" t="n">
-        <v>1543582.866799999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>29290</v>
       </c>
       <c r="G66" t="n">
-        <v>1514292.866799999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>78633.02469999999</v>
       </c>
       <c r="G67" t="n">
-        <v>1592925.891499999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>632922.1084</v>
       </c>
       <c r="G68" t="n">
-        <v>960003.7830999992</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>6091.5143</v>
       </c>
       <c r="G69" t="n">
-        <v>966095.2973999992</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>483087.6954</v>
       </c>
       <c r="G70" t="n">
-        <v>483007.6019999992</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>20847.648</v>
       </c>
       <c r="G71" t="n">
-        <v>483007.6019999992</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>56000</v>
       </c>
       <c r="G72" t="n">
-        <v>483007.6019999992</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>58000</v>
       </c>
       <c r="G73" t="n">
-        <v>483007.6019999992</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>6000</v>
       </c>
       <c r="G74" t="n">
-        <v>483007.6019999992</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>22075</v>
       </c>
       <c r="G75" t="n">
-        <v>460932.6019999992</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>454025</v>
       </c>
       <c r="G76" t="n">
-        <v>460932.6019999992</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>3578.4124</v>
       </c>
       <c r="G77" t="n">
-        <v>460932.6019999992</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>47000.8</v>
       </c>
       <c r="G78" t="n">
-        <v>460932.6019999992</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>381921.2342</v>
       </c>
       <c r="G79" t="n">
-        <v>79011.36779999919</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>90317.61870000001</v>
       </c>
       <c r="G80" t="n">
-        <v>-11306.25090000081</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>163000.6704</v>
       </c>
       <c r="G81" t="n">
-        <v>-11306.25090000081</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>361677.742</v>
       </c>
       <c r="G82" t="n">
-        <v>-11306.25090000081</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>26105.0357</v>
       </c>
       <c r="G83" t="n">
-        <v>14798.78479999919</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>290306.6406</v>
       </c>
       <c r="G84" t="n">
-        <v>-275507.8558000008</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>53854.35</v>
       </c>
       <c r="G85" t="n">
-        <v>-329362.2058000008</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>37345.1948</v>
       </c>
       <c r="G86" t="n">
-        <v>-292017.0110000008</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>261</v>
       </c>
       <c r="G87" t="n">
-        <v>-291756.0110000008</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>331764.363</v>
       </c>
       <c r="G88" t="n">
-        <v>-623520.3740000008</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>75803.64999999999</v>
       </c>
       <c r="G89" t="n">
-        <v>-699324.0240000008</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>3898.3753</v>
       </c>
       <c r="G90" t="n">
-        <v>-695425.6487000008</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>1191.299790356</v>
       </c>
       <c r="G91" t="n">
-        <v>-694234.3489096449</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>560</v>
       </c>
       <c r="G92" t="n">
-        <v>-694794.3489096449</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>61563.2561</v>
       </c>
       <c r="G93" t="n">
-        <v>-633231.0928096449</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>717.6004</v>
       </c>
       <c r="G94" t="n">
-        <v>-632513.4924096449</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>758246.166968546</v>
       </c>
       <c r="G95" t="n">
-        <v>125732.6745589011</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>34501.3847</v>
       </c>
       <c r="G96" t="n">
-        <v>91231.28985890112</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>59140.6439</v>
       </c>
       <c r="G97" t="n">
-        <v>150371.9337589011</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>758246.1669</v>
       </c>
       <c r="G98" t="n">
-        <v>-607874.2331410989</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>8256.154699999999</v>
       </c>
       <c r="G99" t="n">
-        <v>-599618.0784410989</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>259</v>
       </c>
       <c r="G100" t="n">
-        <v>-599359.0784410989</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>13078.4104</v>
       </c>
       <c r="G101" t="n">
-        <v>-599359.0784410989</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>839186.8663</v>
       </c>
       <c r="G102" t="n">
-        <v>-599359.0784410989</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>22440.7266</v>
       </c>
       <c r="G103" t="n">
-        <v>-576918.3518410989</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>45983.3921</v>
       </c>
       <c r="G104" t="n">
-        <v>-622901.7439410989</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>263.015</v>
       </c>
       <c r="G105" t="n">
-        <v>-622638.7289410989</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>262.7712</v>
       </c>
       <c r="G106" t="n">
-        <v>-622375.9577410989</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>22691.8075</v>
       </c>
       <c r="G107" t="n">
-        <v>-645067.7652410989</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>18839.6518</v>
       </c>
       <c r="G108" t="n">
-        <v>-663907.4170410989</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>22435.7307</v>
       </c>
       <c r="G109" t="n">
-        <v>-663907.4170410989</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>911.7043</v>
       </c>
       <c r="G110" t="n">
-        <v>-664819.1213410989</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>60391.7025</v>
       </c>
       <c r="G111" t="n">
-        <v>-604427.4188410989</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>64874.2691</v>
       </c>
       <c r="G112" t="n">
-        <v>-669301.6879410989</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>26990.097</v>
       </c>
       <c r="G113" t="n">
-        <v>-642311.590941099</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>44564.281</v>
       </c>
       <c r="G114" t="n">
-        <v>-686875.8719410989</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>112397.284</v>
       </c>
       <c r="G115" t="n">
-        <v>-574478.587941099</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>10391.1567</v>
       </c>
       <c r="G116" t="n">
-        <v>-584869.744641099</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>13798.1129</v>
       </c>
       <c r="G117" t="n">
-        <v>-571071.6317410991</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>15630</v>
       </c>
       <c r="G118" t="n">
-        <v>-571071.6317410991</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>35499.4488</v>
       </c>
       <c r="G119" t="n">
-        <v>-606571.0805410991</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>147463.6631</v>
       </c>
       <c r="G120" t="n">
-        <v>-754034.7436410991</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>50000</v>
       </c>
       <c r="G121" t="n">
-        <v>-804034.7436410991</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>262.6124</v>
       </c>
       <c r="G122" t="n">
-        <v>-803772.1312410991</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>816377.9518</v>
       </c>
       <c r="G123" t="n">
-        <v>-1620150.083041099</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>178592.7937</v>
       </c>
       <c r="G124" t="n">
-        <v>-1798742.876741099</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>5060.1847</v>
       </c>
       <c r="G125" t="n">
-        <v>-1798742.876741099</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>17480.8251</v>
       </c>
       <c r="G126" t="n">
-        <v>-1816223.701841099</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>48725.2327</v>
       </c>
       <c r="G127" t="n">
-        <v>-1767498.469141099</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>123317.1003</v>
       </c>
       <c r="G128" t="n">
-        <v>-1767498.469141099</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>17168.0417</v>
       </c>
       <c r="G129" t="n">
-        <v>-1767498.469141099</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>283372.0165</v>
       </c>
       <c r="G130" t="n">
-        <v>-2050870.485641099</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>2368.4806</v>
       </c>
       <c r="G131" t="n">
-        <v>-2050870.485641099</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>263</v>
       </c>
       <c r="G132" t="n">
-        <v>-2050607.485641099</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>77804.11440000001</v>
       </c>
       <c r="G133" t="n">
-        <v>-2128411.600041099</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>262</v>
       </c>
       <c r="G134" t="n">
-        <v>-2128149.600041099</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>171022.8605</v>
       </c>
       <c r="G135" t="n">
-        <v>-2299172.460541099</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>529917.0606</v>
       </c>
       <c r="G136" t="n">
-        <v>-1769255.399941099</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>1280782.6143</v>
       </c>
       <c r="G137" t="n">
-        <v>-488472.7856410989</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>51652.2207</v>
       </c>
       <c r="G138" t="n">
-        <v>-540125.0063410988</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>25820</v>
       </c>
       <c r="G139" t="n">
-        <v>-514305.0063410988</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>262.12</v>
       </c>
       <c r="G140" t="n">
-        <v>-514042.8863410988</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>26505.195</v>
       </c>
       <c r="G141" t="n">
-        <v>-514042.8863410988</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>65170</v>
       </c>
       <c r="G142" t="n">
-        <v>-579212.8863410988</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>0.5276999999999999</v>
       </c>
       <c r="G143" t="n">
-        <v>-579212.8863410988</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>14743.5161</v>
       </c>
       <c r="G144" t="n">
-        <v>-593956.4024410988</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>89899.7892</v>
       </c>
       <c r="G145" t="n">
-        <v>-593956.4024410988</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>62139.9365</v>
       </c>
       <c r="G146" t="n">
-        <v>-593956.4024410988</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>50259.1654</v>
       </c>
       <c r="G147" t="n">
-        <v>-593956.4024410988</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>28091.4153</v>
       </c>
       <c r="G148" t="n">
-        <v>-593956.4024410988</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>50000</v>
       </c>
       <c r="G149" t="n">
-        <v>-593956.4024410988</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>26150.3738</v>
       </c>
       <c r="G150" t="n">
-        <v>-593956.4024410988</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>44291.9621</v>
       </c>
       <c r="G151" t="n">
-        <v>-593956.4024410988</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>10207.8989</v>
       </c>
       <c r="G152" t="n">
-        <v>-604164.3013410988</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>263.1251</v>
       </c>
       <c r="G153" t="n">
-        <v>-603901.1762410989</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>164625.3311</v>
       </c>
       <c r="G154" t="n">
-        <v>-768526.507341099</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>27836.9116</v>
       </c>
       <c r="G155" t="n">
-        <v>-796363.418941099</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>233761.93</v>
       </c>
       <c r="G156" t="n">
-        <v>-562601.488941099</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>17819.1426</v>
       </c>
       <c r="G157" t="n">
-        <v>-580420.6315410991</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>173087.0638</v>
       </c>
       <c r="G158" t="n">
-        <v>-580420.6315410991</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>85395.8554</v>
       </c>
       <c r="G159" t="n">
-        <v>-665816.4869410991</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>127656.8536</v>
       </c>
       <c r="G160" t="n">
-        <v>-665816.4869410991</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>118388</v>
       </c>
       <c r="G161" t="n">
-        <v>-547428.4869410991</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>57504.1236</v>
       </c>
       <c r="G162" t="n">
-        <v>-604932.6105410991</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>52416.1212</v>
       </c>
       <c r="G163" t="n">
-        <v>-657348.7317410992</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>292808.4019</v>
       </c>
       <c r="G164" t="n">
-        <v>-657348.7317410992</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>19191.5565</v>
       </c>
       <c r="G165" t="n">
-        <v>-676540.2882410991</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>21168.1718</v>
       </c>
       <c r="G166" t="n">
-        <v>-676540.2882410991</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>574430.1048</v>
       </c>
       <c r="G167" t="n">
-        <v>-1250970.393041099</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>39886.5962</v>
       </c>
       <c r="G168" t="n">
-        <v>-1290856.989241099</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>45728.5586</v>
       </c>
       <c r="G169" t="n">
-        <v>-1290856.989241099</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>10255.2361</v>
       </c>
       <c r="G170" t="n">
-        <v>-1290856.989241099</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>8455.7567</v>
       </c>
       <c r="G171" t="n">
-        <v>-1299312.745941099</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>264.7123</v>
       </c>
       <c r="G172" t="n">
-        <v>-1299048.033641099</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>67081.9103</v>
       </c>
       <c r="G173" t="n">
-        <v>-1366129.943941099</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>20088.0939</v>
       </c>
       <c r="G174" t="n">
-        <v>-1386218.037841099</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>30987.6309</v>
       </c>
       <c r="G175" t="n">
-        <v>-1386218.037841099</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>21482.5903</v>
       </c>
       <c r="G176" t="n">
-        <v>-1364735.447541099</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,21 @@
         <v>192016.419</v>
       </c>
       <c r="G177" t="n">
-        <v>-1364735.447541099</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5729,21 @@
         <v>19731.3523</v>
       </c>
       <c r="G178" t="n">
-        <v>-1345004.095241099</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5765,19 @@
         <v>75915.4905</v>
       </c>
       <c r="G179" t="n">
-        <v>-1345004.095241099</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5799,19 @@
         <v>127539.8291</v>
       </c>
       <c r="G180" t="n">
-        <v>-1345004.095241099</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5833,19 @@
         <v>67339.8946</v>
       </c>
       <c r="G181" t="n">
-        <v>-1345004.095241099</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5867,19 @@
         <v>65492.993</v>
       </c>
       <c r="G182" t="n">
-        <v>-1345004.095241099</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5901,19 @@
         <v>169173.9569</v>
       </c>
       <c r="G183" t="n">
-        <v>-1345004.095241099</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5935,19 @@
         <v>220100.4811</v>
       </c>
       <c r="G184" t="n">
-        <v>-1124903.614141099</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5969,19 @@
         <v>122351.9998</v>
       </c>
       <c r="G185" t="n">
-        <v>-1247255.613941099</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6003,19 @@
         <v>357365.3113</v>
       </c>
       <c r="G186" t="n">
-        <v>-1604620.925241099</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6037,19 @@
         <v>6000</v>
       </c>
       <c r="G187" t="n">
-        <v>-1604620.925241099</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6071,19 @@
         <v>20262.9192</v>
       </c>
       <c r="G188" t="n">
-        <v>-1584358.006041099</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6105,19 @@
         <v>73018.74249999999</v>
       </c>
       <c r="G189" t="n">
-        <v>-1657376.748541099</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6139,19 @@
         <v>2000</v>
       </c>
       <c r="G190" t="n">
-        <v>-1659376.748541099</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6173,19 @@
         <v>29585.2415</v>
       </c>
       <c r="G191" t="n">
-        <v>-1659376.748541099</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6207,19 @@
         <v>156201.6877</v>
       </c>
       <c r="G192" t="n">
-        <v>-1503175.060841099</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6241,19 @@
         <v>498519.2179</v>
       </c>
       <c r="G193" t="n">
-        <v>-1004655.842941099</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6275,19 @@
         <v>263.2525</v>
       </c>
       <c r="G194" t="n">
-        <v>-1004392.590441099</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6309,19 @@
         <v>1000</v>
       </c>
       <c r="G195" t="n">
-        <v>-1005392.590441099</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6343,19 @@
         <v>2000</v>
       </c>
       <c r="G196" t="n">
-        <v>-1005392.590441099</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6377,19 @@
         <v>48520.7584</v>
       </c>
       <c r="G197" t="n">
-        <v>-1005392.590441099</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6411,19 @@
         <v>18064.5458</v>
       </c>
       <c r="G198" t="n">
-        <v>-1005392.590441099</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6445,19 @@
         <v>2000</v>
       </c>
       <c r="G199" t="n">
-        <v>-1005392.590441099</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6479,19 @@
         <v>8000</v>
       </c>
       <c r="G200" t="n">
-        <v>-1005392.590441099</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6513,19 @@
         <v>4000</v>
       </c>
       <c r="G201" t="n">
-        <v>-1005392.590441099</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6547,19 @@
         <v>20521.4468</v>
       </c>
       <c r="G202" t="n">
-        <v>-1005392.590441099</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6581,19 @@
         <v>2463.7668</v>
       </c>
       <c r="G203" t="n">
-        <v>-1002928.823641099</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6615,19 @@
         <v>4000</v>
       </c>
       <c r="G204" t="n">
-        <v>-1006928.823641099</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6649,19 @@
         <v>2000</v>
       </c>
       <c r="G205" t="n">
-        <v>-1006928.823641099</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6683,19 @@
         <v>23323.1986</v>
       </c>
       <c r="G206" t="n">
-        <v>-1006928.823641099</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6717,19 @@
         <v>22889.1463</v>
       </c>
       <c r="G207" t="n">
-        <v>-1006928.823641099</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6751,19 @@
         <v>4263.2525</v>
       </c>
       <c r="G208" t="n">
-        <v>-1006928.823641099</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6785,19 @@
         <v>26457.0198</v>
       </c>
       <c r="G209" t="n">
-        <v>-1006928.823641099</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6819,19 @@
         <v>20192.8208</v>
       </c>
       <c r="G210" t="n">
-        <v>-1006928.823641099</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,22 +6853,19 @@
         <v>22077.5397</v>
       </c>
       <c r="G211" t="n">
-        <v>-1006928.823641099</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="J211" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7382,26 +6887,19 @@
         <v>33862.4631</v>
       </c>
       <c r="G212" t="n">
-        <v>-1006928.823641099</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="J212" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7423,26 +6921,19 @@
         <v>26606.8141</v>
       </c>
       <c r="G213" t="n">
-        <v>-980322.0095410994</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="J213" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7464,22 +6955,19 @@
         <v>53692.6711</v>
       </c>
       <c r="G214" t="n">
-        <v>-980322.0095410994</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J214" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7501,26 +6989,19 @@
         <v>31150.5148</v>
       </c>
       <c r="G215" t="n">
-        <v>-980322.0095410994</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J215" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7542,26 +7023,19 @@
         <v>1000</v>
       </c>
       <c r="G216" t="n">
-        <v>-981322.0095410994</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J216" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7583,22 +7057,19 @@
         <v>25401.4858</v>
       </c>
       <c r="G217" t="n">
-        <v>-955920.5237410994</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J217" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7620,26 +7091,19 @@
         <v>1000</v>
       </c>
       <c r="G218" t="n">
-        <v>-955920.5237410994</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J218" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7661,26 +7125,19 @@
         <v>2000</v>
       </c>
       <c r="G219" t="n">
-        <v>-955920.5237410994</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J219" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7702,22 +7159,19 @@
         <v>25187.9656</v>
       </c>
       <c r="G220" t="n">
-        <v>-955920.5237410994</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J220" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7739,26 +7193,19 @@
         <v>1640.5486</v>
       </c>
       <c r="G221" t="n">
-        <v>-955920.5237410994</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J221" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7780,26 +7227,19 @@
         <v>45301.66</v>
       </c>
       <c r="G222" t="n">
-        <v>-955920.5237410994</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J222" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7821,22 +7261,19 @@
         <v>19801.3553</v>
       </c>
       <c r="G223" t="n">
-        <v>-975721.8790410995</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J223" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7858,26 +7295,19 @@
         <v>17230.1142</v>
       </c>
       <c r="G224" t="n">
-        <v>-975721.8790410995</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="J224" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7899,26 +7329,19 @@
         <v>12415.027</v>
       </c>
       <c r="G225" t="n">
-        <v>-975721.8790410995</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="J225" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7940,22 +7363,19 @@
         <v>19159.7241</v>
       </c>
       <c r="G226" t="n">
-        <v>-975721.8790410995</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="J226" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7977,26 +7397,19 @@
         <v>24734.7957</v>
       </c>
       <c r="G227" t="n">
-        <v>-975721.8790410995</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="J227" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8018,26 +7431,19 @@
         <v>21002.2173</v>
       </c>
       <c r="G228" t="n">
-        <v>-975721.8790410995</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="J228" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8059,22 +7465,19 @@
         <v>18325.7739</v>
       </c>
       <c r="G229" t="n">
-        <v>-975721.8790410995</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="J229" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8096,24 +7499,19 @@
         <v>35927.24</v>
       </c>
       <c r="G230" t="n">
-        <v>-975721.8790410995</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8135,24 +7533,19 @@
         <v>25442.11</v>
       </c>
       <c r="G231" t="n">
-        <v>-975721.8790410995</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8174,18 +7567,19 @@
         <v>35580.2922</v>
       </c>
       <c r="G232" t="n">
-        <v>-940141.5868410994</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8207,18 +7601,19 @@
         <v>18623.8989</v>
       </c>
       <c r="G233" t="n">
-        <v>-940141.5868410994</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8240,18 +7635,19 @@
         <v>19434.5067</v>
       </c>
       <c r="G234" t="n">
-        <v>-940141.5868410994</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8273,18 +7669,19 @@
         <v>49421.0964</v>
       </c>
       <c r="G235" t="n">
-        <v>-940141.5868410994</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8306,18 +7703,19 @@
         <v>23754.0985</v>
       </c>
       <c r="G236" t="n">
-        <v>-940141.5868410994</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8339,18 +7737,19 @@
         <v>40339.0217</v>
       </c>
       <c r="G237" t="n">
-        <v>-940141.5868410994</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8372,18 +7771,19 @@
         <v>24980.4039</v>
       </c>
       <c r="G238" t="n">
-        <v>-940141.5868410994</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8405,18 +7805,19 @@
         <v>19095.2027</v>
       </c>
       <c r="G239" t="n">
-        <v>-940141.5868410994</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8438,22 +7839,19 @@
         <v>44711.1704</v>
       </c>
       <c r="G240" t="n">
-        <v>-940141.5868410994</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="J240" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8475,26 +7873,19 @@
         <v>60000</v>
       </c>
       <c r="G241" t="n">
-        <v>-1000141.586841099</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="J241" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8516,26 +7907,19 @@
         <v>52891.8439</v>
       </c>
       <c r="G242" t="n">
-        <v>-1000141.586841099</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="J242" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K242" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8557,26 +7941,19 @@
         <v>179418.0864</v>
       </c>
       <c r="G243" t="n">
-        <v>-1179559.673241099</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="J243" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K243" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8598,26 +7975,19 @@
         <v>28117.2986</v>
       </c>
       <c r="G244" t="n">
-        <v>-1179559.673241099</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="J244" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K244" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8639,26 +8009,19 @@
         <v>14302.226</v>
       </c>
       <c r="G245" t="n">
-        <v>-1165257.447241099</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="J245" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K245" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8680,24 +8043,19 @@
         <v>437999.2839</v>
       </c>
       <c r="G246" t="n">
-        <v>-1603256.731141099</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K246" t="inlineStr">
+      <c r="J246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8719,24 +8077,19 @@
         <v>424428.9704</v>
       </c>
       <c r="G247" t="n">
-        <v>-2027685.701541099</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K247" t="inlineStr">
+      <c r="J247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8758,24 +8111,19 @@
         <v>144329.3116</v>
       </c>
       <c r="G248" t="n">
-        <v>-2172015.013141099</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K248" t="inlineStr">
+      <c r="J248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8797,24 +8145,19 @@
         <v>5507</v>
       </c>
       <c r="G249" t="n">
-        <v>-2172015.013141099</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K249" t="inlineStr">
+      <c r="J249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8836,24 +8179,19 @@
         <v>263963.5872</v>
       </c>
       <c r="G250" t="n">
-        <v>-1908051.425941099</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K250" t="inlineStr">
+      <c r="J250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8875,26 +8213,19 @@
         <v>399086.1759</v>
       </c>
       <c r="G251" t="n">
-        <v>-1908051.425941099</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J251" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K251" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8916,24 +8247,19 @@
         <v>138270.5356</v>
       </c>
       <c r="G252" t="n">
-        <v>-2046321.961541099</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K252" t="inlineStr">
+      <c r="J252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8955,24 +8281,19 @@
         <v>2000</v>
       </c>
       <c r="G253" t="n">
-        <v>-2046321.961541099</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K253" t="inlineStr">
+      <c r="J253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8994,26 +8315,19 @@
         <v>68764</v>
       </c>
       <c r="G254" t="n">
-        <v>-1977557.961541099</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="J254" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K254" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9035,24 +8349,19 @@
         <v>622040</v>
       </c>
       <c r="G255" t="n">
-        <v>-1355517.961541099</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K255" t="inlineStr">
+      <c r="J255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9074,24 +8383,19 @@
         <v>24311.123</v>
       </c>
       <c r="G256" t="n">
-        <v>-1331206.8385411</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K256" t="inlineStr">
+      <c r="J256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9113,24 +8417,19 @@
         <v>35000</v>
       </c>
       <c r="G257" t="n">
-        <v>-1331206.8385411</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K257" t="inlineStr">
+      <c r="J257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9152,24 +8451,19 @@
         <v>22867.3772</v>
       </c>
       <c r="G258" t="n">
-        <v>-1354074.2157411</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K258" t="inlineStr">
+      <c r="J258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9191,24 +8485,19 @@
         <v>499691.5829</v>
       </c>
       <c r="G259" t="n">
-        <v>-1853765.7986411</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K259" t="inlineStr">
+      <c r="J259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9230,24 +8519,19 @@
         <v>2000</v>
       </c>
       <c r="G260" t="n">
-        <v>-1853765.7986411</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K260" t="inlineStr">
+      <c r="J260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9269,24 +8553,19 @@
         <v>13000</v>
       </c>
       <c r="G261" t="n">
-        <v>-1853765.7986411</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K261" t="inlineStr">
+      <c r="J261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9308,24 +8587,19 @@
         <v>42000</v>
       </c>
       <c r="G262" t="n">
-        <v>-1853765.7986411</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K262" t="inlineStr">
+      <c r="J262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9347,24 +8621,19 @@
         <v>87460</v>
       </c>
       <c r="G263" t="n">
-        <v>-1853765.7986411</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K263" t="inlineStr">
+      <c r="J263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9386,24 +8655,19 @@
         <v>29260</v>
       </c>
       <c r="G264" t="n">
-        <v>-1883025.7986411</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K264" t="inlineStr">
+      <c r="J264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9425,26 +8689,19 @@
         <v>740</v>
       </c>
       <c r="G265" t="n">
-        <v>-1883025.7986411</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J265" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K265" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
